--- a/Code/Results/Cases/Case_0_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_41/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9390608509954809</v>
+        <v>0.9390608509954826</v>
       </c>
       <c r="D2">
-        <v>0.9481405002791524</v>
+        <v>0.948140500279154</v>
       </c>
       <c r="E2">
-        <v>0.9549744905949323</v>
+        <v>0.9549744905949337</v>
       </c>
       <c r="F2">
-        <v>0.9587862490402886</v>
+        <v>0.9587862490402901</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.036053682363266</v>
       </c>
       <c r="J2">
-        <v>0.9632306455643718</v>
+        <v>0.9632306455643732</v>
       </c>
       <c r="K2">
-        <v>0.9603729363330863</v>
+        <v>0.9603729363330878</v>
       </c>
       <c r="L2">
-        <v>0.967098906014085</v>
+        <v>0.9670989060140863</v>
       </c>
       <c r="M2">
-        <v>0.9708512690585801</v>
+        <v>0.9708512690585815</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9528947031242913</v>
+        <v>0.9528947031242906</v>
       </c>
       <c r="D3">
-        <v>0.96113774631765</v>
+        <v>0.9611377463176495</v>
       </c>
       <c r="E3">
-        <v>0.9667524048225742</v>
+        <v>0.966752404822574</v>
       </c>
       <c r="F3">
-        <v>0.9718108861992013</v>
+        <v>0.9718108861992009</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.039197078513937</v>
       </c>
       <c r="J3">
-        <v>0.9747574152048425</v>
+        <v>0.9747574152048419</v>
       </c>
       <c r="K3">
-        <v>0.9722932717415014</v>
+        <v>0.9722932717415008</v>
       </c>
       <c r="L3">
-        <v>0.9778291445580281</v>
+        <v>0.9778291445580278</v>
       </c>
       <c r="M3">
-        <v>0.9828176270248929</v>
+        <v>0.9828176270248925</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9613419231185835</v>
+        <v>0.9613419231185864</v>
       </c>
       <c r="D4">
-        <v>0.969082328231799</v>
+        <v>0.969082328231802</v>
       </c>
       <c r="E4">
-        <v>0.9739549451872342</v>
+        <v>0.9739549451872367</v>
       </c>
       <c r="F4">
-        <v>0.9797651998498877</v>
+        <v>0.9797651998498897</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041085712140442</v>
+        <v>1.041085712140443</v>
       </c>
       <c r="J4">
-        <v>0.9817890077822993</v>
+        <v>0.9817890077823016</v>
       </c>
       <c r="K4">
-        <v>0.9795688032369184</v>
+        <v>0.9795688032369213</v>
       </c>
       <c r="L4">
-        <v>0.9843782185442794</v>
+        <v>0.9843782185442814</v>
       </c>
       <c r="M4">
-        <v>0.9901141359431156</v>
+        <v>0.9901141359431177</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9647850836342544</v>
+        <v>0.9647850836342542</v>
       </c>
       <c r="D5">
         <v>0.9723223315964412</v>
       </c>
       <c r="E5">
-        <v>0.9768929950917284</v>
+        <v>0.9768929950917281</v>
       </c>
       <c r="F5">
-        <v>0.983007308676356</v>
+        <v>0.9830073086763552</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.04184779314743</v>
       </c>
       <c r="J5">
-        <v>0.9846532875418137</v>
+        <v>0.9846532875418136</v>
       </c>
       <c r="K5">
         <v>0.9825333738290762</v>
       </c>
       <c r="L5">
-        <v>0.9870467085692327</v>
+        <v>0.9870467085692325</v>
       </c>
       <c r="M5">
-        <v>0.9930853689017638</v>
+        <v>0.993085368901763</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9653571962434031</v>
+        <v>0.9653571962434022</v>
       </c>
       <c r="D6">
-        <v>0.9728607827601229</v>
+        <v>0.9728607827601222</v>
       </c>
       <c r="E6">
-        <v>0.9773813015012107</v>
+        <v>0.9773813015012095</v>
       </c>
       <c r="F6">
-        <v>0.9835459952552844</v>
+        <v>0.9835459952552835</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.041973954335456</v>
       </c>
       <c r="J6">
-        <v>0.9851290989091832</v>
+        <v>0.9851290989091824</v>
       </c>
       <c r="K6">
-        <v>0.9830258997916536</v>
+        <v>0.9830258997916527</v>
       </c>
       <c r="L6">
-        <v>0.9874900390816654</v>
+        <v>0.9874900390816644</v>
       </c>
       <c r="M6">
-        <v>0.9935788859662696</v>
+        <v>0.9935788859662689</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.961388340287324</v>
+        <v>0.961388340287325</v>
       </c>
       <c r="D7">
-        <v>0.9691260000887398</v>
+        <v>0.9691260000887411</v>
       </c>
       <c r="E7">
-        <v>0.9739945445020047</v>
+        <v>0.9739945445020058</v>
       </c>
       <c r="F7">
-        <v>0.9798089077199528</v>
+        <v>0.9798089077199532</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.041096016988954</v>
       </c>
       <c r="J7">
-        <v>0.9818276287214792</v>
+        <v>0.9818276287214802</v>
       </c>
       <c r="K7">
-        <v>0.9796087727867617</v>
+        <v>0.9796087727867631</v>
       </c>
       <c r="L7">
-        <v>0.9844141965530495</v>
+        <v>0.9844141965530506</v>
       </c>
       <c r="M7">
-        <v>0.9901542030399817</v>
+        <v>0.9901542030399824</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,19 +646,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.050000000000001</v>
       </c>
       <c r="C8">
-        <v>0.9438488526409584</v>
+        <v>0.9438488526409577</v>
       </c>
       <c r="D8">
-        <v>0.9526370103724039</v>
+        <v>0.9526370103724028</v>
       </c>
       <c r="E8">
-        <v>0.9590483782583687</v>
+        <v>0.9590483782583681</v>
       </c>
       <c r="F8">
-        <v>0.9632936184550369</v>
+        <v>0.9632936184550364</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.037148018854151</v>
       </c>
       <c r="J8">
-        <v>0.9672214847634329</v>
+        <v>0.9672214847634322</v>
       </c>
       <c r="K8">
-        <v>0.9644992065034201</v>
+        <v>0.9644992065034192</v>
       </c>
       <c r="L8">
-        <v>0.9708132042919519</v>
+        <v>0.9708132042919513</v>
       </c>
       <c r="M8">
-        <v>0.9749948786463724</v>
+        <v>0.974994878646372</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9083511109228787</v>
+        <v>0.9083511109228801</v>
       </c>
       <c r="D9">
-        <v>0.9193522491798077</v>
+        <v>0.9193522491798091</v>
       </c>
       <c r="E9">
-        <v>0.9289136814162939</v>
+        <v>0.9289136814162957</v>
       </c>
       <c r="F9">
-        <v>0.9299066185982696</v>
+        <v>0.9299066185982708</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028912332229976</v>
+        <v>1.028912332229977</v>
       </c>
       <c r="J9">
-        <v>0.9376141402198133</v>
+        <v>0.9376141402198146</v>
       </c>
       <c r="K9">
-        <v>0.933904972264662</v>
+        <v>0.9339049722646628</v>
       </c>
       <c r="L9">
-        <v>0.9432759651263503</v>
+        <v>0.9432759651263517</v>
       </c>
       <c r="M9">
-        <v>0.9442494200760688</v>
+        <v>0.9442494200760699</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,13 +725,13 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8801886286027322</v>
+        <v>0.8801886286027326</v>
       </c>
       <c r="D10">
-        <v>0.8930383537029021</v>
+        <v>0.8930383537029029</v>
       </c>
       <c r="E10">
-        <v>0.905130061905701</v>
+        <v>0.9051300619057019</v>
       </c>
       <c r="F10">
         <v>0.9035004002056071</v>
@@ -743,16 +743,16 @@
         <v>1.022245574939285</v>
       </c>
       <c r="J10">
-        <v>0.9141189839299366</v>
+        <v>0.914118983929937</v>
       </c>
       <c r="K10">
-        <v>0.9096505984781614</v>
+        <v>0.9096505984781621</v>
       </c>
       <c r="L10">
-        <v>0.9214531140047355</v>
+        <v>0.9214531140047364</v>
       </c>
       <c r="M10">
-        <v>0.919861823503213</v>
+        <v>0.9198618235032129</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8664238059719745</v>
+        <v>0.8664238059719711</v>
       </c>
       <c r="D11">
-        <v>0.8802104866907108</v>
+        <v>0.8802104866907076</v>
       </c>
       <c r="E11">
-        <v>0.8935504511579521</v>
+        <v>0.8935504511579488</v>
       </c>
       <c r="F11">
-        <v>0.8906331486914894</v>
+        <v>0.8906331486914865</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.01896863459012</v>
+        <v>1.018968634590119</v>
       </c>
       <c r="J11">
-        <v>0.9026436089704065</v>
+        <v>0.9026436089704032</v>
       </c>
       <c r="K11">
-        <v>0.8978102232528588</v>
+        <v>0.8978102232528556</v>
       </c>
       <c r="L11">
-        <v>0.9108039101815872</v>
+        <v>0.910803910181584</v>
       </c>
       <c r="M11">
-        <v>0.907961136186521</v>
+        <v>0.9079611361865182</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8610079238175167</v>
+        <v>0.8610079238175148</v>
       </c>
       <c r="D12">
-        <v>0.8751697106081455</v>
+        <v>0.8751697106081435</v>
       </c>
       <c r="E12">
-        <v>0.8890030632188357</v>
+        <v>0.8890030632188339</v>
       </c>
       <c r="F12">
-        <v>0.8855788534115481</v>
+        <v>0.8855788534115464</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.017678197748778</v>
       </c>
       <c r="J12">
-        <v>0.8981310292569122</v>
+        <v>0.8981310292569102</v>
       </c>
       <c r="K12">
-        <v>0.8931549874768991</v>
+        <v>0.8931549874768971</v>
       </c>
       <c r="L12">
-        <v>0.9066179177816447</v>
+        <v>0.906617917781643</v>
       </c>
       <c r="M12">
-        <v>0.9032839369193666</v>
+        <v>0.9032839369193648</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8621847772586547</v>
+        <v>0.8621847772586565</v>
       </c>
       <c r="D13">
-        <v>0.8762647363208096</v>
+        <v>0.8762647363208111</v>
       </c>
       <c r="E13">
-        <v>0.8899907659433517</v>
+        <v>0.8899907659433535</v>
       </c>
       <c r="F13">
-        <v>0.8866767051074735</v>
+        <v>0.8866767051074751</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.01795862101033</v>
       </c>
       <c r="J13">
-        <v>0.8991114598935868</v>
+        <v>0.8991114598935885</v>
       </c>
       <c r="K13">
-        <v>0.8941663731262265</v>
+        <v>0.8941663731262283</v>
       </c>
       <c r="L13">
-        <v>0.9075273097791068</v>
+        <v>0.9075273097791082</v>
       </c>
       <c r="M13">
-        <v>0.904299994438885</v>
+        <v>0.9042999944388864</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8659828064702924</v>
+        <v>0.8659828064702914</v>
       </c>
       <c r="D14">
-        <v>0.8797998917603395</v>
+        <v>0.8797998917603385</v>
       </c>
       <c r="E14">
-        <v>0.8931799827148441</v>
+        <v>0.8931799827148432</v>
       </c>
       <c r="F14">
-        <v>0.8902214053570653</v>
+        <v>0.8902214053570642</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.018863568283674</v>
       </c>
       <c r="J14">
-        <v>0.9022761036654106</v>
+        <v>0.9022761036654096</v>
       </c>
       <c r="K14">
-        <v>0.8974310824690388</v>
+        <v>0.897431082469038</v>
       </c>
       <c r="L14">
-        <v>0.9104629660650301</v>
+        <v>0.9104629660650293</v>
       </c>
       <c r="M14">
-        <v>0.9075801641435747</v>
+        <v>0.9075801641435738</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8682802272973195</v>
+        <v>0.868280227297318</v>
       </c>
       <c r="D15">
-        <v>0.8819391853141648</v>
+        <v>0.8819391853141634</v>
       </c>
       <c r="E15">
-        <v>0.8951103277416361</v>
+        <v>0.8951103277416349</v>
       </c>
       <c r="F15">
-        <v>0.8923667683333045</v>
+        <v>0.8923667683333034</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.019410886810715</v>
       </c>
       <c r="J15">
-        <v>0.9041907594807976</v>
+        <v>0.9041907594807965</v>
       </c>
       <c r="K15">
-        <v>0.8994063927010874</v>
+        <v>0.8994063927010861</v>
       </c>
       <c r="L15">
-        <v>0.9122393115606742</v>
+        <v>0.9122393115606728</v>
       </c>
       <c r="M15">
-        <v>0.909565092281453</v>
+        <v>0.9095650922814518</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.881063976247985</v>
+        <v>0.8810639762479834</v>
       </c>
       <c r="D16">
-        <v>0.8938548898835981</v>
+        <v>0.8938548898835966</v>
       </c>
       <c r="E16">
-        <v>0.9058674862005704</v>
+        <v>0.9058674862005696</v>
       </c>
       <c r="F16">
-        <v>0.9043196364742117</v>
+        <v>0.9043196364742103</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.022453720198201</v>
+        <v>1.0224537201982</v>
       </c>
       <c r="J16">
-        <v>0.914848994765453</v>
+        <v>0.9148489947654516</v>
       </c>
       <c r="K16">
-        <v>0.9104039454952706</v>
+        <v>0.9104039454952689</v>
       </c>
       <c r="L16">
-        <v>0.9221307768008427</v>
+        <v>0.9221307768008417</v>
       </c>
       <c r="M16">
-        <v>0.9206191778951807</v>
+        <v>0.9206191778951794</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8886233327181728</v>
+        <v>0.8886233327181705</v>
       </c>
       <c r="D17">
-        <v>0.9009100784055269</v>
+        <v>0.9009100784055241</v>
       </c>
       <c r="E17">
-        <v>0.9122407642472847</v>
+        <v>0.9122407642472826</v>
       </c>
       <c r="F17">
-        <v>0.9113988442979386</v>
+        <v>0.9113988442979367</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.024249367541925</v>
+        <v>1.024249367541924</v>
       </c>
       <c r="J17">
-        <v>0.9211542287781125</v>
+        <v>0.9211542287781103</v>
       </c>
       <c r="K17">
-        <v>0.9169113667933606</v>
+        <v>0.9169113667933581</v>
       </c>
       <c r="L17">
-        <v>0.9279849085780982</v>
+        <v>0.9279849085780963</v>
       </c>
       <c r="M17">
-        <v>0.9271618026622278</v>
+        <v>0.9271618026622258</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8928867105726369</v>
+        <v>0.8928867105726359</v>
       </c>
       <c r="D18">
-        <v>0.9048919969244741</v>
+        <v>0.9048919969244732</v>
       </c>
       <c r="E18">
-        <v>0.9158390890802562</v>
+        <v>0.9158390890802552</v>
       </c>
       <c r="F18">
-        <v>0.9153947391985677</v>
+        <v>0.915394739198567</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.025260313840424</v>
       </c>
       <c r="J18">
-        <v>0.9247109390759899</v>
+        <v>0.924710939075989</v>
       </c>
       <c r="K18">
-        <v>0.9205826488361131</v>
+        <v>0.9205826488361122</v>
       </c>
       <c r="L18">
-        <v>0.9312879764527933</v>
+        <v>0.9312879764527926</v>
       </c>
       <c r="M18">
-        <v>0.9308532904445165</v>
+        <v>0.9308532904445155</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8943172776108055</v>
+        <v>0.8943172776108049</v>
       </c>
       <c r="D19">
-        <v>0.9062285780885786</v>
+        <v>0.9062285780885778</v>
       </c>
       <c r="E19">
-        <v>0.9170471132798053</v>
+        <v>0.9170471132798048</v>
       </c>
       <c r="F19">
-        <v>0.9167360582192075</v>
+        <v>0.9167360582192071</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.0255991948665</v>
+        <v>1.025599194866499</v>
       </c>
       <c r="J19">
-        <v>0.9259044658573986</v>
+        <v>0.9259044658573982</v>
       </c>
       <c r="K19">
-        <v>0.9218147106419834</v>
+        <v>0.9218147106419828</v>
       </c>
       <c r="L19">
-        <v>0.9323965206898704</v>
+        <v>0.9323965206898701</v>
       </c>
       <c r="M19">
-        <v>0.9320921684785369</v>
+        <v>0.9320921684785366</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8878277694558003</v>
+        <v>0.8878277694558023</v>
       </c>
       <c r="D20">
-        <v>0.9001672646258725</v>
+        <v>0.9001672646258745</v>
       </c>
       <c r="E20">
-        <v>0.911569609071767</v>
+        <v>0.9115696090717688</v>
       </c>
       <c r="F20">
-        <v>0.9106534514389851</v>
+        <v>0.9106534514389867</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.024060566037712</v>
       </c>
       <c r="J20">
-        <v>0.9204905778865734</v>
+        <v>0.9204905778865753</v>
       </c>
       <c r="K20">
-        <v>0.9162263803656097</v>
+        <v>0.9162263803656115</v>
       </c>
       <c r="L20">
-        <v>0.9273686505204591</v>
+        <v>0.9273686505204607</v>
       </c>
       <c r="M20">
-        <v>0.9264730686783256</v>
+        <v>0.9264730686783271</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8648734381876187</v>
+        <v>0.8648734381876181</v>
       </c>
       <c r="D21">
-        <v>0.8787671170272332</v>
+        <v>0.8787671170272324</v>
       </c>
       <c r="E21">
-        <v>0.8922481871722512</v>
+        <v>0.8922481871722505</v>
       </c>
       <c r="F21">
-        <v>0.8891857777873871</v>
+        <v>0.8891857777873864</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.018599255186965</v>
+        <v>1.018599255186964</v>
       </c>
       <c r="J21">
-        <v>0.9013516607001637</v>
+        <v>0.901351660700163</v>
       </c>
       <c r="K21">
-        <v>0.8964773849377343</v>
+        <v>0.8964773849377333</v>
       </c>
       <c r="L21">
-        <v>0.9096053648604882</v>
+        <v>0.9096053648604875</v>
       </c>
       <c r="M21">
-        <v>0.906621892353044</v>
+        <v>0.9066218923530432</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8486280485432565</v>
+        <v>0.8486280485432569</v>
       </c>
       <c r="D22">
-        <v>0.8636616280198443</v>
+        <v>0.8636616280198447</v>
       </c>
       <c r="E22">
-        <v>0.8786278177546457</v>
+        <v>0.8786278177546464</v>
       </c>
       <c r="F22">
-        <v>0.8740453517183665</v>
+        <v>0.8740453517183671</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.014728939120435</v>
       </c>
       <c r="J22">
-        <v>0.8878226579467166</v>
+        <v>0.8878226579467171</v>
       </c>
       <c r="K22">
-        <v>0.8825223861898263</v>
+        <v>0.8825223861898269</v>
       </c>
       <c r="L22">
-        <v>0.8970592430392211</v>
+        <v>0.8970592430392218</v>
       </c>
       <c r="M22">
-        <v>0.8926060975979936</v>
+        <v>0.892606097597994</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8574434408877728</v>
+        <v>0.8574434408877736</v>
       </c>
       <c r="D23">
-        <v>0.8718541630761296</v>
+        <v>0.8718541630761303</v>
       </c>
       <c r="E23">
-        <v>0.8860129610241388</v>
+        <v>0.8860129610241396</v>
       </c>
       <c r="F23">
-        <v>0.8822551529270436</v>
+        <v>0.8822551529270443</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.016828852377851</v>
+        <v>1.016828852377852</v>
       </c>
       <c r="J23">
-        <v>0.8951619747941847</v>
+        <v>0.8951619747941855</v>
       </c>
       <c r="K23">
-        <v>0.8900923200984074</v>
+        <v>0.8900923200984083</v>
       </c>
       <c r="L23">
-        <v>0.9038642705032596</v>
+        <v>0.9038642705032602</v>
       </c>
       <c r="M23">
-        <v>0.9002074869691212</v>
+        <v>0.9002074869691218</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8881876963500094</v>
+        <v>0.8881876963500108</v>
       </c>
       <c r="D24">
-        <v>0.9005033177749495</v>
+        <v>0.9005033177749513</v>
       </c>
       <c r="E24">
-        <v>0.9118732395170824</v>
+        <v>0.9118732395170835</v>
       </c>
       <c r="F24">
-        <v>0.9109906701348307</v>
+        <v>0.9109906701348317</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.024145988851828</v>
       </c>
       <c r="J24">
-        <v>0.920790823364247</v>
+        <v>0.9207908233642483</v>
       </c>
       <c r="K24">
-        <v>0.91653627672567</v>
+        <v>0.9165362767256716</v>
       </c>
       <c r="L24">
-        <v>0.9276474522316321</v>
+        <v>0.9276474522316331</v>
       </c>
       <c r="M24">
-        <v>0.9267846594659738</v>
+        <v>0.9267846594659748</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9181922692540919</v>
+        <v>0.9181922692540893</v>
       </c>
       <c r="D25">
-        <v>0.9285675177256603</v>
+        <v>0.9285675177256576</v>
       </c>
       <c r="E25">
-        <v>0.9372515834383975</v>
+        <v>0.9372515834383954</v>
       </c>
       <c r="F25">
-        <v>0.9391539585659852</v>
+        <v>0.939153958565983</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.031220134502114</v>
       </c>
       <c r="J25">
-        <v>0.9458254351587813</v>
+        <v>0.9458254351587787</v>
       </c>
       <c r="K25">
-        <v>0.9423861370241789</v>
+        <v>0.9423861370241764</v>
       </c>
       <c r="L25">
-        <v>0.9509089140839224</v>
+        <v>0.9509089140839203</v>
       </c>
       <c r="M25">
-        <v>0.9527764749378685</v>
+        <v>0.9527764749378665</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_41/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9390608509954826</v>
+        <v>0.9390608509954809</v>
       </c>
       <c r="D2">
-        <v>0.948140500279154</v>
+        <v>0.9481405002791524</v>
       </c>
       <c r="E2">
-        <v>0.9549744905949337</v>
+        <v>0.9549744905949323</v>
       </c>
       <c r="F2">
-        <v>0.9587862490402901</v>
+        <v>0.9587862490402886</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.036053682363266</v>
       </c>
       <c r="J2">
-        <v>0.9632306455643732</v>
+        <v>0.9632306455643718</v>
       </c>
       <c r="K2">
-        <v>0.9603729363330878</v>
+        <v>0.9603729363330863</v>
       </c>
       <c r="L2">
-        <v>0.9670989060140863</v>
+        <v>0.967098906014085</v>
       </c>
       <c r="M2">
-        <v>0.9708512690585815</v>
+        <v>0.9708512690585801</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9528947031242906</v>
+        <v>0.9528947031242913</v>
       </c>
       <c r="D3">
-        <v>0.9611377463176495</v>
+        <v>0.96113774631765</v>
       </c>
       <c r="E3">
-        <v>0.966752404822574</v>
+        <v>0.9667524048225742</v>
       </c>
       <c r="F3">
-        <v>0.9718108861992009</v>
+        <v>0.9718108861992013</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.039197078513937</v>
       </c>
       <c r="J3">
-        <v>0.9747574152048419</v>
+        <v>0.9747574152048425</v>
       </c>
       <c r="K3">
-        <v>0.9722932717415008</v>
+        <v>0.9722932717415014</v>
       </c>
       <c r="L3">
-        <v>0.9778291445580278</v>
+        <v>0.9778291445580281</v>
       </c>
       <c r="M3">
-        <v>0.9828176270248925</v>
+        <v>0.9828176270248929</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9613419231185864</v>
+        <v>0.9613419231185835</v>
       </c>
       <c r="D4">
-        <v>0.969082328231802</v>
+        <v>0.969082328231799</v>
       </c>
       <c r="E4">
-        <v>0.9739549451872367</v>
+        <v>0.9739549451872342</v>
       </c>
       <c r="F4">
-        <v>0.9797651998498897</v>
+        <v>0.9797651998498877</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041085712140443</v>
+        <v>1.041085712140442</v>
       </c>
       <c r="J4">
-        <v>0.9817890077823016</v>
+        <v>0.9817890077822993</v>
       </c>
       <c r="K4">
-        <v>0.9795688032369213</v>
+        <v>0.9795688032369184</v>
       </c>
       <c r="L4">
-        <v>0.9843782185442814</v>
+        <v>0.9843782185442794</v>
       </c>
       <c r="M4">
-        <v>0.9901141359431177</v>
+        <v>0.9901141359431156</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9647850836342542</v>
+        <v>0.9647850836342544</v>
       </c>
       <c r="D5">
         <v>0.9723223315964412</v>
       </c>
       <c r="E5">
-        <v>0.9768929950917281</v>
+        <v>0.9768929950917284</v>
       </c>
       <c r="F5">
-        <v>0.9830073086763552</v>
+        <v>0.983007308676356</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.04184779314743</v>
       </c>
       <c r="J5">
-        <v>0.9846532875418136</v>
+        <v>0.9846532875418137</v>
       </c>
       <c r="K5">
         <v>0.9825333738290762</v>
       </c>
       <c r="L5">
-        <v>0.9870467085692325</v>
+        <v>0.9870467085692327</v>
       </c>
       <c r="M5">
-        <v>0.993085368901763</v>
+        <v>0.9930853689017638</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9653571962434022</v>
+        <v>0.9653571962434031</v>
       </c>
       <c r="D6">
-        <v>0.9728607827601222</v>
+        <v>0.9728607827601229</v>
       </c>
       <c r="E6">
-        <v>0.9773813015012095</v>
+        <v>0.9773813015012107</v>
       </c>
       <c r="F6">
-        <v>0.9835459952552835</v>
+        <v>0.9835459952552844</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.041973954335456</v>
       </c>
       <c r="J6">
-        <v>0.9851290989091824</v>
+        <v>0.9851290989091832</v>
       </c>
       <c r="K6">
-        <v>0.9830258997916527</v>
+        <v>0.9830258997916536</v>
       </c>
       <c r="L6">
-        <v>0.9874900390816644</v>
+        <v>0.9874900390816654</v>
       </c>
       <c r="M6">
-        <v>0.9935788859662689</v>
+        <v>0.9935788859662696</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.961388340287325</v>
+        <v>0.961388340287324</v>
       </c>
       <c r="D7">
-        <v>0.9691260000887411</v>
+        <v>0.9691260000887398</v>
       </c>
       <c r="E7">
-        <v>0.9739945445020058</v>
+        <v>0.9739945445020047</v>
       </c>
       <c r="F7">
-        <v>0.9798089077199532</v>
+        <v>0.9798089077199528</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.041096016988954</v>
       </c>
       <c r="J7">
-        <v>0.9818276287214802</v>
+        <v>0.9818276287214792</v>
       </c>
       <c r="K7">
-        <v>0.9796087727867631</v>
+        <v>0.9796087727867617</v>
       </c>
       <c r="L7">
-        <v>0.9844141965530506</v>
+        <v>0.9844141965530495</v>
       </c>
       <c r="M7">
-        <v>0.9901542030399824</v>
+        <v>0.9901542030399817</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,19 +646,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.050000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9438488526409577</v>
+        <v>0.9438488526409584</v>
       </c>
       <c r="D8">
-        <v>0.9526370103724028</v>
+        <v>0.9526370103724039</v>
       </c>
       <c r="E8">
-        <v>0.9590483782583681</v>
+        <v>0.9590483782583687</v>
       </c>
       <c r="F8">
-        <v>0.9632936184550364</v>
+        <v>0.9632936184550369</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.037148018854151</v>
       </c>
       <c r="J8">
-        <v>0.9672214847634322</v>
+        <v>0.9672214847634329</v>
       </c>
       <c r="K8">
-        <v>0.9644992065034192</v>
+        <v>0.9644992065034201</v>
       </c>
       <c r="L8">
-        <v>0.9708132042919513</v>
+        <v>0.9708132042919519</v>
       </c>
       <c r="M8">
-        <v>0.974994878646372</v>
+        <v>0.9749948786463724</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9083511109228801</v>
+        <v>0.9083511109228787</v>
       </c>
       <c r="D9">
-        <v>0.9193522491798091</v>
+        <v>0.9193522491798077</v>
       </c>
       <c r="E9">
-        <v>0.9289136814162957</v>
+        <v>0.9289136814162939</v>
       </c>
       <c r="F9">
-        <v>0.9299066185982708</v>
+        <v>0.9299066185982696</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028912332229977</v>
+        <v>1.028912332229976</v>
       </c>
       <c r="J9">
-        <v>0.9376141402198146</v>
+        <v>0.9376141402198133</v>
       </c>
       <c r="K9">
-        <v>0.9339049722646628</v>
+        <v>0.933904972264662</v>
       </c>
       <c r="L9">
-        <v>0.9432759651263517</v>
+        <v>0.9432759651263503</v>
       </c>
       <c r="M9">
-        <v>0.9442494200760699</v>
+        <v>0.9442494200760688</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,13 +725,13 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8801886286027326</v>
+        <v>0.8801886286027322</v>
       </c>
       <c r="D10">
-        <v>0.8930383537029029</v>
+        <v>0.8930383537029021</v>
       </c>
       <c r="E10">
-        <v>0.9051300619057019</v>
+        <v>0.905130061905701</v>
       </c>
       <c r="F10">
         <v>0.9035004002056071</v>
@@ -743,16 +743,16 @@
         <v>1.022245574939285</v>
       </c>
       <c r="J10">
-        <v>0.914118983929937</v>
+        <v>0.9141189839299366</v>
       </c>
       <c r="K10">
-        <v>0.9096505984781621</v>
+        <v>0.9096505984781614</v>
       </c>
       <c r="L10">
-        <v>0.9214531140047364</v>
+        <v>0.9214531140047355</v>
       </c>
       <c r="M10">
-        <v>0.9198618235032129</v>
+        <v>0.919861823503213</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8664238059719711</v>
+        <v>0.8664238059719745</v>
       </c>
       <c r="D11">
-        <v>0.8802104866907076</v>
+        <v>0.8802104866907108</v>
       </c>
       <c r="E11">
-        <v>0.8935504511579488</v>
+        <v>0.8935504511579521</v>
       </c>
       <c r="F11">
-        <v>0.8906331486914865</v>
+        <v>0.8906331486914894</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.018968634590119</v>
+        <v>1.01896863459012</v>
       </c>
       <c r="J11">
-        <v>0.9026436089704032</v>
+        <v>0.9026436089704065</v>
       </c>
       <c r="K11">
-        <v>0.8978102232528556</v>
+        <v>0.8978102232528588</v>
       </c>
       <c r="L11">
-        <v>0.910803910181584</v>
+        <v>0.9108039101815872</v>
       </c>
       <c r="M11">
-        <v>0.9079611361865182</v>
+        <v>0.907961136186521</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8610079238175148</v>
+        <v>0.8610079238175167</v>
       </c>
       <c r="D12">
-        <v>0.8751697106081435</v>
+        <v>0.8751697106081455</v>
       </c>
       <c r="E12">
-        <v>0.8890030632188339</v>
+        <v>0.8890030632188357</v>
       </c>
       <c r="F12">
-        <v>0.8855788534115464</v>
+        <v>0.8855788534115481</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.017678197748778</v>
       </c>
       <c r="J12">
-        <v>0.8981310292569102</v>
+        <v>0.8981310292569122</v>
       </c>
       <c r="K12">
-        <v>0.8931549874768971</v>
+        <v>0.8931549874768991</v>
       </c>
       <c r="L12">
-        <v>0.906617917781643</v>
+        <v>0.9066179177816447</v>
       </c>
       <c r="M12">
-        <v>0.9032839369193648</v>
+        <v>0.9032839369193666</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8621847772586565</v>
+        <v>0.8621847772586547</v>
       </c>
       <c r="D13">
-        <v>0.8762647363208111</v>
+        <v>0.8762647363208096</v>
       </c>
       <c r="E13">
-        <v>0.8899907659433535</v>
+        <v>0.8899907659433517</v>
       </c>
       <c r="F13">
-        <v>0.8866767051074751</v>
+        <v>0.8866767051074735</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.01795862101033</v>
       </c>
       <c r="J13">
-        <v>0.8991114598935885</v>
+        <v>0.8991114598935868</v>
       </c>
       <c r="K13">
-        <v>0.8941663731262283</v>
+        <v>0.8941663731262265</v>
       </c>
       <c r="L13">
-        <v>0.9075273097791082</v>
+        <v>0.9075273097791068</v>
       </c>
       <c r="M13">
-        <v>0.9042999944388864</v>
+        <v>0.904299994438885</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8659828064702914</v>
+        <v>0.8659828064702924</v>
       </c>
       <c r="D14">
-        <v>0.8797998917603385</v>
+        <v>0.8797998917603395</v>
       </c>
       <c r="E14">
-        <v>0.8931799827148432</v>
+        <v>0.8931799827148441</v>
       </c>
       <c r="F14">
-        <v>0.8902214053570642</v>
+        <v>0.8902214053570653</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.018863568283674</v>
       </c>
       <c r="J14">
-        <v>0.9022761036654096</v>
+        <v>0.9022761036654106</v>
       </c>
       <c r="K14">
-        <v>0.897431082469038</v>
+        <v>0.8974310824690388</v>
       </c>
       <c r="L14">
-        <v>0.9104629660650293</v>
+        <v>0.9104629660650301</v>
       </c>
       <c r="M14">
-        <v>0.9075801641435738</v>
+        <v>0.9075801641435747</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.868280227297318</v>
+        <v>0.8682802272973195</v>
       </c>
       <c r="D15">
-        <v>0.8819391853141634</v>
+        <v>0.8819391853141648</v>
       </c>
       <c r="E15">
-        <v>0.8951103277416349</v>
+        <v>0.8951103277416361</v>
       </c>
       <c r="F15">
-        <v>0.8923667683333034</v>
+        <v>0.8923667683333045</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.019410886810715</v>
       </c>
       <c r="J15">
-        <v>0.9041907594807965</v>
+        <v>0.9041907594807976</v>
       </c>
       <c r="K15">
-        <v>0.8994063927010861</v>
+        <v>0.8994063927010874</v>
       </c>
       <c r="L15">
-        <v>0.9122393115606728</v>
+        <v>0.9122393115606742</v>
       </c>
       <c r="M15">
-        <v>0.9095650922814518</v>
+        <v>0.909565092281453</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8810639762479834</v>
+        <v>0.881063976247985</v>
       </c>
       <c r="D16">
-        <v>0.8938548898835966</v>
+        <v>0.8938548898835981</v>
       </c>
       <c r="E16">
-        <v>0.9058674862005696</v>
+        <v>0.9058674862005704</v>
       </c>
       <c r="F16">
-        <v>0.9043196364742103</v>
+        <v>0.9043196364742117</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.0224537201982</v>
+        <v>1.022453720198201</v>
       </c>
       <c r="J16">
-        <v>0.9148489947654516</v>
+        <v>0.914848994765453</v>
       </c>
       <c r="K16">
-        <v>0.9104039454952689</v>
+        <v>0.9104039454952706</v>
       </c>
       <c r="L16">
-        <v>0.9221307768008417</v>
+        <v>0.9221307768008427</v>
       </c>
       <c r="M16">
-        <v>0.9206191778951794</v>
+        <v>0.9206191778951807</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8886233327181705</v>
+        <v>0.8886233327181728</v>
       </c>
       <c r="D17">
-        <v>0.9009100784055241</v>
+        <v>0.9009100784055269</v>
       </c>
       <c r="E17">
-        <v>0.9122407642472826</v>
+        <v>0.9122407642472847</v>
       </c>
       <c r="F17">
-        <v>0.9113988442979367</v>
+        <v>0.9113988442979386</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.024249367541924</v>
+        <v>1.024249367541925</v>
       </c>
       <c r="J17">
-        <v>0.9211542287781103</v>
+        <v>0.9211542287781125</v>
       </c>
       <c r="K17">
-        <v>0.9169113667933581</v>
+        <v>0.9169113667933606</v>
       </c>
       <c r="L17">
-        <v>0.9279849085780963</v>
+        <v>0.9279849085780982</v>
       </c>
       <c r="M17">
-        <v>0.9271618026622258</v>
+        <v>0.9271618026622278</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8928867105726359</v>
+        <v>0.8928867105726369</v>
       </c>
       <c r="D18">
-        <v>0.9048919969244732</v>
+        <v>0.9048919969244741</v>
       </c>
       <c r="E18">
-        <v>0.9158390890802552</v>
+        <v>0.9158390890802562</v>
       </c>
       <c r="F18">
-        <v>0.915394739198567</v>
+        <v>0.9153947391985677</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.025260313840424</v>
       </c>
       <c r="J18">
-        <v>0.924710939075989</v>
+        <v>0.9247109390759899</v>
       </c>
       <c r="K18">
-        <v>0.9205826488361122</v>
+        <v>0.9205826488361131</v>
       </c>
       <c r="L18">
-        <v>0.9312879764527926</v>
+        <v>0.9312879764527933</v>
       </c>
       <c r="M18">
-        <v>0.9308532904445155</v>
+        <v>0.9308532904445165</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8943172776108049</v>
+        <v>0.8943172776108055</v>
       </c>
       <c r="D19">
-        <v>0.9062285780885778</v>
+        <v>0.9062285780885786</v>
       </c>
       <c r="E19">
-        <v>0.9170471132798048</v>
+        <v>0.9170471132798053</v>
       </c>
       <c r="F19">
-        <v>0.9167360582192071</v>
+        <v>0.9167360582192075</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.025599194866499</v>
+        <v>1.0255991948665</v>
       </c>
       <c r="J19">
-        <v>0.9259044658573982</v>
+        <v>0.9259044658573986</v>
       </c>
       <c r="K19">
-        <v>0.9218147106419828</v>
+        <v>0.9218147106419834</v>
       </c>
       <c r="L19">
-        <v>0.9323965206898701</v>
+        <v>0.9323965206898704</v>
       </c>
       <c r="M19">
-        <v>0.9320921684785366</v>
+        <v>0.9320921684785369</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8878277694558023</v>
+        <v>0.8878277694558003</v>
       </c>
       <c r="D20">
-        <v>0.9001672646258745</v>
+        <v>0.9001672646258725</v>
       </c>
       <c r="E20">
-        <v>0.9115696090717688</v>
+        <v>0.911569609071767</v>
       </c>
       <c r="F20">
-        <v>0.9106534514389867</v>
+        <v>0.9106534514389851</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.024060566037712</v>
       </c>
       <c r="J20">
-        <v>0.9204905778865753</v>
+        <v>0.9204905778865734</v>
       </c>
       <c r="K20">
-        <v>0.9162263803656115</v>
+        <v>0.9162263803656097</v>
       </c>
       <c r="L20">
-        <v>0.9273686505204607</v>
+        <v>0.9273686505204591</v>
       </c>
       <c r="M20">
-        <v>0.9264730686783271</v>
+        <v>0.9264730686783256</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8648734381876181</v>
+        <v>0.8648734381876187</v>
       </c>
       <c r="D21">
-        <v>0.8787671170272324</v>
+        <v>0.8787671170272332</v>
       </c>
       <c r="E21">
-        <v>0.8922481871722505</v>
+        <v>0.8922481871722512</v>
       </c>
       <c r="F21">
-        <v>0.8891857777873864</v>
+        <v>0.8891857777873871</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.018599255186964</v>
+        <v>1.018599255186965</v>
       </c>
       <c r="J21">
-        <v>0.901351660700163</v>
+        <v>0.9013516607001637</v>
       </c>
       <c r="K21">
-        <v>0.8964773849377333</v>
+        <v>0.8964773849377343</v>
       </c>
       <c r="L21">
-        <v>0.9096053648604875</v>
+        <v>0.9096053648604882</v>
       </c>
       <c r="M21">
-        <v>0.9066218923530432</v>
+        <v>0.906621892353044</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8486280485432569</v>
+        <v>0.8486280485432565</v>
       </c>
       <c r="D22">
-        <v>0.8636616280198447</v>
+        <v>0.8636616280198443</v>
       </c>
       <c r="E22">
-        <v>0.8786278177546464</v>
+        <v>0.8786278177546457</v>
       </c>
       <c r="F22">
-        <v>0.8740453517183671</v>
+        <v>0.8740453517183665</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.014728939120435</v>
       </c>
       <c r="J22">
-        <v>0.8878226579467171</v>
+        <v>0.8878226579467166</v>
       </c>
       <c r="K22">
-        <v>0.8825223861898269</v>
+        <v>0.8825223861898263</v>
       </c>
       <c r="L22">
-        <v>0.8970592430392218</v>
+        <v>0.8970592430392211</v>
       </c>
       <c r="M22">
-        <v>0.892606097597994</v>
+        <v>0.8926060975979936</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8574434408877736</v>
+        <v>0.8574434408877728</v>
       </c>
       <c r="D23">
-        <v>0.8718541630761303</v>
+        <v>0.8718541630761296</v>
       </c>
       <c r="E23">
-        <v>0.8860129610241396</v>
+        <v>0.8860129610241388</v>
       </c>
       <c r="F23">
-        <v>0.8822551529270443</v>
+        <v>0.8822551529270436</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.016828852377852</v>
+        <v>1.016828852377851</v>
       </c>
       <c r="J23">
-        <v>0.8951619747941855</v>
+        <v>0.8951619747941847</v>
       </c>
       <c r="K23">
-        <v>0.8900923200984083</v>
+        <v>0.8900923200984074</v>
       </c>
       <c r="L23">
-        <v>0.9038642705032602</v>
+        <v>0.9038642705032596</v>
       </c>
       <c r="M23">
-        <v>0.9002074869691218</v>
+        <v>0.9002074869691212</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8881876963500108</v>
+        <v>0.8881876963500094</v>
       </c>
       <c r="D24">
-        <v>0.9005033177749513</v>
+        <v>0.9005033177749495</v>
       </c>
       <c r="E24">
-        <v>0.9118732395170835</v>
+        <v>0.9118732395170824</v>
       </c>
       <c r="F24">
-        <v>0.9109906701348317</v>
+        <v>0.9109906701348307</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.024145988851828</v>
       </c>
       <c r="J24">
-        <v>0.9207908233642483</v>
+        <v>0.920790823364247</v>
       </c>
       <c r="K24">
-        <v>0.9165362767256716</v>
+        <v>0.91653627672567</v>
       </c>
       <c r="L24">
-        <v>0.9276474522316331</v>
+        <v>0.9276474522316321</v>
       </c>
       <c r="M24">
-        <v>0.9267846594659748</v>
+        <v>0.9267846594659738</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9181922692540893</v>
+        <v>0.9181922692540919</v>
       </c>
       <c r="D25">
-        <v>0.9285675177256576</v>
+        <v>0.9285675177256603</v>
       </c>
       <c r="E25">
-        <v>0.9372515834383954</v>
+        <v>0.9372515834383975</v>
       </c>
       <c r="F25">
-        <v>0.939153958565983</v>
+        <v>0.9391539585659852</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.031220134502114</v>
       </c>
       <c r="J25">
-        <v>0.9458254351587787</v>
+        <v>0.9458254351587813</v>
       </c>
       <c r="K25">
-        <v>0.9423861370241764</v>
+        <v>0.9423861370241789</v>
       </c>
       <c r="L25">
-        <v>0.9509089140839203</v>
+        <v>0.9509089140839224</v>
       </c>
       <c r="M25">
-        <v>0.9527764749378665</v>
+        <v>0.9527764749378685</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_41/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9390608509954809</v>
+        <v>0.9391284691549214</v>
       </c>
       <c r="D2">
-        <v>0.9481405002791524</v>
+        <v>0.9482072441119519</v>
       </c>
       <c r="E2">
-        <v>0.9549744905949323</v>
+        <v>0.9550339803296315</v>
       </c>
       <c r="F2">
-        <v>0.9587862490402886</v>
+        <v>0.9588408369394782</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036053682363266</v>
+        <v>1.036067276406464</v>
       </c>
       <c r="J2">
-        <v>0.9632306455643718</v>
+        <v>0.9632958558116566</v>
       </c>
       <c r="K2">
-        <v>0.9603729363330863</v>
+        <v>0.9604386155377692</v>
       </c>
       <c r="L2">
-        <v>0.967098906014085</v>
+        <v>0.9671574641126504</v>
       </c>
       <c r="M2">
-        <v>0.9708512690585801</v>
+        <v>0.9709050107425368</v>
+      </c>
+      <c r="N2">
+        <v>0.9767495910849605</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9528947031242913</v>
+        <v>0.952947602349246</v>
       </c>
       <c r="D3">
-        <v>0.96113774631765</v>
+        <v>0.9611900729087659</v>
       </c>
       <c r="E3">
-        <v>0.9667524048225742</v>
+        <v>0.9667991467577473</v>
       </c>
       <c r="F3">
-        <v>0.9718108861992013</v>
+        <v>0.971853509191239</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039197078513937</v>
+        <v>1.039207703060768</v>
       </c>
       <c r="J3">
-        <v>0.9747574152048425</v>
+        <v>0.9748086684021487</v>
       </c>
       <c r="K3">
-        <v>0.9722932717415014</v>
+        <v>0.9723448587077395</v>
       </c>
       <c r="L3">
-        <v>0.9778291445580281</v>
+        <v>0.9778752354506488</v>
       </c>
       <c r="M3">
-        <v>0.9828176270248929</v>
+        <v>0.9828596641039411</v>
+      </c>
+      <c r="N3">
+        <v>0.9846518748795882</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9613419231185835</v>
+        <v>0.9613862561481454</v>
       </c>
       <c r="D4">
-        <v>0.969082328231799</v>
+        <v>0.9691262350865801</v>
       </c>
       <c r="E4">
-        <v>0.9739549451872342</v>
+        <v>0.9739942470310708</v>
       </c>
       <c r="F4">
-        <v>0.9797651998498877</v>
+        <v>0.9798008873474038</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041085712140442</v>
+        <v>1.041094612723055</v>
       </c>
       <c r="J4">
-        <v>0.9817890077822993</v>
+        <v>0.9818320784553088</v>
       </c>
       <c r="K4">
-        <v>0.9795688032369184</v>
+        <v>0.9796121370314044</v>
       </c>
       <c r="L4">
-        <v>0.9843782185442794</v>
+        <v>0.9844170138282449</v>
       </c>
       <c r="M4">
-        <v>0.9901141359431156</v>
+        <v>0.9901493702513872</v>
+      </c>
+      <c r="N4">
+        <v>0.9894703083806076</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9647850836342544</v>
+        <v>0.9648260082738976</v>
       </c>
       <c r="D5">
-        <v>0.9723223315964412</v>
+        <v>0.972362882403619</v>
       </c>
       <c r="E5">
-        <v>0.9768929950917284</v>
+        <v>0.9769293325067574</v>
       </c>
       <c r="F5">
-        <v>0.983007308676356</v>
+        <v>0.9830402424883485</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04184779314743</v>
+        <v>1.041856008614813</v>
       </c>
       <c r="J5">
-        <v>0.9846532875418137</v>
+        <v>0.9846930900591854</v>
       </c>
       <c r="K5">
-        <v>0.9825333738290762</v>
+        <v>0.9825734130605622</v>
       </c>
       <c r="L5">
-        <v>0.9870467085692327</v>
+        <v>0.9870825928910321</v>
       </c>
       <c r="M5">
-        <v>0.9930853689017638</v>
+        <v>0.9931178983890522</v>
+      </c>
+      <c r="N5">
+        <v>0.9914325141913566</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9653571962434031</v>
+        <v>0.9653975590079821</v>
       </c>
       <c r="D6">
-        <v>0.9728607827601229</v>
+        <v>0.9729007799980351</v>
       </c>
       <c r="E6">
-        <v>0.9773813015012107</v>
+        <v>0.9774171500106337</v>
       </c>
       <c r="F6">
-        <v>0.9835459952552844</v>
+        <v>0.9835784754445227</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041973954335456</v>
+        <v>1.041982056904837</v>
       </c>
       <c r="J6">
-        <v>0.9851290989091832</v>
+        <v>0.9851683619857875</v>
       </c>
       <c r="K6">
-        <v>0.9830258997916536</v>
+        <v>0.9830653953236291</v>
       </c>
       <c r="L6">
-        <v>0.9874900390816654</v>
+        <v>0.9875254430877333</v>
       </c>
       <c r="M6">
-        <v>0.9935788859662696</v>
+        <v>0.9936109696679898</v>
+      </c>
+      <c r="N6">
+        <v>0.9917584400663334</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.961388340287324</v>
+        <v>0.9614326270578132</v>
       </c>
       <c r="D7">
-        <v>0.9691260000887398</v>
+        <v>0.9691698614173894</v>
       </c>
       <c r="E7">
-        <v>0.9739945445020047</v>
+        <v>0.974033806127595</v>
       </c>
       <c r="F7">
-        <v>0.9798089077199528</v>
+        <v>0.9798445578216025</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041096016988954</v>
+        <v>1.041104908270014</v>
       </c>
       <c r="J7">
-        <v>0.9818276287214792</v>
+        <v>0.9818706550862503</v>
       </c>
       <c r="K7">
-        <v>0.9796087727867617</v>
+        <v>0.9796520619080472</v>
       </c>
       <c r="L7">
-        <v>0.9844141965530495</v>
+        <v>0.9844529523599561</v>
       </c>
       <c r="M7">
-        <v>0.9901542030399817</v>
+        <v>0.9901894006307372</v>
+      </c>
+      <c r="N7">
+        <v>0.9894967683366699</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9438488526409584</v>
+        <v>0.9439112730416281</v>
       </c>
       <c r="D8">
-        <v>0.9526370103724039</v>
+        <v>0.952698670215728</v>
       </c>
       <c r="E8">
-        <v>0.9590483782583687</v>
+        <v>0.9591033716809199</v>
       </c>
       <c r="F8">
-        <v>0.9632936184550369</v>
+        <v>0.9633439743639838</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037148018854151</v>
+        <v>1.037160563202197</v>
       </c>
       <c r="J8">
-        <v>0.9672214847634329</v>
+        <v>0.9672817809354255</v>
       </c>
       <c r="K8">
-        <v>0.9644992065034201</v>
+        <v>0.9645599219505507</v>
       </c>
       <c r="L8">
-        <v>0.9708132042919519</v>
+        <v>0.9708673696935305</v>
       </c>
       <c r="M8">
-        <v>0.9749948786463724</v>
+        <v>0.9750444848295793</v>
+      </c>
+      <c r="N8">
+        <v>0.9794859789936856</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9083511109228787</v>
+        <v>0.9084551589538651</v>
       </c>
       <c r="D9">
-        <v>0.9193522491798077</v>
+        <v>0.9194544065194684</v>
       </c>
       <c r="E9">
-        <v>0.9289136814162939</v>
+        <v>0.9290045127167099</v>
       </c>
       <c r="F9">
-        <v>0.9299066185982696</v>
+        <v>0.929991059195644</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028912332229976</v>
+        <v>1.028933314376799</v>
       </c>
       <c r="J9">
-        <v>0.9376141402198133</v>
+        <v>0.9377133630184548</v>
       </c>
       <c r="K9">
-        <v>0.933904972264662</v>
+        <v>0.9340050673254031</v>
       </c>
       <c r="L9">
-        <v>0.9432759651263503</v>
+        <v>0.9433650119713343</v>
       </c>
       <c r="M9">
-        <v>0.9442494200760688</v>
+        <v>0.9443322063991751</v>
+      </c>
+      <c r="N9">
+        <v>0.9591778458117535</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8801886286027322</v>
+        <v>0.8803321617610936</v>
       </c>
       <c r="D10">
-        <v>0.8930383537029021</v>
+        <v>0.8931784803402761</v>
       </c>
       <c r="E10">
-        <v>0.905130061905701</v>
+        <v>0.90525451760923</v>
       </c>
       <c r="F10">
-        <v>0.9035004002056071</v>
+        <v>0.9036175206172659</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.022245574939285</v>
+        <v>1.022274614884052</v>
       </c>
       <c r="J10">
-        <v>0.9141189839299366</v>
+        <v>0.9142542943783137</v>
       </c>
       <c r="K10">
-        <v>0.9096505984781614</v>
+        <v>0.9097873134412648</v>
       </c>
       <c r="L10">
-        <v>0.9214531140047355</v>
+        <v>0.9215746469419706</v>
       </c>
       <c r="M10">
-        <v>0.919861823503213</v>
+        <v>0.9199761800699899</v>
+      </c>
+      <c r="N10">
+        <v>0.9430567929659867</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8664238059719745</v>
+        <v>0.8665894838979749</v>
       </c>
       <c r="D11">
-        <v>0.8802104866907108</v>
+        <v>0.8803717337094938</v>
       </c>
       <c r="E11">
-        <v>0.8935504511579521</v>
+        <v>0.893693611721411</v>
       </c>
       <c r="F11">
-        <v>0.8906331486914894</v>
+        <v>0.8907687141005305</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.01896863459012</v>
+        <v>1.019002209041756</v>
       </c>
       <c r="J11">
-        <v>0.9026436089704065</v>
+        <v>0.9027988461031003</v>
       </c>
       <c r="K11">
-        <v>0.8978102232528588</v>
+        <v>0.8979671995620313</v>
       </c>
       <c r="L11">
-        <v>0.9108039101815872</v>
+        <v>0.9109434303388545</v>
       </c>
       <c r="M11">
-        <v>0.907961136186521</v>
+        <v>0.9080932236690091</v>
+      </c>
+      <c r="N11">
+        <v>0.9351839082037376</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8610079238175167</v>
+        <v>0.8611829430341168</v>
       </c>
       <c r="D12">
-        <v>0.8751697106081455</v>
+        <v>0.8753398318491435</v>
       </c>
       <c r="E12">
-        <v>0.8890030632188357</v>
+        <v>0.8891540825203611</v>
       </c>
       <c r="F12">
-        <v>0.8855788534115481</v>
+        <v>0.8857222202720935</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.017678197748778</v>
+        <v>1.017713687188631</v>
       </c>
       <c r="J12">
-        <v>0.8981310292569122</v>
+        <v>0.8982946110655822</v>
       </c>
       <c r="K12">
-        <v>0.8931549874768991</v>
+        <v>0.8933204564112344</v>
       </c>
       <c r="L12">
-        <v>0.9066179177816447</v>
+        <v>0.9067649793724996</v>
       </c>
       <c r="M12">
-        <v>0.9032839369193666</v>
+        <v>0.9034235070247479</v>
+      </c>
+      <c r="N12">
+        <v>0.9320883991270734</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8621847772586547</v>
+        <v>0.8623577339106201</v>
       </c>
       <c r="D13">
-        <v>0.8762647363208096</v>
+        <v>0.8764328998534088</v>
       </c>
       <c r="E13">
-        <v>0.8899907659433517</v>
+        <v>0.8901400515995477</v>
       </c>
       <c r="F13">
-        <v>0.8866767051074735</v>
+        <v>0.8868183484228579</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.01795862101033</v>
+        <v>1.017993687527982</v>
       </c>
       <c r="J13">
-        <v>0.8991114598935868</v>
+        <v>0.8992732021712365</v>
       </c>
       <c r="K13">
-        <v>0.8941663731262265</v>
+        <v>0.8943299695359601</v>
       </c>
       <c r="L13">
-        <v>0.9075273097791068</v>
+        <v>0.9076727084823554</v>
       </c>
       <c r="M13">
-        <v>0.904299994438885</v>
+        <v>0.9044379122518622</v>
+      </c>
+      <c r="N13">
+        <v>0.9327609229574293</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8659828064702924</v>
+        <v>0.8661492308880124</v>
       </c>
       <c r="D14">
-        <v>0.8797998917603395</v>
+        <v>0.8799618486894945</v>
       </c>
       <c r="E14">
-        <v>0.8931799827148441</v>
+        <v>0.8933237719694801</v>
       </c>
       <c r="F14">
-        <v>0.8902214053570653</v>
+        <v>0.890357593778599</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.018863568283674</v>
+        <v>1.018897295727075</v>
       </c>
       <c r="J14">
-        <v>0.9022761036654106</v>
+        <v>0.9024320089331964</v>
       </c>
       <c r="K14">
-        <v>0.8974310824690388</v>
+        <v>0.8975887385951249</v>
       </c>
       <c r="L14">
-        <v>0.9104629660650301</v>
+        <v>0.9106030898587735</v>
       </c>
       <c r="M14">
-        <v>0.9075801641435747</v>
+        <v>0.9077128495294788</v>
+      </c>
+      <c r="N14">
+        <v>0.9349317986796767</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8682802272973195</v>
+        <v>0.8684427893863875</v>
       </c>
       <c r="D15">
-        <v>0.8819391853141648</v>
+        <v>0.8820974677715256</v>
       </c>
       <c r="E15">
-        <v>0.8951103277416361</v>
+        <v>0.8952508628856666</v>
       </c>
       <c r="F15">
-        <v>0.8923667683333045</v>
+        <v>0.8924997341316038</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.019410886810715</v>
+        <v>1.019443822762559</v>
       </c>
       <c r="J15">
-        <v>0.9041907594807976</v>
+        <v>0.9043432053786707</v>
       </c>
       <c r="K15">
-        <v>0.8994063927010874</v>
+        <v>0.8995605292873891</v>
       </c>
       <c r="L15">
-        <v>0.9122393115606742</v>
+        <v>0.9123763102936394</v>
       </c>
       <c r="M15">
-        <v>0.909565092281453</v>
+        <v>0.9096946842500655</v>
+      </c>
+      <c r="N15">
+        <v>0.9362452762979243</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.881063976247985</v>
+        <v>0.8812061719036194</v>
       </c>
       <c r="D16">
-        <v>0.8938548898835981</v>
+        <v>0.8939937370249841</v>
       </c>
       <c r="E16">
-        <v>0.9058674862005704</v>
+        <v>0.9059908087193661</v>
       </c>
       <c r="F16">
-        <v>0.9043196364742117</v>
+        <v>0.9044356452730686</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.022453720198201</v>
+        <v>1.022482486554977</v>
       </c>
       <c r="J16">
-        <v>0.914848994765453</v>
+        <v>0.9149830948567594</v>
       </c>
       <c r="K16">
-        <v>0.9104039454952706</v>
+        <v>0.9105394306601843</v>
       </c>
       <c r="L16">
-        <v>0.9221307768008427</v>
+        <v>0.9222512182235071</v>
       </c>
       <c r="M16">
-        <v>0.9206191778951807</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9207324639934543</v>
+      </c>
+      <c r="N16">
+        <v>0.943557668481725</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8886233327181728</v>
+        <v>0.8887542969092713</v>
       </c>
       <c r="D17">
-        <v>0.9009100784055269</v>
+        <v>0.9010381632033343</v>
       </c>
       <c r="E17">
-        <v>0.9122407642472847</v>
+        <v>0.9123545551955338</v>
       </c>
       <c r="F17">
-        <v>0.9113988442979386</v>
+        <v>0.911505530467012</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.024249367541925</v>
+        <v>1.024275838045758</v>
       </c>
       <c r="J17">
-        <v>0.9211542287781125</v>
+        <v>0.9212781329102501</v>
       </c>
       <c r="K17">
-        <v>0.9169113667933606</v>
+        <v>0.9170364964540548</v>
       </c>
       <c r="L17">
-        <v>0.9279849085780982</v>
+        <v>0.9280961602349519</v>
       </c>
       <c r="M17">
-        <v>0.9271618026622278</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9272661021982478</v>
+      </c>
+      <c r="N17">
+        <v>0.9478839346556726</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8928867105726369</v>
+        <v>0.8930115791664273</v>
       </c>
       <c r="D18">
-        <v>0.9048919969244741</v>
+        <v>0.9050142270374587</v>
       </c>
       <c r="E18">
-        <v>0.9158390890802562</v>
+        <v>0.9159476950428623</v>
       </c>
       <c r="F18">
-        <v>0.9153947391985677</v>
+        <v>0.9154963751256112</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025260313840424</v>
+        <v>1.025285539604463</v>
       </c>
       <c r="J18">
-        <v>0.9247109390759899</v>
+        <v>0.924829284912511</v>
       </c>
       <c r="K18">
-        <v>0.9205826488361131</v>
+        <v>0.9207021364873534</v>
       </c>
       <c r="L18">
-        <v>0.9312879764527933</v>
+        <v>0.9313942223090745</v>
       </c>
       <c r="M18">
-        <v>0.9308532904445165</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9309527148597374</v>
+      </c>
+      <c r="N18">
+        <v>0.9503243873931306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8943172776108055</v>
+        <v>0.8944401373025134</v>
       </c>
       <c r="D19">
-        <v>0.9062285780885786</v>
+        <v>0.9063488765484862</v>
       </c>
       <c r="E19">
-        <v>0.9170471132798053</v>
+        <v>0.9171540085862884</v>
       </c>
       <c r="F19">
-        <v>0.9167360582192075</v>
+        <v>0.9168360312747839</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.0255991948665</v>
+        <v>1.025624010621424</v>
       </c>
       <c r="J19">
-        <v>0.9259044658573986</v>
+        <v>0.926020975963052</v>
       </c>
       <c r="K19">
-        <v>0.9218147106419834</v>
+        <v>0.9219323354327145</v>
       </c>
       <c r="L19">
-        <v>0.9323965206898704</v>
+        <v>0.9325011139279525</v>
       </c>
       <c r="M19">
-        <v>0.9320921684785369</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9321899865812796</v>
+      </c>
+      <c r="N19">
+        <v>0.9511433341325904</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8878277694558003</v>
+        <v>0.8879598896264357</v>
       </c>
       <c r="D20">
-        <v>0.9001672646258725</v>
+        <v>0.900296458619458</v>
       </c>
       <c r="E20">
-        <v>0.911569609071767</v>
+        <v>0.9116843823553737</v>
       </c>
       <c r="F20">
-        <v>0.9106534514389851</v>
+        <v>0.9107610961081166</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.024060566037712</v>
+        <v>1.024087272702309</v>
       </c>
       <c r="J20">
-        <v>0.9204905778865734</v>
+        <v>0.9206155341171393</v>
       </c>
       <c r="K20">
-        <v>0.9162263803656097</v>
+        <v>0.9163525782329254</v>
       </c>
       <c r="L20">
-        <v>0.9273686505204591</v>
+        <v>0.9274808500191492</v>
       </c>
       <c r="M20">
-        <v>0.9264730686783256</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9265782929178963</v>
+      </c>
+      <c r="N20">
+        <v>0.947428570545661</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8648734381876187</v>
+        <v>0.8650417513505305</v>
       </c>
       <c r="D21">
-        <v>0.8787671170272332</v>
+        <v>0.8789308695636984</v>
       </c>
       <c r="E21">
-        <v>0.8922481871722512</v>
+        <v>0.8923935665911349</v>
       </c>
       <c r="F21">
-        <v>0.8891857777873871</v>
+        <v>0.8893235428682643</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.018599255186965</v>
+        <v>1.018633369757667</v>
       </c>
       <c r="J21">
-        <v>0.9013516607001637</v>
+        <v>0.9015092554507315</v>
       </c>
       <c r="K21">
-        <v>0.8964773849377343</v>
+        <v>0.8966367602145489</v>
       </c>
       <c r="L21">
-        <v>0.9096053648604882</v>
+        <v>0.9097470151881581</v>
       </c>
       <c r="M21">
-        <v>0.906621892353044</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.90675609057835</v>
+      </c>
+      <c r="N21">
+        <v>0.9342976366090556</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8486280485432565</v>
+        <v>0.8488259642625421</v>
       </c>
       <c r="D22">
-        <v>0.8636616280198443</v>
+        <v>0.8638534183913718</v>
       </c>
       <c r="E22">
-        <v>0.8786278177546457</v>
+        <v>0.8787980241328788</v>
       </c>
       <c r="F22">
-        <v>0.8740453517183665</v>
+        <v>0.8742078856005331</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.014728939120435</v>
+        <v>1.014769126087026</v>
       </c>
       <c r="J22">
-        <v>0.8878226579467166</v>
+        <v>0.8880065521976956</v>
       </c>
       <c r="K22">
-        <v>0.8825223861898263</v>
+        <v>0.8827085454802504</v>
       </c>
       <c r="L22">
-        <v>0.8970592430392211</v>
+        <v>0.897224681540108</v>
       </c>
       <c r="M22">
-        <v>0.8926060975979936</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8927640129284617</v>
+      </c>
+      <c r="N22">
+        <v>0.925018417560825</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8574434408877728</v>
+        <v>0.8576248229276812</v>
       </c>
       <c r="D23">
-        <v>0.8718541630761296</v>
+        <v>0.8720303176100546</v>
       </c>
       <c r="E23">
-        <v>0.8860129610241388</v>
+        <v>0.8861693229306363</v>
       </c>
       <c r="F23">
-        <v>0.8822551529270436</v>
+        <v>0.8824038401068924</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.016828852377851</v>
+        <v>1.016865646781986</v>
       </c>
       <c r="J23">
-        <v>0.8951619747941847</v>
+        <v>0.89533122098995</v>
       </c>
       <c r="K23">
-        <v>0.8900923200984074</v>
+        <v>0.8902635563312682</v>
       </c>
       <c r="L23">
-        <v>0.9038642705032596</v>
+        <v>0.904016454016265</v>
       </c>
       <c r="M23">
-        <v>0.9002074869691212</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9003521546123587</v>
+      </c>
+      <c r="N23">
+        <v>0.9300518783156928</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8881876963500094</v>
+        <v>0.8883192927991826</v>
       </c>
       <c r="D24">
-        <v>0.9005033177749495</v>
+        <v>0.9006320092857134</v>
       </c>
       <c r="E24">
-        <v>0.9118732395170824</v>
+        <v>0.9119875677870395</v>
       </c>
       <c r="F24">
-        <v>0.9109906701348307</v>
+        <v>0.9110978805217619</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.024145988851828</v>
+        <v>1.024172588518717</v>
       </c>
       <c r="J24">
-        <v>0.920790823364247</v>
+        <v>0.920915303014892</v>
       </c>
       <c r="K24">
-        <v>0.91653627672567</v>
+        <v>0.9166619907061093</v>
       </c>
       <c r="L24">
-        <v>0.9276474522316321</v>
+        <v>0.9277592223640654</v>
       </c>
       <c r="M24">
-        <v>0.9267846594659738</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9268894647579101</v>
+      </c>
+      <c r="N24">
+        <v>0.9476345838481464</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9181922692540919</v>
+        <v>0.918284001156328</v>
       </c>
       <c r="D25">
-        <v>0.9285675177256603</v>
+        <v>0.9286577449475014</v>
       </c>
       <c r="E25">
-        <v>0.9372515834383975</v>
+        <v>0.9373318530594459</v>
       </c>
       <c r="F25">
-        <v>0.9391539585659852</v>
+        <v>0.9392282710152452</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031220134502114</v>
+        <v>1.031238613133859</v>
       </c>
       <c r="J25">
-        <v>0.9458254351587813</v>
+        <v>0.9459132407160569</v>
       </c>
       <c r="K25">
-        <v>0.9423861370241789</v>
+        <v>0.9424746682063776</v>
       </c>
       <c r="L25">
-        <v>0.9509089140839224</v>
+        <v>0.9509877110175424</v>
       </c>
       <c r="M25">
-        <v>0.9527764749378685</v>
+        <v>0.9528494311632317</v>
+      </c>
+      <c r="N25">
+        <v>0.9648114450630861</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_41/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9391284691549214</v>
+        <v>0.9367809460637355</v>
       </c>
       <c r="D2">
-        <v>0.9482072441119519</v>
+        <v>0.949522673075594</v>
       </c>
       <c r="E2">
-        <v>0.9550339803296315</v>
+        <v>0.9541693411774752</v>
       </c>
       <c r="F2">
-        <v>0.9588408369394782</v>
+        <v>0.9490727020493677</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036067276406464</v>
+        <v>1.031350309342262</v>
       </c>
       <c r="J2">
-        <v>0.9632958558116566</v>
+        <v>0.961032214271326</v>
       </c>
       <c r="K2">
-        <v>0.9604386155377692</v>
+        <v>0.9617331012794882</v>
       </c>
       <c r="L2">
-        <v>0.9671574641126504</v>
+        <v>0.9663063802177411</v>
       </c>
       <c r="M2">
-        <v>0.9709050107425368</v>
+        <v>0.9612902859659285</v>
       </c>
       <c r="N2">
-        <v>0.9767495910849605</v>
+        <v>0.9623969902475269</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.952947602349246</v>
+        <v>0.9654683385277282</v>
       </c>
       <c r="D3">
-        <v>0.9611900729087659</v>
+        <v>0.9777115105911021</v>
       </c>
       <c r="E3">
-        <v>0.9667991467577473</v>
+        <v>0.9801323040948777</v>
       </c>
       <c r="F3">
-        <v>0.971853509191239</v>
+        <v>0.9783093748400081</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039207703060768</v>
+        <v>1.037088026383583</v>
       </c>
       <c r="J3">
-        <v>0.9748086684021487</v>
+        <v>0.986946781928328</v>
       </c>
       <c r="K3">
-        <v>0.9723448587077395</v>
+        <v>0.9886377503961239</v>
       </c>
       <c r="L3">
-        <v>0.9778752354506488</v>
+        <v>0.9910258699859719</v>
       </c>
       <c r="M3">
-        <v>0.9828596641039411</v>
+        <v>0.989227526247146</v>
       </c>
       <c r="N3">
-        <v>0.9846518748795882</v>
+        <v>0.9883483595630443</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9613862561481454</v>
+        <v>0.9816380588328958</v>
       </c>
       <c r="D4">
-        <v>0.9691262350865801</v>
+        <v>0.9935884636127916</v>
       </c>
       <c r="E4">
-        <v>0.9739942470310708</v>
+        <v>0.9947625743052434</v>
       </c>
       <c r="F4">
-        <v>0.9798008873474038</v>
+        <v>0.9947308657327646</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041094612723055</v>
+        <v>1.040269987506452</v>
       </c>
       <c r="J4">
-        <v>0.9818320784553088</v>
+        <v>1.00152342033957</v>
       </c>
       <c r="K4">
-        <v>0.9796121370314044</v>
+        <v>1.003764891175283</v>
       </c>
       <c r="L4">
-        <v>0.9844170138282449</v>
+        <v>1.004924624173889</v>
       </c>
       <c r="M4">
-        <v>0.9901493702513872</v>
+        <v>1.004893303337461</v>
       </c>
       <c r="N4">
-        <v>0.9894703083806076</v>
+        <v>1.002945698472794</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9648260082738976</v>
+        <v>0.987998431849813</v>
       </c>
       <c r="D5">
-        <v>0.972362882403619</v>
+        <v>0.9998308530341106</v>
       </c>
       <c r="E5">
-        <v>0.9769293325067574</v>
+        <v>1.000516114141387</v>
       </c>
       <c r="F5">
-        <v>0.9830402424883485</v>
+        <v>1.001177480523194</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041856008614813</v>
+        <v>1.041507704904539</v>
       </c>
       <c r="J5">
-        <v>0.9846930900591854</v>
+        <v>1.007250322642096</v>
       </c>
       <c r="K5">
-        <v>0.9825734130605622</v>
+        <v>1.009706668476481</v>
       </c>
       <c r="L5">
-        <v>0.9870825928910321</v>
+        <v>1.010383870177001</v>
       </c>
       <c r="M5">
-        <v>0.9931178983890522</v>
+        <v>1.011037471127484</v>
       </c>
       <c r="N5">
-        <v>0.9914325141913566</v>
+        <v>1.008680733633475</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9653975590079821</v>
+        <v>0.98904359916736</v>
       </c>
       <c r="D6">
-        <v>0.9729007799980351</v>
+        <v>1.000856466150736</v>
       </c>
       <c r="E6">
-        <v>0.9774171500106337</v>
+        <v>1.001461479363619</v>
       </c>
       <c r="F6">
-        <v>0.9835784754445227</v>
+        <v>1.002236089326523</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041982056904837</v>
+        <v>1.041710239607793</v>
       </c>
       <c r="J6">
-        <v>0.9851683619857875</v>
+        <v>1.008191001448417</v>
       </c>
       <c r="K6">
-        <v>0.9830653953236291</v>
+        <v>1.010682561668718</v>
       </c>
       <c r="L6">
-        <v>0.9875254430877333</v>
+        <v>1.011280507204083</v>
       </c>
       <c r="M6">
-        <v>0.9936109696679898</v>
+        <v>1.012046083688007</v>
       </c>
       <c r="N6">
-        <v>0.9917584400663334</v>
+        <v>1.009622748311597</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9614326270578132</v>
+        <v>0.9817246290435546</v>
       </c>
       <c r="D7">
-        <v>0.9691698614173894</v>
+        <v>0.9936734393328778</v>
       </c>
       <c r="E7">
-        <v>0.974033806127595</v>
+        <v>0.9948408905745061</v>
       </c>
       <c r="F7">
-        <v>0.9798445578216025</v>
+        <v>0.9948186601107031</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041104908270014</v>
+        <v>1.040286891465818</v>
       </c>
       <c r="J7">
-        <v>0.9818706550862503</v>
+        <v>1.001601395518185</v>
       </c>
       <c r="K7">
-        <v>0.9796520619080472</v>
+        <v>1.003845797536655</v>
       </c>
       <c r="L7">
-        <v>0.9844529523599561</v>
+        <v>1.004998960365986</v>
       </c>
       <c r="M7">
-        <v>0.9901894006307372</v>
+        <v>1.00497700159097</v>
       </c>
       <c r="N7">
-        <v>0.9894967683366699</v>
+        <v>1.003023784385107</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9439112730416281</v>
+        <v>0.9470765966346136</v>
       </c>
       <c r="D8">
-        <v>0.952698670215728</v>
+        <v>0.9596420580714843</v>
       </c>
       <c r="E8">
-        <v>0.9591033716809199</v>
+        <v>0.9634877715973773</v>
       </c>
       <c r="F8">
-        <v>0.9633439743639838</v>
+        <v>0.959579492170194</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037160563202197</v>
+        <v>1.033420201635889</v>
       </c>
       <c r="J8">
-        <v>0.9672817809354255</v>
+        <v>0.9703398966172879</v>
       </c>
       <c r="K8">
-        <v>0.9645599219505507</v>
+        <v>0.9713979516178943</v>
       </c>
       <c r="L8">
-        <v>0.9708673696935305</v>
+        <v>0.9751861416816257</v>
       </c>
       <c r="M8">
-        <v>0.9750444848295793</v>
+        <v>0.9713363264178488</v>
       </c>
       <c r="N8">
-        <v>0.9794859789936856</v>
+        <v>0.9717178905700263</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9084551589538651</v>
+        <v>0.8527499606059186</v>
       </c>
       <c r="D9">
-        <v>0.9194544065194684</v>
+        <v>0.8668638284143311</v>
       </c>
       <c r="E9">
-        <v>0.9290045127167099</v>
+        <v>0.8781428902850578</v>
       </c>
       <c r="F9">
-        <v>0.929991059195644</v>
+        <v>0.8628435098455914</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028933314376799</v>
+        <v>1.014322447704377</v>
       </c>
       <c r="J9">
-        <v>0.9377133630184548</v>
+        <v>0.8848395797180768</v>
       </c>
       <c r="K9">
-        <v>0.9340050673254031</v>
+        <v>0.8825624118328164</v>
       </c>
       <c r="L9">
-        <v>0.9433650119713343</v>
+        <v>0.8935798121931328</v>
       </c>
       <c r="M9">
-        <v>0.9443322063991751</v>
+        <v>0.8786375802706055</v>
       </c>
       <c r="N9">
-        <v>0.9591778458117535</v>
+        <v>0.8860961534137947</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8803321617610936</v>
+        <v>0.8527499606059186</v>
       </c>
       <c r="D10">
-        <v>0.8931784803402761</v>
+        <v>0.8668638284143311</v>
       </c>
       <c r="E10">
-        <v>0.90525451760923</v>
+        <v>0.8781428902850578</v>
       </c>
       <c r="F10">
-        <v>0.9036175206172659</v>
+        <v>0.8628435098455914</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.022274614884052</v>
+        <v>1.014322447704377</v>
       </c>
       <c r="J10">
-        <v>0.9142542943783137</v>
+        <v>0.8848395797180768</v>
       </c>
       <c r="K10">
-        <v>0.9097873134412648</v>
+        <v>0.8825624118328164</v>
       </c>
       <c r="L10">
-        <v>0.9215746469419706</v>
+        <v>0.8935798121931328</v>
       </c>
       <c r="M10">
-        <v>0.9199761800699899</v>
+        <v>0.8786375802706055</v>
       </c>
       <c r="N10">
-        <v>0.9430567929659867</v>
+        <v>0.8860961534137947</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8665894838979749</v>
+        <v>0.8527499606059186</v>
       </c>
       <c r="D11">
-        <v>0.8803717337094938</v>
+        <v>0.8668638284143311</v>
       </c>
       <c r="E11">
-        <v>0.893693611721411</v>
+        <v>0.8781428902850578</v>
       </c>
       <c r="F11">
-        <v>0.8907687141005305</v>
+        <v>0.8628435098455914</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.019002209041756</v>
+        <v>1.014322447704377</v>
       </c>
       <c r="J11">
-        <v>0.9027988461031003</v>
+        <v>0.8848395797180768</v>
       </c>
       <c r="K11">
-        <v>0.8979671995620313</v>
+        <v>0.8825624118328164</v>
       </c>
       <c r="L11">
-        <v>0.9109434303388545</v>
+        <v>0.8935798121931328</v>
       </c>
       <c r="M11">
-        <v>0.9080932236690091</v>
+        <v>0.8786375802706055</v>
       </c>
       <c r="N11">
-        <v>0.9351839082037376</v>
+        <v>0.8860961534137947</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8611829430341168</v>
+        <v>0.8527499606059186</v>
       </c>
       <c r="D12">
-        <v>0.8753398318491435</v>
+        <v>0.8668638284143311</v>
       </c>
       <c r="E12">
-        <v>0.8891540825203611</v>
+        <v>0.8781428902850578</v>
       </c>
       <c r="F12">
-        <v>0.8857222202720935</v>
+        <v>0.8628435098455914</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.017713687188631</v>
+        <v>1.014322447704377</v>
       </c>
       <c r="J12">
-        <v>0.8982946110655822</v>
+        <v>0.8848395797180768</v>
       </c>
       <c r="K12">
-        <v>0.8933204564112344</v>
+        <v>0.8825624118328164</v>
       </c>
       <c r="L12">
-        <v>0.9067649793724996</v>
+        <v>0.8935798121931328</v>
       </c>
       <c r="M12">
-        <v>0.9034235070247479</v>
+        <v>0.8786375802706055</v>
       </c>
       <c r="N12">
-        <v>0.9320883991270734</v>
+        <v>0.8860961534137947</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8623577339106201</v>
+        <v>0.8527499606059186</v>
       </c>
       <c r="D13">
-        <v>0.8764328998534088</v>
+        <v>0.8668638284143311</v>
       </c>
       <c r="E13">
-        <v>0.8901400515995477</v>
+        <v>0.8781428902850578</v>
       </c>
       <c r="F13">
-        <v>0.8868183484228579</v>
+        <v>0.8628435098455914</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.017993687527982</v>
+        <v>1.014322447704377</v>
       </c>
       <c r="J13">
-        <v>0.8992732021712365</v>
+        <v>0.8848395797180768</v>
       </c>
       <c r="K13">
-        <v>0.8943299695359601</v>
+        <v>0.8825624118328164</v>
       </c>
       <c r="L13">
-        <v>0.9076727084823554</v>
+        <v>0.8935798121931328</v>
       </c>
       <c r="M13">
-        <v>0.9044379122518622</v>
+        <v>0.8786375802706055</v>
       </c>
       <c r="N13">
-        <v>0.9327609229574293</v>
+        <v>0.8860961534137947</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8661492308880124</v>
+        <v>0.8527499606059186</v>
       </c>
       <c r="D14">
-        <v>0.8799618486894945</v>
+        <v>0.8668638284143311</v>
       </c>
       <c r="E14">
-        <v>0.8933237719694801</v>
+        <v>0.8781428902850578</v>
       </c>
       <c r="F14">
-        <v>0.890357593778599</v>
+        <v>0.8628435098455914</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.018897295727075</v>
+        <v>1.014322447704377</v>
       </c>
       <c r="J14">
-        <v>0.9024320089331964</v>
+        <v>0.8848395797180768</v>
       </c>
       <c r="K14">
-        <v>0.8975887385951249</v>
+        <v>0.8825624118328164</v>
       </c>
       <c r="L14">
-        <v>0.9106030898587735</v>
+        <v>0.8935798121931328</v>
       </c>
       <c r="M14">
-        <v>0.9077128495294788</v>
+        <v>0.8786375802706055</v>
       </c>
       <c r="N14">
-        <v>0.9349317986796767</v>
+        <v>0.8860961534137947</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8684427893863875</v>
+        <v>0.8527499606059186</v>
       </c>
       <c r="D15">
-        <v>0.8820974677715256</v>
+        <v>0.8668638284143311</v>
       </c>
       <c r="E15">
-        <v>0.8952508628856666</v>
+        <v>0.8781428902850578</v>
       </c>
       <c r="F15">
-        <v>0.8924997341316038</v>
+        <v>0.8628435098455914</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.019443822762559</v>
+        <v>1.014322447704377</v>
       </c>
       <c r="J15">
-        <v>0.9043432053786707</v>
+        <v>0.8848395797180768</v>
       </c>
       <c r="K15">
-        <v>0.8995605292873891</v>
+        <v>0.8825624118328164</v>
       </c>
       <c r="L15">
-        <v>0.9123763102936394</v>
+        <v>0.8935798121931328</v>
       </c>
       <c r="M15">
-        <v>0.9096946842500655</v>
+        <v>0.8786375802706055</v>
       </c>
       <c r="N15">
-        <v>0.9362452762979243</v>
+        <v>0.8860961534137947</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8812061719036194</v>
+        <v>0.8527499606059186</v>
       </c>
       <c r="D16">
-        <v>0.8939937370249841</v>
+        <v>0.8668638284143311</v>
       </c>
       <c r="E16">
-        <v>0.9059908087193661</v>
+        <v>0.8781428902850578</v>
       </c>
       <c r="F16">
-        <v>0.9044356452730686</v>
+        <v>0.8628435098455914</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.022482486554977</v>
+        <v>1.014322447704377</v>
       </c>
       <c r="J16">
-        <v>0.9149830948567594</v>
+        <v>0.8848395797180768</v>
       </c>
       <c r="K16">
-        <v>0.9105394306601843</v>
+        <v>0.8825624118328164</v>
       </c>
       <c r="L16">
-        <v>0.9222512182235071</v>
+        <v>0.8935798121931328</v>
       </c>
       <c r="M16">
-        <v>0.9207324639934543</v>
+        <v>0.8786375802706055</v>
       </c>
       <c r="N16">
-        <v>0.943557668481725</v>
+        <v>0.8860961534137947</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8887542969092713</v>
+        <v>0.8527499606059186</v>
       </c>
       <c r="D17">
-        <v>0.9010381632033343</v>
+        <v>0.8668638284143311</v>
       </c>
       <c r="E17">
-        <v>0.9123545551955338</v>
+        <v>0.8781428902850578</v>
       </c>
       <c r="F17">
-        <v>0.911505530467012</v>
+        <v>0.8628435098455914</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.024275838045758</v>
+        <v>1.014322447704377</v>
       </c>
       <c r="J17">
-        <v>0.9212781329102501</v>
+        <v>0.8848395797180768</v>
       </c>
       <c r="K17">
-        <v>0.9170364964540548</v>
+        <v>0.8825624118328164</v>
       </c>
       <c r="L17">
-        <v>0.9280961602349519</v>
+        <v>0.8935798121931328</v>
       </c>
       <c r="M17">
-        <v>0.9272661021982478</v>
+        <v>0.8786375802706055</v>
       </c>
       <c r="N17">
-        <v>0.9478839346556726</v>
+        <v>0.8860961534137947</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8930115791664273</v>
+        <v>0.8527499606059186</v>
       </c>
       <c r="D18">
-        <v>0.9050142270374587</v>
+        <v>0.8668638284143311</v>
       </c>
       <c r="E18">
-        <v>0.9159476950428623</v>
+        <v>0.8781428902850578</v>
       </c>
       <c r="F18">
-        <v>0.9154963751256112</v>
+        <v>0.8628435098455914</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025285539604463</v>
+        <v>1.014322447704377</v>
       </c>
       <c r="J18">
-        <v>0.924829284912511</v>
+        <v>0.8848395797180768</v>
       </c>
       <c r="K18">
-        <v>0.9207021364873534</v>
+        <v>0.8825624118328164</v>
       </c>
       <c r="L18">
-        <v>0.9313942223090745</v>
+        <v>0.8935798121931328</v>
       </c>
       <c r="M18">
-        <v>0.9309527148597374</v>
+        <v>0.8786375802706055</v>
       </c>
       <c r="N18">
-        <v>0.9503243873931306</v>
+        <v>0.8860961534137947</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8944401373025134</v>
+        <v>0.8527499606059186</v>
       </c>
       <c r="D19">
-        <v>0.9063488765484862</v>
+        <v>0.8668638284143311</v>
       </c>
       <c r="E19">
-        <v>0.9171540085862884</v>
+        <v>0.8781428902850578</v>
       </c>
       <c r="F19">
-        <v>0.9168360312747839</v>
+        <v>0.8628435098455914</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.025624010621424</v>
+        <v>1.014322447704377</v>
       </c>
       <c r="J19">
-        <v>0.926020975963052</v>
+        <v>0.8848395797180768</v>
       </c>
       <c r="K19">
-        <v>0.9219323354327145</v>
+        <v>0.8825624118328164</v>
       </c>
       <c r="L19">
-        <v>0.9325011139279525</v>
+        <v>0.8935798121931328</v>
       </c>
       <c r="M19">
-        <v>0.9321899865812796</v>
+        <v>0.8786375802706055</v>
       </c>
       <c r="N19">
-        <v>0.9511433341325904</v>
+        <v>0.8860961534137947</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8879598896264357</v>
+        <v>0.8527499606059186</v>
       </c>
       <c r="D20">
-        <v>0.900296458619458</v>
+        <v>0.8668638284143311</v>
       </c>
       <c r="E20">
-        <v>0.9116843823553737</v>
+        <v>0.8781428902850578</v>
       </c>
       <c r="F20">
-        <v>0.9107610961081166</v>
+        <v>0.8628435098455914</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.024087272702309</v>
+        <v>1.014322447704377</v>
       </c>
       <c r="J20">
-        <v>0.9206155341171393</v>
+        <v>0.8848395797180768</v>
       </c>
       <c r="K20">
-        <v>0.9163525782329254</v>
+        <v>0.8825624118328164</v>
       </c>
       <c r="L20">
-        <v>0.9274808500191492</v>
+        <v>0.8935798121931328</v>
       </c>
       <c r="M20">
-        <v>0.9265782929178963</v>
+        <v>0.8786375802706055</v>
       </c>
       <c r="N20">
-        <v>0.947428570545661</v>
+        <v>0.8860961534137947</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8650417513505305</v>
+        <v>0.8527499606059186</v>
       </c>
       <c r="D21">
-        <v>0.8789308695636984</v>
+        <v>0.8668638284143311</v>
       </c>
       <c r="E21">
-        <v>0.8923935665911349</v>
+        <v>0.8781428902850578</v>
       </c>
       <c r="F21">
-        <v>0.8893235428682643</v>
+        <v>0.8628435098455914</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.018633369757667</v>
+        <v>1.014322447704377</v>
       </c>
       <c r="J21">
-        <v>0.9015092554507315</v>
+        <v>0.8848395797180768</v>
       </c>
       <c r="K21">
-        <v>0.8966367602145489</v>
+        <v>0.8825624118328164</v>
       </c>
       <c r="L21">
-        <v>0.9097470151881581</v>
+        <v>0.8935798121931328</v>
       </c>
       <c r="M21">
-        <v>0.90675609057835</v>
+        <v>0.8786375802706055</v>
       </c>
       <c r="N21">
-        <v>0.9342976366090556</v>
+        <v>0.8860961534137947</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8488259642625421</v>
+        <v>0.8527499606059186</v>
       </c>
       <c r="D22">
-        <v>0.8638534183913718</v>
+        <v>0.8668638284143311</v>
       </c>
       <c r="E22">
-        <v>0.8787980241328788</v>
+        <v>0.8781428902850578</v>
       </c>
       <c r="F22">
-        <v>0.8742078856005331</v>
+        <v>0.8628435098455914</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.014769126087026</v>
+        <v>1.014322447704377</v>
       </c>
       <c r="J22">
-        <v>0.8880065521976956</v>
+        <v>0.8848395797180768</v>
       </c>
       <c r="K22">
-        <v>0.8827085454802504</v>
+        <v>0.8825624118328164</v>
       </c>
       <c r="L22">
-        <v>0.897224681540108</v>
+        <v>0.8935798121931328</v>
       </c>
       <c r="M22">
-        <v>0.8927640129284617</v>
+        <v>0.8786375802706055</v>
       </c>
       <c r="N22">
-        <v>0.925018417560825</v>
+        <v>0.8860961534137947</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8576248229276812</v>
+        <v>0.8527499606059186</v>
       </c>
       <c r="D23">
-        <v>0.8720303176100546</v>
+        <v>0.8668638284143311</v>
       </c>
       <c r="E23">
-        <v>0.8861693229306363</v>
+        <v>0.8781428902850578</v>
       </c>
       <c r="F23">
-        <v>0.8824038401068924</v>
+        <v>0.8628435098455914</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.016865646781986</v>
+        <v>1.014322447704377</v>
       </c>
       <c r="J23">
-        <v>0.89533122098995</v>
+        <v>0.8848395797180768</v>
       </c>
       <c r="K23">
-        <v>0.8902635563312682</v>
+        <v>0.8825624118328164</v>
       </c>
       <c r="L23">
-        <v>0.904016454016265</v>
+        <v>0.8935798121931328</v>
       </c>
       <c r="M23">
-        <v>0.9003521546123587</v>
+        <v>0.8786375802706055</v>
       </c>
       <c r="N23">
-        <v>0.9300518783156928</v>
+        <v>0.8860961534137947</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8883192927991826</v>
+        <v>0.8527499606059186</v>
       </c>
       <c r="D24">
-        <v>0.9006320092857134</v>
+        <v>0.8668638284143311</v>
       </c>
       <c r="E24">
-        <v>0.9119875677870395</v>
+        <v>0.8781428902850578</v>
       </c>
       <c r="F24">
-        <v>0.9110978805217619</v>
+        <v>0.8628435098455914</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.024172588518717</v>
+        <v>1.014322447704377</v>
       </c>
       <c r="J24">
-        <v>0.920915303014892</v>
+        <v>0.8848395797180768</v>
       </c>
       <c r="K24">
-        <v>0.9166619907061093</v>
+        <v>0.8825624118328164</v>
       </c>
       <c r="L24">
-        <v>0.9277592223640654</v>
+        <v>0.8935798121931328</v>
       </c>
       <c r="M24">
-        <v>0.9268894647579101</v>
+        <v>0.8786375802706055</v>
       </c>
       <c r="N24">
-        <v>0.9476345838481464</v>
+        <v>0.8860961534137947</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.918284001156328</v>
+        <v>0.8527499606059186</v>
       </c>
       <c r="D25">
-        <v>0.9286577449475014</v>
+        <v>0.8668638284143311</v>
       </c>
       <c r="E25">
-        <v>0.9373318530594459</v>
+        <v>0.8781428902850578</v>
       </c>
       <c r="F25">
-        <v>0.9392282710152452</v>
+        <v>0.8628435098455914</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031238613133859</v>
+        <v>1.014322447704377</v>
       </c>
       <c r="J25">
-        <v>0.9459132407160569</v>
+        <v>0.8848395797180768</v>
       </c>
       <c r="K25">
-        <v>0.9424746682063776</v>
+        <v>0.8825624118328164</v>
       </c>
       <c r="L25">
-        <v>0.9509877110175424</v>
+        <v>0.8935798121931328</v>
       </c>
       <c r="M25">
-        <v>0.9528494311632317</v>
+        <v>0.8786375802706055</v>
       </c>
       <c r="N25">
-        <v>0.9648114450630861</v>
+        <v>0.8860961534137947</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_41/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9367809460637355</v>
+        <v>1.017051081685785</v>
       </c>
       <c r="D2">
-        <v>0.949522673075594</v>
+        <v>1.032261689723248</v>
       </c>
       <c r="E2">
-        <v>0.9541693411774752</v>
+        <v>1.030500708572615</v>
       </c>
       <c r="F2">
-        <v>0.9490727020493677</v>
+        <v>1.04001060226972</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031350309342262</v>
+        <v>1.050033040822532</v>
       </c>
       <c r="J2">
-        <v>0.961032214271326</v>
+        <v>1.038733489547669</v>
       </c>
       <c r="K2">
-        <v>0.9617331012794882</v>
+        <v>1.043289145533374</v>
       </c>
       <c r="L2">
-        <v>0.9663063802177411</v>
+        <v>1.041550864973045</v>
       </c>
       <c r="M2">
-        <v>0.9612902859659285</v>
+        <v>1.05093930781919</v>
       </c>
       <c r="N2">
-        <v>0.9623969902475269</v>
+        <v>1.040208610247243</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9654683385277282</v>
+        <v>1.021808089982621</v>
       </c>
       <c r="D3">
-        <v>0.9777115105911021</v>
+        <v>1.036451146713784</v>
       </c>
       <c r="E3">
-        <v>0.9801323040948777</v>
+        <v>1.034485882842775</v>
       </c>
       <c r="F3">
-        <v>0.9783093748400081</v>
+        <v>1.044327310823545</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037088026383583</v>
+        <v>1.051050591422683</v>
       </c>
       <c r="J3">
-        <v>0.986946781928328</v>
+        <v>1.041721397774122</v>
       </c>
       <c r="K3">
-        <v>0.9886377503961239</v>
+        <v>1.046637940982692</v>
       </c>
       <c r="L3">
-        <v>0.9910258699859719</v>
+        <v>1.044695734970572</v>
       </c>
       <c r="M3">
-        <v>0.989227526247146</v>
+        <v>1.054422771793655</v>
       </c>
       <c r="N3">
-        <v>0.9883483595630443</v>
+        <v>1.043200761646076</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9816380588328958</v>
+        <v>1.024823556556488</v>
       </c>
       <c r="D4">
-        <v>0.9935884636127916</v>
+        <v>1.039111967558598</v>
       </c>
       <c r="E4">
-        <v>0.9947625743052434</v>
+        <v>1.037017773579353</v>
       </c>
       <c r="F4">
-        <v>0.9947308657327646</v>
+        <v>1.047069424143806</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040269987506452</v>
+        <v>1.051684425670623</v>
       </c>
       <c r="J4">
-        <v>1.00152342033957</v>
+        <v>1.043612904452522</v>
       </c>
       <c r="K4">
-        <v>1.003764891175283</v>
+        <v>1.048760194690743</v>
       </c>
       <c r="L4">
-        <v>1.004924624173889</v>
+        <v>1.046689047831457</v>
       </c>
       <c r="M4">
-        <v>1.004893303337461</v>
+        <v>1.056631108293098</v>
       </c>
       <c r="N4">
-        <v>1.002945698472794</v>
+        <v>1.045094954480918</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.987998431849813</v>
+        <v>1.026076809099147</v>
       </c>
       <c r="D5">
-        <v>0.9998308530341106</v>
+        <v>1.040219015355521</v>
       </c>
       <c r="E5">
-        <v>1.000516114141387</v>
+        <v>1.038071369211861</v>
       </c>
       <c r="F5">
-        <v>1.001177480523194</v>
+        <v>1.048210406419374</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041507704904539</v>
+        <v>1.051945125923008</v>
       </c>
       <c r="J5">
-        <v>1.007250322642096</v>
+        <v>1.044398386763199</v>
       </c>
       <c r="K5">
-        <v>1.009706668476481</v>
+        <v>1.049642049963395</v>
       </c>
       <c r="L5">
-        <v>1.010383870177001</v>
+        <v>1.047517393194344</v>
       </c>
       <c r="M5">
-        <v>1.011037471127484</v>
+        <v>1.057548908988503</v>
       </c>
       <c r="N5">
-        <v>1.008680733633475</v>
+        <v>1.045881552266572</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.98904359916736</v>
+        <v>1.026286403732727</v>
       </c>
       <c r="D6">
-        <v>1.000856466150736</v>
+        <v>1.040404227364848</v>
       </c>
       <c r="E6">
-        <v>1.001461479363619</v>
+        <v>1.038247649534076</v>
       </c>
       <c r="F6">
-        <v>1.002236089326523</v>
+        <v>1.048401302333883</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041710239607793</v>
+        <v>1.051988564115149</v>
       </c>
       <c r="J6">
-        <v>1.008191001448417</v>
+        <v>1.04452971238283</v>
       </c>
       <c r="K6">
-        <v>1.010682561668718</v>
+        <v>1.049789520759034</v>
       </c>
       <c r="L6">
-        <v>1.011280507204083</v>
+        <v>1.047655919616593</v>
       </c>
       <c r="M6">
-        <v>1.012046083688007</v>
+        <v>1.057702401144029</v>
       </c>
       <c r="N6">
-        <v>1.009622748311597</v>
+        <v>1.046013064383646</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9817246290435546</v>
+        <v>1.02484035865288</v>
       </c>
       <c r="D7">
-        <v>0.9936734393328778</v>
+        <v>1.03912680487438</v>
       </c>
       <c r="E7">
-        <v>0.9948408905745061</v>
+        <v>1.037031893754877</v>
       </c>
       <c r="F7">
-        <v>0.9948186601107031</v>
+        <v>1.047084715827328</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040286891465818</v>
+        <v>1.051687931648705</v>
       </c>
       <c r="J7">
-        <v>1.001601395518185</v>
+        <v>1.043623437839637</v>
       </c>
       <c r="K7">
-        <v>1.003845797536655</v>
+        <v>1.048772018266527</v>
       </c>
       <c r="L7">
-        <v>1.004998960365986</v>
+        <v>1.04670015369858</v>
       </c>
       <c r="M7">
-        <v>1.00497700159097</v>
+        <v>1.056643413119335</v>
       </c>
       <c r="N7">
-        <v>1.003023784385107</v>
+        <v>1.045105502826651</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9470765966346136</v>
+        <v>1.01867204151652</v>
       </c>
       <c r="D8">
-        <v>0.9596420580714843</v>
+        <v>1.033688155242598</v>
       </c>
       <c r="E8">
-        <v>0.9634877715973773</v>
+        <v>1.031857443930363</v>
       </c>
       <c r="F8">
-        <v>0.959579492170194</v>
+        <v>1.041480296138128</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033420201635889</v>
+        <v>1.050382094272335</v>
       </c>
       <c r="J8">
-        <v>0.9703398966172879</v>
+        <v>1.039752132267664</v>
       </c>
       <c r="K8">
-        <v>0.9713979516178943</v>
+        <v>1.044430344265925</v>
       </c>
       <c r="L8">
-        <v>0.9751861416816257</v>
+        <v>1.042622507287681</v>
       </c>
       <c r="M8">
-        <v>0.9713363264178488</v>
+        <v>1.052126242879747</v>
       </c>
       <c r="N8">
-        <v>0.9717178905700263</v>
+        <v>1.04122869955672</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8527499606059186</v>
+        <v>1.007296966970521</v>
       </c>
       <c r="D9">
-        <v>0.8668638284143311</v>
+        <v>1.023701464991109</v>
       </c>
       <c r="E9">
-        <v>0.8781428902850578</v>
+        <v>1.022362621548134</v>
       </c>
       <c r="F9">
-        <v>0.8628435098455914</v>
+        <v>1.031193003723362</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.014322447704377</v>
+        <v>1.047886848175828</v>
       </c>
       <c r="J9">
-        <v>0.8848395797180768</v>
+        <v>1.032594656010539</v>
       </c>
       <c r="K9">
-        <v>0.8825624118328164</v>
+        <v>1.036421360102328</v>
       </c>
       <c r="L9">
-        <v>0.8935798121931328</v>
+        <v>1.035103008522777</v>
       </c>
       <c r="M9">
-        <v>0.8786375802706055</v>
+        <v>1.043799485742254</v>
       </c>
       <c r="N9">
-        <v>0.8860961534137947</v>
+        <v>1.034061058862336</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8527499606059186</v>
+        <v>0.9993347867482725</v>
       </c>
       <c r="D10">
-        <v>0.8668638284143311</v>
+        <v>1.016743102684869</v>
       </c>
       <c r="E10">
-        <v>0.8781428902850578</v>
+        <v>1.015751940738212</v>
       </c>
       <c r="F10">
-        <v>0.8628435098455914</v>
+        <v>1.02402783827709</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.014322447704377</v>
+        <v>1.046084015063481</v>
       </c>
       <c r="J10">
-        <v>0.8848395797180768</v>
+        <v>1.027574822242543</v>
       </c>
       <c r="K10">
-        <v>0.8825624118328164</v>
+        <v>1.03081649537184</v>
       </c>
       <c r="L10">
-        <v>0.8935798121931328</v>
+        <v>1.029842496439882</v>
       </c>
       <c r="M10">
-        <v>0.8786375802706055</v>
+        <v>1.037976404149931</v>
       </c>
       <c r="N10">
-        <v>0.8860961534137947</v>
+        <v>1.029034096354607</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8527499606059186</v>
+        <v>0.9957878010192314</v>
       </c>
       <c r="D11">
-        <v>0.8668638284143311</v>
+        <v>1.013651609335603</v>
       </c>
       <c r="E11">
-        <v>0.8781428902850578</v>
+        <v>1.012816193234592</v>
       </c>
       <c r="F11">
-        <v>0.8628435098455914</v>
+        <v>1.020845113636199</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.014322447704377</v>
+        <v>1.045268186632535</v>
       </c>
       <c r="J11">
-        <v>0.8848395797180768</v>
+        <v>1.025336868387723</v>
       </c>
       <c r="K11">
-        <v>0.8825624118328164</v>
+        <v>1.028320588040675</v>
       </c>
       <c r="L11">
-        <v>0.8935798121931328</v>
+        <v>1.027500395627337</v>
       </c>
       <c r="M11">
-        <v>0.8786375802706055</v>
+        <v>1.035384344758306</v>
       </c>
       <c r="N11">
-        <v>0.8860961534137947</v>
+        <v>1.026792964348616</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8527499606059186</v>
+        <v>0.994454501688539</v>
       </c>
       <c r="D12">
-        <v>0.8668638284143311</v>
+        <v>1.01249084216502</v>
       </c>
       <c r="E12">
-        <v>0.8781428902850578</v>
+        <v>1.011714104814231</v>
       </c>
       <c r="F12">
-        <v>0.8628435098455914</v>
+        <v>1.019650191077544</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.014322447704377</v>
+        <v>1.044959667668262</v>
       </c>
       <c r="J12">
-        <v>0.8848395797180768</v>
+        <v>1.024495425486872</v>
       </c>
       <c r="K12">
-        <v>0.8825624118328164</v>
+        <v>1.027382587108758</v>
       </c>
       <c r="L12">
-        <v>0.8935798121931328</v>
+        <v>1.026620270300001</v>
       </c>
       <c r="M12">
-        <v>0.8786375802706055</v>
+        <v>1.034410365132751</v>
       </c>
       <c r="N12">
-        <v>0.8860961534137947</v>
+        <v>1.025950326502331</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8527499606059186</v>
+        <v>0.9947412281797937</v>
       </c>
       <c r="D13">
-        <v>0.8668638284143311</v>
+        <v>1.0127404050907</v>
       </c>
       <c r="E13">
-        <v>0.8781428902850578</v>
+        <v>1.01195104269563</v>
       </c>
       <c r="F13">
-        <v>0.8628435098455914</v>
+        <v>1.019907092829476</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.014322447704377</v>
+        <v>1.04502609751514</v>
       </c>
       <c r="J13">
-        <v>0.8848395797180768</v>
+        <v>1.024676386387125</v>
       </c>
       <c r="K13">
-        <v>0.8825624118328164</v>
+        <v>1.027584294426477</v>
       </c>
       <c r="L13">
-        <v>0.8935798121931328</v>
+        <v>1.026809528733471</v>
       </c>
       <c r="M13">
-        <v>0.8786375802706055</v>
+        <v>1.034619802157421</v>
       </c>
       <c r="N13">
-        <v>0.8860961534137947</v>
+        <v>1.026131544387819</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8527499606059186</v>
+        <v>0.9956779174720591</v>
       </c>
       <c r="D14">
-        <v>0.8668638284143311</v>
+        <v>1.013555917885908</v>
       </c>
       <c r="E14">
-        <v>0.8781428902850578</v>
+        <v>1.012725335017553</v>
       </c>
       <c r="F14">
-        <v>0.8628435098455914</v>
+        <v>1.020746604449026</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.014322447704377</v>
+        <v>1.04524279741963</v>
       </c>
       <c r="J14">
-        <v>0.8848395797180768</v>
+        <v>1.02526752489194</v>
       </c>
       <c r="K14">
-        <v>0.8825624118328164</v>
+        <v>1.028243278459166</v>
       </c>
       <c r="L14">
-        <v>0.8935798121931328</v>
+        <v>1.027427854627863</v>
       </c>
       <c r="M14">
-        <v>0.8786375802706055</v>
+        <v>1.035304066625082</v>
       </c>
       <c r="N14">
-        <v>0.8860961534137947</v>
+        <v>1.026723522377115</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8527499606059186</v>
+        <v>0.9962529230843015</v>
       </c>
       <c r="D15">
-        <v>0.8668638284143311</v>
+        <v>1.01405671214886</v>
       </c>
       <c r="E15">
-        <v>0.8781428902850578</v>
+        <v>1.013200843143647</v>
       </c>
       <c r="F15">
-        <v>0.8628435098455914</v>
+        <v>1.021262149199922</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.014322447704377</v>
+        <v>1.045375580570189</v>
       </c>
       <c r="J15">
-        <v>0.8848395797180768</v>
+        <v>1.025630381964015</v>
       </c>
       <c r="K15">
-        <v>0.8825624118328164</v>
+        <v>1.02864783754125</v>
       </c>
       <c r="L15">
-        <v>0.8935798121931328</v>
+        <v>1.027807462824475</v>
       </c>
       <c r="M15">
-        <v>0.8786375802706055</v>
+        <v>1.035724166471945</v>
       </c>
       <c r="N15">
-        <v>0.8860961534137947</v>
+        <v>1.027086894747853</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8527499606059186</v>
+        <v>0.99956802328673</v>
       </c>
       <c r="D16">
-        <v>0.8668638284143311</v>
+        <v>1.016946566328834</v>
       </c>
       <c r="E16">
-        <v>0.8781428902850578</v>
+        <v>1.015945181475177</v>
       </c>
       <c r="F16">
-        <v>0.8628435098455914</v>
+        <v>1.024237319898402</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.014322447704377</v>
+        <v>1.046137400997074</v>
       </c>
       <c r="J16">
-        <v>0.8848395797180768</v>
+        <v>1.027721950416334</v>
       </c>
       <c r="K16">
-        <v>0.8825624118328164</v>
+        <v>1.030980641566732</v>
       </c>
       <c r="L16">
-        <v>0.8935798121931328</v>
+        <v>1.029996537278114</v>
       </c>
       <c r="M16">
-        <v>0.8786375802706055</v>
+        <v>1.038146895454824</v>
       </c>
       <c r="N16">
-        <v>0.8860961534137947</v>
+        <v>1.02918143346728</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8527499606059186</v>
+        <v>1.001620315059295</v>
       </c>
       <c r="D17">
-        <v>0.8668638284143311</v>
+        <v>1.018737834393411</v>
       </c>
       <c r="E17">
-        <v>0.8781428902850578</v>
+        <v>1.0176465948503</v>
       </c>
       <c r="F17">
-        <v>0.8628435098455914</v>
+        <v>1.026081643555587</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.014322447704377</v>
+        <v>1.046605714741152</v>
       </c>
       <c r="J17">
-        <v>0.8848395797180768</v>
+        <v>1.029016369035087</v>
       </c>
       <c r="K17">
-        <v>0.8825624118328164</v>
+        <v>1.032425108880536</v>
       </c>
       <c r="L17">
-        <v>0.8935798121931328</v>
+        <v>1.031352131658358</v>
       </c>
       <c r="M17">
-        <v>0.8786375802706055</v>
+        <v>1.039647315715432</v>
       </c>
       <c r="N17">
-        <v>0.8860961534137947</v>
+        <v>1.030477690308945</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8527499606059186</v>
+        <v>1.002807862317793</v>
       </c>
       <c r="D18">
-        <v>0.8668638284143311</v>
+        <v>1.019775125762119</v>
       </c>
       <c r="E18">
-        <v>0.8781428902850578</v>
+        <v>1.018631973625692</v>
       </c>
       <c r="F18">
-        <v>0.8628435098455914</v>
+        <v>1.027149719915554</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.014322447704377</v>
+        <v>1.046875492960495</v>
       </c>
       <c r="J18">
-        <v>0.8848395797180768</v>
+        <v>1.029765210077081</v>
       </c>
       <c r="K18">
-        <v>0.8825624118328164</v>
+        <v>1.033261027266519</v>
       </c>
       <c r="L18">
-        <v>0.8935798121931328</v>
+        <v>1.032136662626647</v>
       </c>
       <c r="M18">
-        <v>0.8786375802706055</v>
+        <v>1.040515711048907</v>
       </c>
       <c r="N18">
-        <v>0.8860961534137947</v>
+        <v>1.031227594791111</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8527499606059186</v>
+        <v>1.00321119593431</v>
       </c>
       <c r="D19">
-        <v>0.8668638284143311</v>
+        <v>1.020127558197622</v>
       </c>
       <c r="E19">
-        <v>0.8781428902850578</v>
+        <v>1.018966788330968</v>
       </c>
       <c r="F19">
-        <v>0.8628435098455914</v>
+        <v>1.027512622295435</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.014322447704377</v>
+        <v>1.04696691259661</v>
       </c>
       <c r="J19">
-        <v>0.8848395797180768</v>
+        <v>1.030019513401966</v>
       </c>
       <c r="K19">
-        <v>0.8825624118328164</v>
+        <v>1.033544947858262</v>
       </c>
       <c r="L19">
-        <v>0.8935798121931328</v>
+        <v>1.0324031367397</v>
       </c>
       <c r="M19">
-        <v>0.8786375802706055</v>
+        <v>1.040810678797279</v>
       </c>
       <c r="N19">
-        <v>0.8860961534137947</v>
+        <v>1.031482259255887</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8527499606059186</v>
+        <v>1.001401114344758</v>
       </c>
       <c r="D20">
-        <v>0.8668638284143311</v>
+        <v>1.018546431240732</v>
       </c>
       <c r="E20">
-        <v>0.8781428902850578</v>
+        <v>1.017464780403811</v>
       </c>
       <c r="F20">
-        <v>0.8628435098455914</v>
+        <v>1.025884564843755</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.014322447704377</v>
+        <v>1.046555820228273</v>
       </c>
       <c r="J20">
-        <v>0.8848395797180768</v>
+        <v>1.028878132022661</v>
       </c>
       <c r="K20">
-        <v>0.8825624118328164</v>
+        <v>1.032270819267237</v>
       </c>
       <c r="L20">
-        <v>0.8935798121931328</v>
+        <v>1.031207330383241</v>
       </c>
       <c r="M20">
-        <v>0.8786375802706055</v>
+        <v>1.039487039470848</v>
       </c>
       <c r="N20">
-        <v>0.8860961534137947</v>
+        <v>1.030339256984104</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8527499606059186</v>
+        <v>0.9954025290436279</v>
       </c>
       <c r="D21">
-        <v>0.8668638284143311</v>
+        <v>1.013316118868104</v>
       </c>
       <c r="E21">
-        <v>0.8781428902850578</v>
+        <v>1.012497651155184</v>
       </c>
       <c r="F21">
-        <v>0.8628435098455914</v>
+        <v>1.020499745899436</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.014322447704377</v>
+        <v>1.045179137737264</v>
       </c>
       <c r="J21">
-        <v>0.8848395797180768</v>
+        <v>1.025093734211942</v>
       </c>
       <c r="K21">
-        <v>0.8825624118328164</v>
+        <v>1.028049529854254</v>
       </c>
       <c r="L21">
-        <v>0.8935798121931328</v>
+        <v>1.027246057937942</v>
       </c>
       <c r="M21">
-        <v>0.8786375802706055</v>
+        <v>1.035102880951437</v>
       </c>
       <c r="N21">
-        <v>0.8860961534137947</v>
+        <v>1.026549484894418</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8527499606059186</v>
+        <v>0.9915391400417853</v>
       </c>
       <c r="D22">
-        <v>0.8668638284143311</v>
+        <v>1.009955227553065</v>
       </c>
       <c r="E22">
-        <v>0.8781428902850578</v>
+        <v>1.009307048877234</v>
       </c>
       <c r="F22">
-        <v>0.8628435098455914</v>
+        <v>1.01704015135877</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.014322447704377</v>
+        <v>1.044281726134519</v>
       </c>
       <c r="J22">
-        <v>0.8848395797180768</v>
+        <v>1.022655233518043</v>
       </c>
       <c r="K22">
-        <v>0.8825624118328164</v>
+        <v>1.025332015936787</v>
       </c>
       <c r="L22">
-        <v>0.8935798121931328</v>
+        <v>1.024696358867763</v>
       </c>
       <c r="M22">
-        <v>0.8786375802706055</v>
+        <v>1.032281432618455</v>
       </c>
       <c r="N22">
-        <v>0.8860961534137947</v>
+        <v>1.024107521249833</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8527499606059186</v>
+        <v>0.9935962088979085</v>
       </c>
       <c r="D23">
-        <v>0.8668638284143311</v>
+        <v>1.011743993348542</v>
       </c>
       <c r="E23">
-        <v>0.8781428902850578</v>
+        <v>1.011005068163124</v>
       </c>
       <c r="F23">
-        <v>0.8628435098455914</v>
+        <v>1.018881394609451</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.014322447704377</v>
+        <v>1.044760548342575</v>
       </c>
       <c r="J23">
-        <v>0.8848395797180768</v>
+        <v>1.023953707993402</v>
       </c>
       <c r="K23">
-        <v>0.8825624118328164</v>
+        <v>1.026778826765294</v>
       </c>
       <c r="L23">
-        <v>0.8935798121931328</v>
+        <v>1.026053783487969</v>
       </c>
       <c r="M23">
-        <v>0.8786375802706055</v>
+        <v>1.033783491076101</v>
       </c>
       <c r="N23">
-        <v>0.8860961534137947</v>
+        <v>1.025407839707885</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8527499606059186</v>
+        <v>1.001500191067676</v>
       </c>
       <c r="D24">
-        <v>0.8668638284143311</v>
+        <v>1.0186329412932</v>
       </c>
       <c r="E24">
-        <v>0.8781428902850578</v>
+        <v>1.017546956196792</v>
       </c>
       <c r="F24">
-        <v>0.8628435098455914</v>
+        <v>1.025973639934922</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.014322447704377</v>
+        <v>1.046578375845643</v>
       </c>
       <c r="J24">
-        <v>0.8848395797180768</v>
+        <v>1.028940614413264</v>
       </c>
       <c r="K24">
-        <v>0.8825624118328164</v>
+        <v>1.032340556504443</v>
       </c>
       <c r="L24">
-        <v>0.8935798121931328</v>
+        <v>1.031272778859019</v>
       </c>
       <c r="M24">
-        <v>0.8786375802706055</v>
+        <v>1.039559482300845</v>
       </c>
       <c r="N24">
-        <v>0.8860961534137947</v>
+        <v>1.030401828106869</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8527499606059186</v>
+        <v>1.010301459421808</v>
       </c>
       <c r="D25">
-        <v>0.8668638284143311</v>
+        <v>1.026333958033298</v>
       </c>
       <c r="E25">
-        <v>0.8781428902850578</v>
+        <v>1.024864631560822</v>
       </c>
       <c r="F25">
-        <v>0.8628435098455914</v>
+        <v>1.03390428499004</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.014322447704377</v>
+        <v>1.048555808819209</v>
       </c>
       <c r="J25">
-        <v>0.8848395797180768</v>
+        <v>1.034487043183248</v>
       </c>
       <c r="K25">
-        <v>0.8825624118328164</v>
+        <v>1.038536778481141</v>
       </c>
       <c r="L25">
-        <v>0.8935798121931328</v>
+        <v>1.037088839760088</v>
       </c>
       <c r="M25">
-        <v>0.8786375802706055</v>
+        <v>1.045998129801183</v>
       </c>
       <c r="N25">
-        <v>0.8860961534137947</v>
+        <v>1.03595613344189</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_41/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.017051081685785</v>
+        <v>1.050339374274593</v>
       </c>
       <c r="D2">
-        <v>1.032261689723248</v>
+        <v>1.060295203387247</v>
       </c>
       <c r="E2">
-        <v>1.030500708572615</v>
+        <v>1.057623515381107</v>
       </c>
       <c r="F2">
-        <v>1.04001060226972</v>
+        <v>1.068828435398397</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050033040822532</v>
+        <v>1.039745538513281</v>
       </c>
       <c r="J2">
-        <v>1.038733489547669</v>
+        <v>1.055373050793867</v>
       </c>
       <c r="K2">
-        <v>1.043289145533374</v>
+        <v>1.063022372017043</v>
       </c>
       <c r="L2">
-        <v>1.041550864973045</v>
+        <v>1.060357977551843</v>
       </c>
       <c r="M2">
-        <v>1.05093930781919</v>
+        <v>1.071532573017533</v>
       </c>
       <c r="N2">
-        <v>1.040208610247243</v>
+        <v>1.056871801578976</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.021808089982621</v>
+        <v>1.051356741733243</v>
       </c>
       <c r="D3">
-        <v>1.036451146713784</v>
+        <v>1.06124227267802</v>
       </c>
       <c r="E3">
-        <v>1.034485882842775</v>
+        <v>1.058526189964492</v>
       </c>
       <c r="F3">
-        <v>1.044327310823545</v>
+        <v>1.069808718031774</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051050591422683</v>
+        <v>1.039896116167578</v>
       </c>
       <c r="J3">
-        <v>1.041721397774122</v>
+        <v>1.05603972913444</v>
       </c>
       <c r="K3">
-        <v>1.046637940982692</v>
+        <v>1.06378350363224</v>
       </c>
       <c r="L3">
-        <v>1.044695734970572</v>
+        <v>1.061074299364995</v>
       </c>
       <c r="M3">
-        <v>1.054422771793655</v>
+        <v>1.072328500920605</v>
       </c>
       <c r="N3">
-        <v>1.043200761646076</v>
+        <v>1.057539426679261</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.024823556556488</v>
+        <v>1.052015485484883</v>
       </c>
       <c r="D4">
-        <v>1.039111967558598</v>
+        <v>1.061855801817626</v>
       </c>
       <c r="E4">
-        <v>1.037017773579353</v>
+        <v>1.059111013771675</v>
       </c>
       <c r="F4">
-        <v>1.047069424143806</v>
+        <v>1.070443812989547</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051684425670623</v>
+        <v>1.039992213332817</v>
       </c>
       <c r="J4">
-        <v>1.043612904452522</v>
+        <v>1.056470939909139</v>
       </c>
       <c r="K4">
-        <v>1.048760194690743</v>
+        <v>1.064276091559682</v>
       </c>
       <c r="L4">
-        <v>1.046689047831457</v>
+        <v>1.061537904540922</v>
       </c>
       <c r="M4">
-        <v>1.056631108293098</v>
+        <v>1.072843683869005</v>
       </c>
       <c r="N4">
-        <v>1.045094954480918</v>
+        <v>1.057971249822721</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.026076809099147</v>
+        <v>1.052292525816865</v>
       </c>
       <c r="D5">
-        <v>1.040219015355521</v>
+        <v>1.062113898861383</v>
       </c>
       <c r="E5">
-        <v>1.038071369211861</v>
+        <v>1.059357048097643</v>
       </c>
       <c r="F5">
-        <v>1.048210406419374</v>
+        <v>1.070710994113517</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051945125923008</v>
+        <v>1.040032292148273</v>
       </c>
       <c r="J5">
-        <v>1.044398386763199</v>
+        <v>1.056652178313113</v>
       </c>
       <c r="K5">
-        <v>1.049642049963395</v>
+        <v>1.064483194958416</v>
       </c>
       <c r="L5">
-        <v>1.047517393194344</v>
+        <v>1.061732826530451</v>
       </c>
       <c r="M5">
-        <v>1.057548908988503</v>
+        <v>1.073060305184848</v>
       </c>
       <c r="N5">
-        <v>1.045881552266572</v>
+        <v>1.058152745606017</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.026286403732727</v>
+        <v>1.052339048214868</v>
       </c>
       <c r="D6">
-        <v>1.040404227364848</v>
+        <v>1.062157244393372</v>
       </c>
       <c r="E6">
-        <v>1.038247649534076</v>
+        <v>1.059398368538895</v>
       </c>
       <c r="F6">
-        <v>1.048401302333883</v>
+        <v>1.070755865945769</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051988564115149</v>
+        <v>1.040039002754727</v>
       </c>
       <c r="J6">
-        <v>1.04452971238283</v>
+        <v>1.056682606517447</v>
       </c>
       <c r="K6">
-        <v>1.049789520759034</v>
+        <v>1.064517969644276</v>
       </c>
       <c r="L6">
-        <v>1.047655919616593</v>
+        <v>1.061765556077113</v>
       </c>
       <c r="M6">
-        <v>1.057702401144029</v>
+        <v>1.073096679081519</v>
       </c>
       <c r="N6">
-        <v>1.046013064383646</v>
+        <v>1.058183217021891</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.02484035865288</v>
+        <v>1.052019186901688</v>
       </c>
       <c r="D7">
-        <v>1.03912680487438</v>
+        <v>1.061859249858678</v>
       </c>
       <c r="E7">
-        <v>1.037031893754877</v>
+        <v>1.059114300610473</v>
       </c>
       <c r="F7">
-        <v>1.047084715827328</v>
+        <v>1.070447382342592</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051687931648705</v>
+        <v>1.039992750127536</v>
       </c>
       <c r="J7">
-        <v>1.043623437839637</v>
+        <v>1.056473361793957</v>
       </c>
       <c r="K7">
-        <v>1.048772018266527</v>
+        <v>1.064278858810179</v>
       </c>
       <c r="L7">
-        <v>1.04670015369858</v>
+        <v>1.061540509011256</v>
       </c>
       <c r="M7">
-        <v>1.056643413119335</v>
+        <v>1.072846578223913</v>
       </c>
       <c r="N7">
-        <v>1.045105502826651</v>
+        <v>1.057973675146892</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.01867204151652</v>
+        <v>1.050683107095678</v>
       </c>
       <c r="D8">
-        <v>1.033688155242598</v>
+        <v>1.060615121832865</v>
       </c>
       <c r="E8">
-        <v>1.031857443930363</v>
+        <v>1.057928426061209</v>
       </c>
       <c r="F8">
-        <v>1.041480296138128</v>
+        <v>1.069159562985077</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050382094272335</v>
+        <v>1.039796703434901</v>
       </c>
       <c r="J8">
-        <v>1.039752132267664</v>
+        <v>1.055598393559507</v>
       </c>
       <c r="K8">
-        <v>1.044430344265925</v>
+        <v>1.063279581902795</v>
       </c>
       <c r="L8">
-        <v>1.042622507287681</v>
+        <v>1.060600041245158</v>
       </c>
       <c r="M8">
-        <v>1.052126242879747</v>
+        <v>1.071801525974743</v>
       </c>
       <c r="N8">
-        <v>1.04122869955672</v>
+        <v>1.057097464357189</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.007296966970521</v>
+        <v>1.048332153647219</v>
       </c>
       <c r="D9">
-        <v>1.023701464991109</v>
+        <v>1.058428308733631</v>
       </c>
       <c r="E9">
-        <v>1.022362621548134</v>
+        <v>1.055844425121214</v>
       </c>
       <c r="F9">
-        <v>1.031193003723362</v>
+        <v>1.066896333053907</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047886848175828</v>
+        <v>1.039441026278743</v>
       </c>
       <c r="J9">
-        <v>1.032594656010539</v>
+        <v>1.054055284347665</v>
       </c>
       <c r="K9">
-        <v>1.036421360102328</v>
+        <v>1.06151941738458</v>
       </c>
       <c r="L9">
-        <v>1.035103008522777</v>
+        <v>1.058943598316139</v>
       </c>
       <c r="M9">
-        <v>1.043799485742254</v>
+        <v>1.069961311004462</v>
       </c>
       <c r="N9">
-        <v>1.034061058862336</v>
+        <v>1.05555216375327</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9993347867482725</v>
+        <v>1.046767166132669</v>
       </c>
       <c r="D10">
-        <v>1.016743102684869</v>
+        <v>1.056974192252217</v>
       </c>
       <c r="E10">
-        <v>1.015751940738212</v>
+        <v>1.054458960764983</v>
       </c>
       <c r="F10">
-        <v>1.02402783827709</v>
+        <v>1.065391659600817</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046084015063481</v>
+        <v>1.0391970638362</v>
       </c>
       <c r="J10">
-        <v>1.027574822242543</v>
+        <v>1.053025713974822</v>
       </c>
       <c r="K10">
-        <v>1.03081649537184</v>
+        <v>1.060346489056974</v>
       </c>
       <c r="L10">
-        <v>1.029842496439882</v>
+        <v>1.057839878609618</v>
       </c>
       <c r="M10">
-        <v>1.037976404149931</v>
+        <v>1.068735430520118</v>
       </c>
       <c r="N10">
-        <v>1.029034096354607</v>
+        <v>1.054521131272404</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9957878010192314</v>
+        <v>1.046090065179209</v>
       </c>
       <c r="D11">
-        <v>1.013651609335603</v>
+        <v>1.056345447849456</v>
       </c>
       <c r="E11">
-        <v>1.012816193234592</v>
+        <v>1.053859970148562</v>
       </c>
       <c r="F11">
-        <v>1.020845113636199</v>
+        <v>1.064741115904931</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045268186632535</v>
+        <v>1.039089807250618</v>
       </c>
       <c r="J11">
-        <v>1.025336868387723</v>
+        <v>1.052579710764256</v>
       </c>
       <c r="K11">
-        <v>1.028320588040675</v>
+        <v>1.059838730662506</v>
       </c>
       <c r="L11">
-        <v>1.027500395627337</v>
+        <v>1.057362102533075</v>
       </c>
       <c r="M11">
-        <v>1.035384344758306</v>
+        <v>1.068204842411483</v>
       </c>
       <c r="N11">
-        <v>1.026792964348616</v>
+        <v>1.054074494686122</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.994454501688539</v>
+        <v>1.04583864268944</v>
       </c>
       <c r="D12">
-        <v>1.01249084216502</v>
+        <v>1.056112040002756</v>
       </c>
       <c r="E12">
-        <v>1.011714104814231</v>
+        <v>1.05363761827277</v>
       </c>
       <c r="F12">
-        <v>1.019650191077544</v>
+        <v>1.064499624724162</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044959667668262</v>
+        <v>1.039049724493041</v>
       </c>
       <c r="J12">
-        <v>1.024495425486872</v>
+        <v>1.052414017092021</v>
       </c>
       <c r="K12">
-        <v>1.027382587108758</v>
+        <v>1.059650146505072</v>
       </c>
       <c r="L12">
-        <v>1.026620270300001</v>
+        <v>1.057184657312699</v>
       </c>
       <c r="M12">
-        <v>1.034410365132751</v>
+        <v>1.068007793205554</v>
       </c>
       <c r="N12">
-        <v>1.025950326502331</v>
+        <v>1.053908565709867</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9947412281797937</v>
+        <v>1.045892569905506</v>
       </c>
       <c r="D13">
-        <v>1.0127404050907</v>
+        <v>1.056162100616642</v>
       </c>
       <c r="E13">
-        <v>1.01195104269563</v>
+        <v>1.053685307157672</v>
       </c>
       <c r="F13">
-        <v>1.019907092829476</v>
+        <v>1.064551418611259</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04502609751514</v>
+        <v>1.0390583333655</v>
       </c>
       <c r="J13">
-        <v>1.024676386387125</v>
+        <v>1.052449560213144</v>
       </c>
       <c r="K13">
-        <v>1.027584294426477</v>
+        <v>1.059690597532944</v>
       </c>
       <c r="L13">
-        <v>1.026809528733471</v>
+        <v>1.057222718902819</v>
       </c>
       <c r="M13">
-        <v>1.034619802157421</v>
+        <v>1.068050059338728</v>
       </c>
       <c r="N13">
-        <v>1.026131544387819</v>
+        <v>1.053944159306299</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9956779174720591</v>
+        <v>1.046069280822798</v>
       </c>
       <c r="D14">
-        <v>1.013555917885908</v>
+        <v>1.0563261515078</v>
       </c>
       <c r="E14">
-        <v>1.012725335017553</v>
+        <v>1.053841587613255</v>
       </c>
       <c r="F14">
-        <v>1.020746604449026</v>
+        <v>1.06472115110869</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04524279741963</v>
+        <v>1.039086498949937</v>
       </c>
       <c r="J14">
-        <v>1.02526752489194</v>
+        <v>1.052566015045328</v>
       </c>
       <c r="K14">
-        <v>1.028243278459166</v>
+        <v>1.059823141826316</v>
       </c>
       <c r="L14">
-        <v>1.027427854627863</v>
+        <v>1.057347434400725</v>
       </c>
       <c r="M14">
-        <v>1.035304066625082</v>
+        <v>1.068188553546942</v>
       </c>
       <c r="N14">
-        <v>1.026723522377115</v>
+        <v>1.054060779517701</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9962529230843015</v>
+        <v>1.046178169257457</v>
       </c>
       <c r="D15">
-        <v>1.01405671214886</v>
+        <v>1.056427246702353</v>
       </c>
       <c r="E15">
-        <v>1.013200843143647</v>
+        <v>1.053937895729096</v>
       </c>
       <c r="F15">
-        <v>1.021262149199922</v>
+        <v>1.064825748770693</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045375580570189</v>
+        <v>1.039103820522902</v>
       </c>
       <c r="J15">
-        <v>1.025630381964015</v>
+        <v>1.052637762992011</v>
       </c>
       <c r="K15">
-        <v>1.02864783754125</v>
+        <v>1.05990480940303</v>
       </c>
       <c r="L15">
-        <v>1.027807462824475</v>
+        <v>1.057424278685203</v>
       </c>
       <c r="M15">
-        <v>1.035724166471945</v>
+        <v>1.06827388904198</v>
       </c>
       <c r="N15">
-        <v>1.027086894747853</v>
+        <v>1.054132629354699</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.99956802328673</v>
+        <v>1.046812114699604</v>
       </c>
       <c r="D16">
-        <v>1.016946566328834</v>
+        <v>1.057015938941488</v>
       </c>
       <c r="E16">
-        <v>1.015945181475177</v>
+        <v>1.054498733364871</v>
       </c>
       <c r="F16">
-        <v>1.024237319898402</v>
+        <v>1.065434854983586</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046137400997074</v>
+        <v>1.039204148019986</v>
       </c>
       <c r="J16">
-        <v>1.027721950416334</v>
+        <v>1.053055309743389</v>
       </c>
       <c r="K16">
-        <v>1.030980641566732</v>
+        <v>1.060380190059144</v>
       </c>
       <c r="L16">
-        <v>1.029996537278114</v>
+        <v>1.057871590089043</v>
       </c>
       <c r="M16">
-        <v>1.038146895454824</v>
+        <v>1.068770648744666</v>
       </c>
       <c r="N16">
-        <v>1.02918143346728</v>
+        <v>1.054550769070357</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.001620315059295</v>
+        <v>1.04720991923562</v>
       </c>
       <c r="D17">
-        <v>1.018737834393411</v>
+        <v>1.057385451028651</v>
       </c>
       <c r="E17">
-        <v>1.0176465948503</v>
+        <v>1.054850780241754</v>
       </c>
       <c r="F17">
-        <v>1.026081643555587</v>
+        <v>1.065817196932823</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046605714741152</v>
+        <v>1.039266647564467</v>
       </c>
       <c r="J17">
-        <v>1.029016369035087</v>
+        <v>1.053317174753516</v>
       </c>
       <c r="K17">
-        <v>1.032425108880536</v>
+        <v>1.060678418428228</v>
       </c>
       <c r="L17">
-        <v>1.031352131658358</v>
+        <v>1.05815221523797</v>
       </c>
       <c r="M17">
-        <v>1.039647315715432</v>
+        <v>1.069082314152335</v>
       </c>
       <c r="N17">
-        <v>1.030477690308945</v>
+        <v>1.054813005958835</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.002807862317793</v>
+        <v>1.047442004826374</v>
       </c>
       <c r="D18">
-        <v>1.019775125762119</v>
+        <v>1.057601067721155</v>
       </c>
       <c r="E18">
-        <v>1.018631973625692</v>
+        <v>1.055056212371561</v>
       </c>
       <c r="F18">
-        <v>1.027149719915554</v>
+        <v>1.066040305960934</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046875492960495</v>
+        <v>1.039302946232396</v>
       </c>
       <c r="J18">
-        <v>1.029765210077081</v>
+        <v>1.053469897568918</v>
       </c>
       <c r="K18">
-        <v>1.033261027266519</v>
+        <v>1.060852382220859</v>
       </c>
       <c r="L18">
-        <v>1.032136662626647</v>
+        <v>1.058315912772798</v>
       </c>
       <c r="M18">
-        <v>1.040515711048907</v>
+        <v>1.069264125082318</v>
       </c>
       <c r="N18">
-        <v>1.031227594791111</v>
+        <v>1.054965945658152</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.00321119593431</v>
+        <v>1.047521148979514</v>
       </c>
       <c r="D19">
-        <v>1.020127558197622</v>
+        <v>1.057674602091375</v>
       </c>
       <c r="E19">
-        <v>1.018966788330968</v>
+        <v>1.055126274508729</v>
       </c>
       <c r="F19">
-        <v>1.027512622295435</v>
+        <v>1.066116396531341</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04696691259661</v>
+        <v>1.03931529662416</v>
       </c>
       <c r="J19">
-        <v>1.030019513401966</v>
+        <v>1.0535219689239</v>
       </c>
       <c r="K19">
-        <v>1.033544947858262</v>
+        <v>1.060911701428993</v>
       </c>
       <c r="L19">
-        <v>1.0324031367397</v>
+        <v>1.058371731690653</v>
       </c>
       <c r="M19">
-        <v>1.040810678797279</v>
+        <v>1.069326121577767</v>
       </c>
       <c r="N19">
-        <v>1.031482259255887</v>
+        <v>1.055018090960431</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.001401114344758</v>
+        <v>1.047167233094845</v>
       </c>
       <c r="D20">
-        <v>1.018546431240732</v>
+        <v>1.057345796920119</v>
       </c>
       <c r="E20">
-        <v>1.017464780403811</v>
+        <v>1.054812999715895</v>
       </c>
       <c r="F20">
-        <v>1.025884564843755</v>
+        <v>1.065776165381256</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046555820228273</v>
+        <v>1.039259958114628</v>
       </c>
       <c r="J20">
-        <v>1.028878132022661</v>
+        <v>1.053289081036556</v>
       </c>
       <c r="K20">
-        <v>1.032270819267237</v>
+        <v>1.060646420075808</v>
       </c>
       <c r="L20">
-        <v>1.031207330383241</v>
+        <v>1.05812210539949</v>
       </c>
       <c r="M20">
-        <v>1.039487039470848</v>
+        <v>1.069048873145616</v>
       </c>
       <c r="N20">
-        <v>1.030339256984104</v>
+        <v>1.054784872345575</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9954025290436279</v>
+        <v>1.046017241568321</v>
       </c>
       <c r="D21">
-        <v>1.013316118868104</v>
+        <v>1.056277838852213</v>
       </c>
       <c r="E21">
-        <v>1.012497651155184</v>
+        <v>1.053795563044062</v>
       </c>
       <c r="F21">
-        <v>1.020499745899436</v>
+        <v>1.064671164977797</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045179137737264</v>
+        <v>1.039078211589067</v>
       </c>
       <c r="J21">
-        <v>1.025093734211942</v>
+        <v>1.052531722773303</v>
       </c>
       <c r="K21">
-        <v>1.028049529854254</v>
+        <v>1.059784110279295</v>
       </c>
       <c r="L21">
-        <v>1.027246057937942</v>
+        <v>1.057310708179071</v>
       </c>
       <c r="M21">
-        <v>1.035102880951437</v>
+        <v>1.068147769485826</v>
       </c>
       <c r="N21">
-        <v>1.026549484894418</v>
+        <v>1.054026438546717</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9915391400417853</v>
+        <v>1.045294676428478</v>
       </c>
       <c r="D22">
-        <v>1.009955227553065</v>
+        <v>1.055607157513416</v>
       </c>
       <c r="E22">
-        <v>1.009307048877234</v>
+        <v>1.053156670193719</v>
       </c>
       <c r="F22">
-        <v>1.01704015135877</v>
+        <v>1.063977274059094</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044281726134519</v>
+        <v>1.03896253526306</v>
       </c>
       <c r="J22">
-        <v>1.022655233518043</v>
+        <v>1.052055378636151</v>
       </c>
       <c r="K22">
-        <v>1.025332015936787</v>
+        <v>1.059242057518892</v>
       </c>
       <c r="L22">
-        <v>1.024696358867763</v>
+        <v>1.056800678719453</v>
       </c>
       <c r="M22">
-        <v>1.032281432618455</v>
+        <v>1.067581411859419</v>
       </c>
       <c r="N22">
-        <v>1.024107521249833</v>
+        <v>1.053549417946253</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9935962088979085</v>
+        <v>1.045677676204999</v>
       </c>
       <c r="D23">
-        <v>1.011743993348542</v>
+        <v>1.055962623528808</v>
       </c>
       <c r="E23">
-        <v>1.011005068163124</v>
+        <v>1.053495282272345</v>
       </c>
       <c r="F23">
-        <v>1.018881394609451</v>
+        <v>1.064345036276716</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044760548342575</v>
+        <v>1.039023990527443</v>
       </c>
       <c r="J23">
-        <v>1.023953707993402</v>
+        <v>1.052307912889329</v>
       </c>
       <c r="K23">
-        <v>1.026778826765294</v>
+        <v>1.0595293987178</v>
       </c>
       <c r="L23">
-        <v>1.026053783487969</v>
+        <v>1.057071042576335</v>
       </c>
       <c r="M23">
-        <v>1.033783491076101</v>
+        <v>1.067881629319445</v>
       </c>
       <c r="N23">
-        <v>1.025407839707885</v>
+        <v>1.053802310827036</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.001500191067676</v>
+        <v>1.047186520960855</v>
       </c>
       <c r="D24">
-        <v>1.0186329412932</v>
+        <v>1.057363714637519</v>
       </c>
       <c r="E24">
-        <v>1.017546956196792</v>
+        <v>1.054830070833916</v>
       </c>
       <c r="F24">
-        <v>1.025973639934922</v>
+        <v>1.065794705478395</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046578375845643</v>
+        <v>1.039262981271902</v>
       </c>
       <c r="J24">
-        <v>1.028940614413264</v>
+        <v>1.053301775435509</v>
       </c>
       <c r="K24">
-        <v>1.032340556504443</v>
+        <v>1.060660878716156</v>
       </c>
       <c r="L24">
-        <v>1.031272778859019</v>
+        <v>1.058135710697349</v>
       </c>
       <c r="M24">
-        <v>1.039559482300845</v>
+        <v>1.069063983629873</v>
       </c>
       <c r="N24">
-        <v>1.030401828106869</v>
+        <v>1.05479758477203</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.010301459421808</v>
+        <v>1.048939526094505</v>
       </c>
       <c r="D25">
-        <v>1.026333958033298</v>
+        <v>1.058992994303299</v>
       </c>
       <c r="E25">
-        <v>1.024864631560822</v>
+        <v>1.056382511896823</v>
       </c>
       <c r="F25">
-        <v>1.03390428499004</v>
+        <v>1.067480706069324</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048555808819209</v>
+        <v>1.039534185586001</v>
       </c>
       <c r="J25">
-        <v>1.034487043183248</v>
+        <v>1.054454364849874</v>
       </c>
       <c r="K25">
-        <v>1.038536778481141</v>
+        <v>1.061974375154952</v>
       </c>
       <c r="L25">
-        <v>1.037088839760088</v>
+        <v>1.059371730746721</v>
       </c>
       <c r="M25">
-        <v>1.045998129801183</v>
+        <v>1.070436890888573</v>
       </c>
       <c r="N25">
-        <v>1.03595613344189</v>
+        <v>1.055951810995566</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_41/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.050339374274593</v>
+        <v>1.017051081685785</v>
       </c>
       <c r="D2">
-        <v>1.060295203387247</v>
+        <v>1.032261689723248</v>
       </c>
       <c r="E2">
-        <v>1.057623515381107</v>
+        <v>1.030500708572615</v>
       </c>
       <c r="F2">
-        <v>1.068828435398397</v>
+        <v>1.04001060226972</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039745538513281</v>
+        <v>1.050033040822532</v>
       </c>
       <c r="J2">
-        <v>1.055373050793867</v>
+        <v>1.038733489547669</v>
       </c>
       <c r="K2">
-        <v>1.063022372017043</v>
+        <v>1.043289145533374</v>
       </c>
       <c r="L2">
-        <v>1.060357977551843</v>
+        <v>1.041550864973045</v>
       </c>
       <c r="M2">
-        <v>1.071532573017533</v>
+        <v>1.05093930781919</v>
       </c>
       <c r="N2">
-        <v>1.056871801578976</v>
+        <v>1.040208610247242</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.051356741733243</v>
+        <v>1.02180808998262</v>
       </c>
       <c r="D3">
-        <v>1.06124227267802</v>
+        <v>1.036451146713784</v>
       </c>
       <c r="E3">
-        <v>1.058526189964492</v>
+        <v>1.034485882842774</v>
       </c>
       <c r="F3">
-        <v>1.069808718031774</v>
+        <v>1.044327310823543</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039896116167578</v>
+        <v>1.051050591422683</v>
       </c>
       <c r="J3">
-        <v>1.05603972913444</v>
+        <v>1.041721397774121</v>
       </c>
       <c r="K3">
-        <v>1.06378350363224</v>
+        <v>1.046637940982692</v>
       </c>
       <c r="L3">
-        <v>1.061074299364995</v>
+        <v>1.044695734970571</v>
       </c>
       <c r="M3">
-        <v>1.072328500920605</v>
+        <v>1.054422771793654</v>
       </c>
       <c r="N3">
-        <v>1.057539426679261</v>
+        <v>1.043200761646075</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.052015485484883</v>
+        <v>1.024823556556489</v>
       </c>
       <c r="D4">
-        <v>1.061855801817626</v>
+        <v>1.039111967558598</v>
       </c>
       <c r="E4">
-        <v>1.059111013771675</v>
+        <v>1.037017773579353</v>
       </c>
       <c r="F4">
-        <v>1.070443812989547</v>
+        <v>1.047069424143807</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039992213332817</v>
+        <v>1.051684425670623</v>
       </c>
       <c r="J4">
-        <v>1.056470939909139</v>
+        <v>1.043612904452523</v>
       </c>
       <c r="K4">
-        <v>1.064276091559682</v>
+        <v>1.048760194690743</v>
       </c>
       <c r="L4">
-        <v>1.061537904540922</v>
+        <v>1.046689047831457</v>
       </c>
       <c r="M4">
-        <v>1.072843683869005</v>
+        <v>1.056631108293098</v>
       </c>
       <c r="N4">
-        <v>1.057971249822721</v>
+        <v>1.045094954480918</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.052292525816865</v>
+        <v>1.026076809099146</v>
       </c>
       <c r="D5">
-        <v>1.062113898861383</v>
+        <v>1.040219015355521</v>
       </c>
       <c r="E5">
-        <v>1.059357048097643</v>
+        <v>1.03807136921186</v>
       </c>
       <c r="F5">
-        <v>1.070710994113517</v>
+        <v>1.048210406419373</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040032292148273</v>
+        <v>1.051945125923008</v>
       </c>
       <c r="J5">
-        <v>1.056652178313113</v>
+        <v>1.044398386763198</v>
       </c>
       <c r="K5">
-        <v>1.064483194958416</v>
+        <v>1.049642049963394</v>
       </c>
       <c r="L5">
-        <v>1.061732826530451</v>
+        <v>1.047517393194343</v>
       </c>
       <c r="M5">
-        <v>1.073060305184848</v>
+        <v>1.057548908988502</v>
       </c>
       <c r="N5">
-        <v>1.058152745606017</v>
+        <v>1.045881552266571</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.052339048214868</v>
+        <v>1.026286403732726</v>
       </c>
       <c r="D6">
-        <v>1.062157244393372</v>
+        <v>1.040404227364847</v>
       </c>
       <c r="E6">
-        <v>1.059398368538895</v>
+        <v>1.038247649534075</v>
       </c>
       <c r="F6">
-        <v>1.070755865945769</v>
+        <v>1.048401302333882</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040039002754727</v>
+        <v>1.051988564115148</v>
       </c>
       <c r="J6">
-        <v>1.056682606517447</v>
+        <v>1.044529712382829</v>
       </c>
       <c r="K6">
-        <v>1.064517969644276</v>
+        <v>1.049789520759033</v>
       </c>
       <c r="L6">
-        <v>1.061765556077113</v>
+        <v>1.047655919616592</v>
       </c>
       <c r="M6">
-        <v>1.073096679081519</v>
+        <v>1.057702401144028</v>
       </c>
       <c r="N6">
-        <v>1.058183217021891</v>
+        <v>1.046013064383645</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.052019186901688</v>
+        <v>1.02484035865288</v>
       </c>
       <c r="D7">
-        <v>1.061859249858678</v>
+        <v>1.039126804874381</v>
       </c>
       <c r="E7">
-        <v>1.059114300610473</v>
+        <v>1.037031893754877</v>
       </c>
       <c r="F7">
-        <v>1.070447382342592</v>
+        <v>1.047084715827328</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039992750127536</v>
+        <v>1.051687931648706</v>
       </c>
       <c r="J7">
-        <v>1.056473361793957</v>
+        <v>1.043623437839638</v>
       </c>
       <c r="K7">
-        <v>1.064278858810179</v>
+        <v>1.048772018266527</v>
       </c>
       <c r="L7">
-        <v>1.061540509011256</v>
+        <v>1.04670015369858</v>
       </c>
       <c r="M7">
-        <v>1.072846578223913</v>
+        <v>1.056643413119335</v>
       </c>
       <c r="N7">
-        <v>1.057973675146892</v>
+        <v>1.045105502826651</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.050683107095678</v>
+        <v>1.018672041516519</v>
       </c>
       <c r="D8">
-        <v>1.060615121832865</v>
+        <v>1.033688155242597</v>
       </c>
       <c r="E8">
-        <v>1.057928426061209</v>
+        <v>1.031857443930363</v>
       </c>
       <c r="F8">
-        <v>1.069159562985077</v>
+        <v>1.041480296138127</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039796703434901</v>
+        <v>1.050382094272335</v>
       </c>
       <c r="J8">
-        <v>1.055598393559507</v>
+        <v>1.039752132267663</v>
       </c>
       <c r="K8">
-        <v>1.063279581902795</v>
+        <v>1.044430344265924</v>
       </c>
       <c r="L8">
-        <v>1.060600041245158</v>
+        <v>1.04262250728768</v>
       </c>
       <c r="M8">
-        <v>1.071801525974743</v>
+        <v>1.052126242879747</v>
       </c>
       <c r="N8">
-        <v>1.057097464357189</v>
+        <v>1.04122869955672</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.048332153647219</v>
+        <v>1.007296966970521</v>
       </c>
       <c r="D9">
-        <v>1.058428308733631</v>
+        <v>1.023701464991109</v>
       </c>
       <c r="E9">
-        <v>1.055844425121214</v>
+        <v>1.022362621548135</v>
       </c>
       <c r="F9">
-        <v>1.066896333053907</v>
+        <v>1.031193003723362</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039441026278743</v>
+        <v>1.047886848175828</v>
       </c>
       <c r="J9">
-        <v>1.054055284347665</v>
+        <v>1.032594656010539</v>
       </c>
       <c r="K9">
-        <v>1.06151941738458</v>
+        <v>1.036421360102328</v>
       </c>
       <c r="L9">
-        <v>1.058943598316139</v>
+        <v>1.035103008522777</v>
       </c>
       <c r="M9">
-        <v>1.069961311004462</v>
+        <v>1.043799485742255</v>
       </c>
       <c r="N9">
-        <v>1.05555216375327</v>
+        <v>1.034061058862336</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.046767166132669</v>
+        <v>0.9993347867482731</v>
       </c>
       <c r="D10">
-        <v>1.056974192252217</v>
+        <v>1.016743102684869</v>
       </c>
       <c r="E10">
-        <v>1.054458960764983</v>
+        <v>1.015751940738212</v>
       </c>
       <c r="F10">
-        <v>1.065391659600817</v>
+        <v>1.02402783827709</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.0391970638362</v>
+        <v>1.046084015063481</v>
       </c>
       <c r="J10">
-        <v>1.053025713974822</v>
+        <v>1.027574822242544</v>
       </c>
       <c r="K10">
-        <v>1.060346489056974</v>
+        <v>1.030816495371841</v>
       </c>
       <c r="L10">
-        <v>1.057839878609618</v>
+        <v>1.029842496439882</v>
       </c>
       <c r="M10">
-        <v>1.068735430520118</v>
+        <v>1.037976404149931</v>
       </c>
       <c r="N10">
-        <v>1.054521131272404</v>
+        <v>1.029034096354608</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.046090065179209</v>
+        <v>0.9957878010192305</v>
       </c>
       <c r="D11">
-        <v>1.056345447849456</v>
+        <v>1.013651609335602</v>
       </c>
       <c r="E11">
-        <v>1.053859970148562</v>
+        <v>1.012816193234591</v>
       </c>
       <c r="F11">
-        <v>1.064741115904931</v>
+        <v>1.020845113636198</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039089807250618</v>
+        <v>1.045268186632534</v>
       </c>
       <c r="J11">
-        <v>1.052579710764256</v>
+        <v>1.025336868387722</v>
       </c>
       <c r="K11">
-        <v>1.059838730662506</v>
+        <v>1.028320588040674</v>
       </c>
       <c r="L11">
-        <v>1.057362102533075</v>
+        <v>1.027500395627337</v>
       </c>
       <c r="M11">
-        <v>1.068204842411483</v>
+        <v>1.035384344758306</v>
       </c>
       <c r="N11">
-        <v>1.054074494686122</v>
+        <v>1.026792964348615</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.04583864268944</v>
+        <v>0.9944545016885383</v>
       </c>
       <c r="D12">
-        <v>1.056112040002756</v>
+        <v>1.012490842165019</v>
       </c>
       <c r="E12">
-        <v>1.05363761827277</v>
+        <v>1.01171410481423</v>
       </c>
       <c r="F12">
-        <v>1.064499624724162</v>
+        <v>1.019650191077544</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039049724493041</v>
+        <v>1.044959667668262</v>
       </c>
       <c r="J12">
-        <v>1.052414017092021</v>
+        <v>1.024495425486871</v>
       </c>
       <c r="K12">
-        <v>1.059650146505072</v>
+        <v>1.027382587108758</v>
       </c>
       <c r="L12">
-        <v>1.057184657312699</v>
+        <v>1.0266202703</v>
       </c>
       <c r="M12">
-        <v>1.068007793205554</v>
+        <v>1.034410365132751</v>
       </c>
       <c r="N12">
-        <v>1.053908565709867</v>
+        <v>1.02595032650233</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.045892569905506</v>
+        <v>0.9947412281797924</v>
       </c>
       <c r="D13">
-        <v>1.056162100616642</v>
+        <v>1.012740405090699</v>
       </c>
       <c r="E13">
-        <v>1.053685307157672</v>
+        <v>1.011951042695629</v>
       </c>
       <c r="F13">
-        <v>1.064551418611259</v>
+        <v>1.019907092829475</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.0390583333655</v>
+        <v>1.045026097515139</v>
       </c>
       <c r="J13">
-        <v>1.052449560213144</v>
+        <v>1.024676386387124</v>
       </c>
       <c r="K13">
-        <v>1.059690597532944</v>
+        <v>1.027584294426475</v>
       </c>
       <c r="L13">
-        <v>1.057222718902819</v>
+        <v>1.02680952873347</v>
       </c>
       <c r="M13">
-        <v>1.068050059338728</v>
+        <v>1.034619802157419</v>
       </c>
       <c r="N13">
-        <v>1.053944159306299</v>
+        <v>1.026131544387818</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.046069280822798</v>
+        <v>0.9956779174720586</v>
       </c>
       <c r="D14">
-        <v>1.0563261515078</v>
+        <v>1.013555917885908</v>
       </c>
       <c r="E14">
-        <v>1.053841587613255</v>
+        <v>1.012725335017552</v>
       </c>
       <c r="F14">
-        <v>1.06472115110869</v>
+        <v>1.020746604449026</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039086498949937</v>
+        <v>1.04524279741963</v>
       </c>
       <c r="J14">
-        <v>1.052566015045328</v>
+        <v>1.02526752489194</v>
       </c>
       <c r="K14">
-        <v>1.059823141826316</v>
+        <v>1.028243278459165</v>
       </c>
       <c r="L14">
-        <v>1.057347434400725</v>
+        <v>1.027427854627862</v>
       </c>
       <c r="M14">
-        <v>1.068188553546942</v>
+        <v>1.035304066625082</v>
       </c>
       <c r="N14">
-        <v>1.054060779517701</v>
+        <v>1.026723522377115</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.046178169257457</v>
+        <v>0.9962529230843026</v>
       </c>
       <c r="D15">
-        <v>1.056427246702353</v>
+        <v>1.014056712148862</v>
       </c>
       <c r="E15">
-        <v>1.053937895729096</v>
+        <v>1.013200843143649</v>
       </c>
       <c r="F15">
-        <v>1.064825748770693</v>
+        <v>1.021262149199923</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039103820522902</v>
+        <v>1.045375580570189</v>
       </c>
       <c r="J15">
-        <v>1.052637762992011</v>
+        <v>1.025630381964016</v>
       </c>
       <c r="K15">
-        <v>1.05990480940303</v>
+        <v>1.028647837541251</v>
       </c>
       <c r="L15">
-        <v>1.057424278685203</v>
+        <v>1.027807462824476</v>
       </c>
       <c r="M15">
-        <v>1.06827388904198</v>
+        <v>1.035724166471946</v>
       </c>
       <c r="N15">
-        <v>1.054132629354699</v>
+        <v>1.027086894747854</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.046812114699604</v>
+        <v>0.9995680232867307</v>
       </c>
       <c r="D16">
-        <v>1.057015938941488</v>
+        <v>1.016946566328835</v>
       </c>
       <c r="E16">
-        <v>1.054498733364871</v>
+        <v>1.015945181475177</v>
       </c>
       <c r="F16">
-        <v>1.065434854983586</v>
+        <v>1.024237319898403</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039204148019986</v>
+        <v>1.046137400997074</v>
       </c>
       <c r="J16">
-        <v>1.053055309743389</v>
+        <v>1.027721950416335</v>
       </c>
       <c r="K16">
-        <v>1.060380190059144</v>
+        <v>1.030980641566732</v>
       </c>
       <c r="L16">
-        <v>1.057871590089043</v>
+        <v>1.029996537278115</v>
       </c>
       <c r="M16">
-        <v>1.068770648744666</v>
+        <v>1.038146895454825</v>
       </c>
       <c r="N16">
-        <v>1.054550769070357</v>
+        <v>1.029181433467281</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.04720991923562</v>
+        <v>1.001620315059295</v>
       </c>
       <c r="D17">
-        <v>1.057385451028651</v>
+        <v>1.018737834393411</v>
       </c>
       <c r="E17">
-        <v>1.054850780241754</v>
+        <v>1.0176465948503</v>
       </c>
       <c r="F17">
-        <v>1.065817196932823</v>
+        <v>1.026081643555586</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039266647564467</v>
+        <v>1.046605714741152</v>
       </c>
       <c r="J17">
-        <v>1.053317174753516</v>
+        <v>1.029016369035087</v>
       </c>
       <c r="K17">
-        <v>1.060678418428228</v>
+        <v>1.032425108880536</v>
       </c>
       <c r="L17">
-        <v>1.05815221523797</v>
+        <v>1.031352131658357</v>
       </c>
       <c r="M17">
-        <v>1.069082314152335</v>
+        <v>1.039647315715431</v>
       </c>
       <c r="N17">
-        <v>1.054813005958835</v>
+        <v>1.030477690308944</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.047442004826374</v>
+        <v>1.002807862317793</v>
       </c>
       <c r="D18">
-        <v>1.057601067721155</v>
+        <v>1.019775125762118</v>
       </c>
       <c r="E18">
-        <v>1.055056212371561</v>
+        <v>1.018631973625691</v>
       </c>
       <c r="F18">
-        <v>1.066040305960934</v>
+        <v>1.027149719915553</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039302946232396</v>
+        <v>1.046875492960494</v>
       </c>
       <c r="J18">
-        <v>1.053469897568918</v>
+        <v>1.029765210077081</v>
       </c>
       <c r="K18">
-        <v>1.060852382220859</v>
+        <v>1.033261027266519</v>
       </c>
       <c r="L18">
-        <v>1.058315912772798</v>
+        <v>1.032136662626646</v>
       </c>
       <c r="M18">
-        <v>1.069264125082318</v>
+        <v>1.040515711048906</v>
       </c>
       <c r="N18">
-        <v>1.054965945658152</v>
+        <v>1.03122759479111</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.047521148979514</v>
+        <v>1.003211195934309</v>
       </c>
       <c r="D19">
-        <v>1.057674602091375</v>
+        <v>1.020127558197621</v>
       </c>
       <c r="E19">
-        <v>1.055126274508729</v>
+        <v>1.018966788330967</v>
       </c>
       <c r="F19">
-        <v>1.066116396531341</v>
+        <v>1.027512622295435</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03931529662416</v>
+        <v>1.04696691259661</v>
       </c>
       <c r="J19">
-        <v>1.0535219689239</v>
+        <v>1.030019513401966</v>
       </c>
       <c r="K19">
-        <v>1.060911701428993</v>
+        <v>1.033544947858262</v>
       </c>
       <c r="L19">
-        <v>1.058371731690653</v>
+        <v>1.032403136739699</v>
       </c>
       <c r="M19">
-        <v>1.069326121577767</v>
+        <v>1.040810678797278</v>
       </c>
       <c r="N19">
-        <v>1.055018090960431</v>
+        <v>1.031482259255886</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.047167233094845</v>
+        <v>1.001401114344757</v>
       </c>
       <c r="D20">
-        <v>1.057345796920119</v>
+        <v>1.018546431240732</v>
       </c>
       <c r="E20">
-        <v>1.054812999715895</v>
+        <v>1.017464780403809</v>
       </c>
       <c r="F20">
-        <v>1.065776165381256</v>
+        <v>1.025884564843754</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039259958114628</v>
+        <v>1.046555820228273</v>
       </c>
       <c r="J20">
-        <v>1.053289081036556</v>
+        <v>1.02887813202266</v>
       </c>
       <c r="K20">
-        <v>1.060646420075808</v>
+        <v>1.032270819267236</v>
       </c>
       <c r="L20">
-        <v>1.05812210539949</v>
+        <v>1.03120733038324</v>
       </c>
       <c r="M20">
-        <v>1.069048873145616</v>
+        <v>1.039487039470847</v>
       </c>
       <c r="N20">
-        <v>1.054784872345575</v>
+        <v>1.030339256984103</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.046017241568321</v>
+        <v>0.9954025290436276</v>
       </c>
       <c r="D21">
-        <v>1.056277838852213</v>
+        <v>1.013316118868104</v>
       </c>
       <c r="E21">
-        <v>1.053795563044062</v>
+        <v>1.012497651155184</v>
       </c>
       <c r="F21">
-        <v>1.064671164977797</v>
+        <v>1.020499745899436</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039078211589067</v>
+        <v>1.045179137737264</v>
       </c>
       <c r="J21">
-        <v>1.052531722773303</v>
+        <v>1.025093734211942</v>
       </c>
       <c r="K21">
-        <v>1.059784110279295</v>
+        <v>1.028049529854254</v>
       </c>
       <c r="L21">
-        <v>1.057310708179071</v>
+        <v>1.027246057937942</v>
       </c>
       <c r="M21">
-        <v>1.068147769485826</v>
+        <v>1.035102880951436</v>
       </c>
       <c r="N21">
-        <v>1.054026438546717</v>
+        <v>1.026549484894418</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.045294676428478</v>
+        <v>0.9915391400417851</v>
       </c>
       <c r="D22">
-        <v>1.055607157513416</v>
+        <v>1.009955227553065</v>
       </c>
       <c r="E22">
-        <v>1.053156670193719</v>
+        <v>1.009307048877234</v>
       </c>
       <c r="F22">
-        <v>1.063977274059094</v>
+        <v>1.017040151358769</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03896253526306</v>
+        <v>1.044281726134519</v>
       </c>
       <c r="J22">
-        <v>1.052055378636151</v>
+        <v>1.022655233518042</v>
       </c>
       <c r="K22">
-        <v>1.059242057518892</v>
+        <v>1.025332015936786</v>
       </c>
       <c r="L22">
-        <v>1.056800678719453</v>
+        <v>1.024696358867763</v>
       </c>
       <c r="M22">
-        <v>1.067581411859419</v>
+        <v>1.032281432618454</v>
       </c>
       <c r="N22">
-        <v>1.053549417946253</v>
+        <v>1.024107521249833</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.045677676204999</v>
+        <v>0.9935962088979073</v>
       </c>
       <c r="D23">
-        <v>1.055962623528808</v>
+        <v>1.011743993348541</v>
       </c>
       <c r="E23">
-        <v>1.053495282272345</v>
+        <v>1.011005068163124</v>
       </c>
       <c r="F23">
-        <v>1.064345036276716</v>
+        <v>1.018881394609451</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039023990527443</v>
+        <v>1.044760548342575</v>
       </c>
       <c r="J23">
-        <v>1.052307912889329</v>
+        <v>1.023953707993401</v>
       </c>
       <c r="K23">
-        <v>1.0595293987178</v>
+        <v>1.026778826765293</v>
       </c>
       <c r="L23">
-        <v>1.057071042576335</v>
+        <v>1.026053783487968</v>
       </c>
       <c r="M23">
-        <v>1.067881629319445</v>
+        <v>1.0337834910761</v>
       </c>
       <c r="N23">
-        <v>1.053802310827036</v>
+        <v>1.025407839707883</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.047186520960855</v>
+        <v>1.001500191067675</v>
       </c>
       <c r="D24">
-        <v>1.057363714637519</v>
+        <v>1.0186329412932</v>
       </c>
       <c r="E24">
-        <v>1.054830070833916</v>
+        <v>1.017546956196791</v>
       </c>
       <c r="F24">
-        <v>1.065794705478395</v>
+        <v>1.025973639934921</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039262981271902</v>
+        <v>1.046578375845643</v>
       </c>
       <c r="J24">
-        <v>1.053301775435509</v>
+        <v>1.028940614413264</v>
       </c>
       <c r="K24">
-        <v>1.060660878716156</v>
+        <v>1.032340556504443</v>
       </c>
       <c r="L24">
-        <v>1.058135710697349</v>
+        <v>1.031272778859018</v>
       </c>
       <c r="M24">
-        <v>1.069063983629873</v>
+        <v>1.039559482300845</v>
       </c>
       <c r="N24">
-        <v>1.05479758477203</v>
+        <v>1.030401828106869</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.048939526094505</v>
+        <v>1.010301459421808</v>
       </c>
       <c r="D25">
-        <v>1.058992994303299</v>
+        <v>1.026333958033297</v>
       </c>
       <c r="E25">
-        <v>1.056382511896823</v>
+        <v>1.024864631560821</v>
       </c>
       <c r="F25">
-        <v>1.067480706069324</v>
+        <v>1.03390428499004</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039534185586001</v>
+        <v>1.048555808819209</v>
       </c>
       <c r="J25">
-        <v>1.054454364849874</v>
+        <v>1.034487043183247</v>
       </c>
       <c r="K25">
-        <v>1.061974375154952</v>
+        <v>1.038536778481141</v>
       </c>
       <c r="L25">
-        <v>1.059371730746721</v>
+        <v>1.037088839760088</v>
       </c>
       <c r="M25">
-        <v>1.070436890888573</v>
+        <v>1.045998129801182</v>
       </c>
       <c r="N25">
-        <v>1.055951810995566</v>
+        <v>1.03595613344189</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_41/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.017051081685785</v>
+        <v>0.9932907990901158</v>
       </c>
       <c r="D2">
-        <v>1.032261689723248</v>
+        <v>1.010852147065363</v>
       </c>
       <c r="E2">
-        <v>1.030500708572615</v>
+        <v>1.007666941865059</v>
       </c>
       <c r="F2">
-        <v>1.04001060226972</v>
+        <v>1.011520305492824</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050033040822532</v>
+        <v>1.03872240536432</v>
       </c>
       <c r="J2">
-        <v>1.038733489547669</v>
+        <v>1.015674049898499</v>
       </c>
       <c r="K2">
-        <v>1.043289145533374</v>
+        <v>1.022162336563922</v>
       </c>
       <c r="L2">
-        <v>1.041550864973045</v>
+        <v>1.019020487480213</v>
       </c>
       <c r="M2">
-        <v>1.05093930781919</v>
+        <v>1.022821443786698</v>
       </c>
       <c r="N2">
-        <v>1.040208610247242</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.009217068656765</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.026633896289559</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.026740690442985</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.02180808998262</v>
+        <v>0.9984356235112496</v>
       </c>
       <c r="D3">
-        <v>1.036451146713784</v>
+        <v>1.015148422687684</v>
       </c>
       <c r="E3">
-        <v>1.034485882842774</v>
+        <v>1.012274162925657</v>
       </c>
       <c r="F3">
-        <v>1.044327310823543</v>
+        <v>1.017228773758675</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051050591422683</v>
+        <v>1.041530915362589</v>
       </c>
       <c r="J3">
-        <v>1.041721397774121</v>
+        <v>1.018969026046378</v>
       </c>
       <c r="K3">
-        <v>1.046637940982692</v>
+        <v>1.025591077306887</v>
       </c>
       <c r="L3">
-        <v>1.044695734970571</v>
+        <v>1.022752365916735</v>
       </c>
       <c r="M3">
-        <v>1.054422771793654</v>
+        <v>1.027645854815819</v>
       </c>
       <c r="N3">
-        <v>1.043200761646075</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.010311622554349</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.030452158910226</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.029162486713173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024823556556489</v>
+        <v>1.001648689828708</v>
       </c>
       <c r="D4">
-        <v>1.039111967558598</v>
+        <v>1.017822952750365</v>
       </c>
       <c r="E4">
-        <v>1.037017773579353</v>
+        <v>1.015138891793925</v>
       </c>
       <c r="F4">
-        <v>1.047069424143807</v>
+        <v>1.020741923809398</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051684425670623</v>
+        <v>1.043186215766998</v>
       </c>
       <c r="J4">
-        <v>1.043612904452523</v>
+        <v>1.02101031577001</v>
       </c>
       <c r="K4">
-        <v>1.048760194690743</v>
+        <v>1.027710926055184</v>
       </c>
       <c r="L4">
-        <v>1.046689047831457</v>
+        <v>1.025057973804493</v>
       </c>
       <c r="M4">
-        <v>1.056631108293098</v>
+        <v>1.030596295026736</v>
       </c>
       <c r="N4">
-        <v>1.045094954480918</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.010989756634668</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.032787263759482</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.030662356471647</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.026076809099146</v>
+        <v>1.002977294295256</v>
       </c>
       <c r="D5">
-        <v>1.040219015355521</v>
+        <v>1.018928977941805</v>
       </c>
       <c r="E5">
-        <v>1.03807136921186</v>
+        <v>1.016320671830915</v>
       </c>
       <c r="F5">
-        <v>1.048210406419373</v>
+        <v>1.02218231745771</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051945125923008</v>
+        <v>1.043846503858178</v>
       </c>
       <c r="J5">
-        <v>1.044398386763198</v>
+        <v>1.021851875051502</v>
       </c>
       <c r="K5">
-        <v>1.049642049963394</v>
+        <v>1.028585180268413</v>
       </c>
       <c r="L5">
-        <v>1.047517393194343</v>
+        <v>1.026006267730781</v>
       </c>
       <c r="M5">
-        <v>1.057548908988502</v>
+        <v>1.031802115908922</v>
       </c>
       <c r="N5">
-        <v>1.045881552266571</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.011269626051316</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.03374159984761</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.031287801640388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.026286403732726</v>
+        <v>1.003203298689865</v>
       </c>
       <c r="D6">
-        <v>1.040404227364847</v>
+        <v>1.019119426396934</v>
       </c>
       <c r="E6">
-        <v>1.038247649534075</v>
+        <v>1.016521557563913</v>
       </c>
       <c r="F6">
-        <v>1.048401302333882</v>
+        <v>1.022425979555066</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051988564115148</v>
+        <v>1.043955783236596</v>
       </c>
       <c r="J6">
-        <v>1.044529712382829</v>
+        <v>1.021996316978366</v>
       </c>
       <c r="K6">
-        <v>1.049789520759033</v>
+        <v>1.028736728933532</v>
       </c>
       <c r="L6">
-        <v>1.047655919616592</v>
+        <v>1.026167996610699</v>
       </c>
       <c r="M6">
-        <v>1.057702401144028</v>
+        <v>1.032006460705506</v>
       </c>
       <c r="N6">
-        <v>1.046013064383645</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.011318012742894</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.033903326569857</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.03140380889424</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02484035865288</v>
+        <v>1.001678362024765</v>
       </c>
       <c r="D7">
-        <v>1.039126804874381</v>
+        <v>1.01785410879942</v>
       </c>
       <c r="E7">
-        <v>1.037031893754877</v>
+        <v>1.015165334732699</v>
       </c>
       <c r="F7">
-        <v>1.047084715827328</v>
+        <v>1.02077227381681</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051687931648706</v>
+        <v>1.043196400900724</v>
       </c>
       <c r="J7">
-        <v>1.043623437839638</v>
+        <v>1.02103315734316</v>
       </c>
       <c r="K7">
-        <v>1.048772018266527</v>
+        <v>1.027738791423149</v>
       </c>
       <c r="L7">
-        <v>1.04670015369858</v>
+        <v>1.025081168077787</v>
       </c>
       <c r="M7">
-        <v>1.056643413119335</v>
+        <v>1.030623377367561</v>
       </c>
       <c r="N7">
-        <v>1.045105502826651</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.010998307213975</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.032808697848712</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.030702420323454</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.018672041516519</v>
+        <v>0.9950697463369911</v>
       </c>
       <c r="D8">
-        <v>1.033688155242597</v>
+        <v>1.01234751841781</v>
       </c>
       <c r="E8">
-        <v>1.031857443930363</v>
+        <v>1.009262771053186</v>
       </c>
       <c r="F8">
-        <v>1.041480296138127</v>
+        <v>1.013502913596499</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050382094272335</v>
+        <v>1.039708548968932</v>
       </c>
       <c r="J8">
-        <v>1.039752132267663</v>
+        <v>1.016821937864844</v>
       </c>
       <c r="K8">
-        <v>1.044430344265924</v>
+        <v>1.023362792476469</v>
       </c>
       <c r="L8">
-        <v>1.04262250728768</v>
+        <v>1.020318717184944</v>
       </c>
       <c r="M8">
-        <v>1.052126242879747</v>
+        <v>1.024503033756449</v>
       </c>
       <c r="N8">
-        <v>1.04122869955672</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.009599628058938</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.027964786976547</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.027612801047984</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.007296966970521</v>
+        <v>0.9824073864670639</v>
       </c>
       <c r="D9">
-        <v>1.023701464991109</v>
+        <v>1.001703707570149</v>
       </c>
       <c r="E9">
-        <v>1.022362621548135</v>
+        <v>0.9978352149055277</v>
       </c>
       <c r="F9">
-        <v>1.031193003723362</v>
+        <v>0.999103548276872</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047886848175828</v>
+        <v>1.032159657775367</v>
       </c>
       <c r="J9">
-        <v>1.032594656010539</v>
+        <v>1.008597055566111</v>
       </c>
       <c r="K9">
-        <v>1.036421360102328</v>
+        <v>1.014769203652268</v>
       </c>
       <c r="L9">
-        <v>1.035103008522777</v>
+        <v>1.010963512151223</v>
       </c>
       <c r="M9">
-        <v>1.043799485742255</v>
+        <v>1.012211186548013</v>
       </c>
       <c r="N9">
-        <v>1.034061058862336</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.006866647810341</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.018236371350524</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.021533081934612</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9993347867482731</v>
+        <v>0.9731305859323462</v>
       </c>
       <c r="D10">
-        <v>1.016743102684869</v>
+        <v>0.9938324097870667</v>
       </c>
       <c r="E10">
-        <v>1.015751940738212</v>
+        <v>0.9893591764619776</v>
       </c>
       <c r="F10">
-        <v>1.02402783827709</v>
+        <v>0.9881577032444828</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046084015063481</v>
+        <v>1.025891481115268</v>
       </c>
       <c r="J10">
-        <v>1.027574822242544</v>
+        <v>1.002452365753396</v>
       </c>
       <c r="K10">
-        <v>1.030816495371841</v>
+        <v>1.00831392209611</v>
       </c>
       <c r="L10">
-        <v>1.029842496439882</v>
+        <v>1.003923249330069</v>
       </c>
       <c r="M10">
-        <v>1.037976404149931</v>
+        <v>1.002744117341259</v>
       </c>
       <c r="N10">
-        <v>1.029034096354608</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.004830401714856</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.010796763230234</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.016985758805961</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9957878010192305</v>
+        <v>0.9690780934051244</v>
       </c>
       <c r="D11">
-        <v>1.013651609335602</v>
+        <v>0.9904019031089432</v>
       </c>
       <c r="E11">
-        <v>1.012816193234591</v>
+        <v>0.9856558793851556</v>
       </c>
       <c r="F11">
-        <v>1.020845113636198</v>
+        <v>0.9834001780433496</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045268186632534</v>
+        <v>1.022840532531592</v>
       </c>
       <c r="J11">
-        <v>1.025336868387722</v>
+        <v>0.9997963421609102</v>
       </c>
       <c r="K11">
-        <v>1.028320588040674</v>
+        <v>1.005507124170526</v>
       </c>
       <c r="L11">
-        <v>1.027500395627337</v>
+        <v>1.000853471203247</v>
       </c>
       <c r="M11">
-        <v>1.035384344758306</v>
+        <v>0.9986420825290347</v>
       </c>
       <c r="N11">
-        <v>1.026792964348615</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.003990745843002</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.008002463678419</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.015034834580942</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9944545016885383</v>
+        <v>0.9675627737986596</v>
       </c>
       <c r="D12">
-        <v>1.012490842165019</v>
+        <v>0.9891090083502696</v>
       </c>
       <c r="E12">
-        <v>1.01171410481423</v>
+        <v>0.9842649044621153</v>
       </c>
       <c r="F12">
-        <v>1.019650191077544</v>
+        <v>0.9816426544070348</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044959667668262</v>
+        <v>1.021648985369369</v>
       </c>
       <c r="J12">
-        <v>1.024495425486871</v>
+        <v>0.9988063310847657</v>
       </c>
       <c r="K12">
-        <v>1.027382587108758</v>
+        <v>1.004447879953897</v>
       </c>
       <c r="L12">
-        <v>1.0266202703</v>
+        <v>0.9996999031753749</v>
       </c>
       <c r="M12">
-        <v>1.034410365132751</v>
+        <v>0.9971302104063167</v>
       </c>
       <c r="N12">
-        <v>1.02595032650233</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.003694636128388</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.007144057586816</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.014285874854308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9947412281797924</v>
+        <v>0.9679896890274706</v>
       </c>
       <c r="D13">
-        <v>1.012740405090699</v>
+        <v>0.9894737881127016</v>
       </c>
       <c r="E13">
-        <v>1.011951042695629</v>
+        <v>0.9846611010266584</v>
       </c>
       <c r="F13">
-        <v>1.019907092829475</v>
+        <v>0.9822391310579915</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045026097515139</v>
+        <v>1.021938659832115</v>
       </c>
       <c r="J13">
-        <v>1.024676386387124</v>
+        <v>0.9991155666265867</v>
       </c>
       <c r="K13">
-        <v>1.027584294426475</v>
+        <v>1.004760748696024</v>
       </c>
       <c r="L13">
-        <v>1.02680952873347</v>
+        <v>1.000043146605985</v>
       </c>
       <c r="M13">
-        <v>1.034619802157419</v>
+        <v>0.9976694915258755</v>
       </c>
       <c r="N13">
-        <v>1.026131544387818</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.00382562275837</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.007855278022266</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.014504531829266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9956779174720586</v>
+        <v>0.9691681081060806</v>
       </c>
       <c r="D14">
-        <v>1.013555917885908</v>
+        <v>0.9904805123178811</v>
       </c>
       <c r="E14">
-        <v>1.012725335017552</v>
+        <v>0.9857467655462463</v>
       </c>
       <c r="F14">
-        <v>1.020746604449026</v>
+        <v>0.9837205108087165</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04524279741963</v>
+        <v>1.022808766360376</v>
       </c>
       <c r="J14">
-        <v>1.02526752489194</v>
+        <v>0.9999198405685107</v>
       </c>
       <c r="K14">
-        <v>1.028243278459165</v>
+        <v>1.005601421043326</v>
       </c>
       <c r="L14">
-        <v>1.027427854627862</v>
+        <v>1.00095990671624</v>
       </c>
       <c r="M14">
-        <v>1.035304066625082</v>
+        <v>0.9989734878634423</v>
       </c>
       <c r="N14">
-        <v>1.026723522377115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.004110489053505</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.00906363616359</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.015100411513592</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9962529230843026</v>
+        <v>0.9698790659611061</v>
       </c>
       <c r="D15">
-        <v>1.014056712148862</v>
+        <v>0.9910908953741338</v>
       </c>
       <c r="E15">
-        <v>1.013200843143649</v>
+        <v>0.9864027343476774</v>
       </c>
       <c r="F15">
-        <v>1.021262149199923</v>
+        <v>0.9845956946856674</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045375580570189</v>
+        <v>1.023331028712576</v>
       </c>
       <c r="J15">
-        <v>1.025630381964016</v>
+        <v>1.00040186223498</v>
       </c>
       <c r="K15">
-        <v>1.028647837541251</v>
+        <v>1.006109928814909</v>
       </c>
       <c r="L15">
-        <v>1.027807462824476</v>
+        <v>1.00151233052656</v>
       </c>
       <c r="M15">
-        <v>1.035724166471946</v>
+        <v>0.9997405001311015</v>
       </c>
       <c r="N15">
-        <v>1.027086894747854</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.004274294458915</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.009708218882151</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.015465994123886</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9995680232867307</v>
+        <v>0.9738915229013727</v>
       </c>
       <c r="D16">
-        <v>1.016946566328835</v>
+        <v>0.9945317245607316</v>
       </c>
       <c r="E16">
-        <v>1.015945181475177</v>
+        <v>0.9901094154184195</v>
       </c>
       <c r="F16">
-        <v>1.024237319898403</v>
+        <v>0.9894518192716256</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046137400997074</v>
+        <v>1.026217870304934</v>
       </c>
       <c r="J16">
-        <v>1.027721950416335</v>
+        <v>1.003100476435987</v>
       </c>
       <c r="K16">
-        <v>1.030980641566732</v>
+        <v>1.008963446950893</v>
       </c>
       <c r="L16">
-        <v>1.029996537278115</v>
+        <v>1.00462236307747</v>
       </c>
       <c r="M16">
-        <v>1.038146895454825</v>
+        <v>1.003976925952396</v>
       </c>
       <c r="N16">
-        <v>1.029181433467281</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.005162635591419</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.013017049763381</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.01748686429361</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.001620315059295</v>
+        <v>0.9763175282348638</v>
       </c>
       <c r="D17">
-        <v>1.018737834393411</v>
+        <v>0.9966077216962922</v>
       </c>
       <c r="E17">
-        <v>1.0176465948503</v>
+        <v>0.9923436696105316</v>
       </c>
       <c r="F17">
-        <v>1.026081643555586</v>
+        <v>0.9923279887767046</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046605714741152</v>
+        <v>1.027909387675105</v>
       </c>
       <c r="J17">
-        <v>1.029016369035087</v>
+        <v>1.004717226113078</v>
       </c>
       <c r="K17">
-        <v>1.032425108880536</v>
+        <v>1.01067549242705</v>
       </c>
       <c r="L17">
-        <v>1.031352131658357</v>
+        <v>1.006487287121491</v>
       </c>
       <c r="M17">
-        <v>1.039647315715431</v>
+        <v>1.006471886772569</v>
       </c>
       <c r="N17">
-        <v>1.030477690308944</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.00568438119519</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.014857372126415</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.018700034181633</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.002807862317793</v>
+        <v>0.9776524627267671</v>
       </c>
       <c r="D18">
-        <v>1.019775125762118</v>
+        <v>0.9977415065546865</v>
       </c>
       <c r="E18">
-        <v>1.018631973625691</v>
+        <v>0.9935668617553318</v>
       </c>
       <c r="F18">
-        <v>1.027149719915553</v>
+        <v>0.993851794482144</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046875492960494</v>
+        <v>1.028844379096636</v>
       </c>
       <c r="J18">
-        <v>1.029765210077081</v>
+        <v>1.005587153917935</v>
       </c>
       <c r="K18">
-        <v>1.033261027266519</v>
+        <v>1.011599338748386</v>
       </c>
       <c r="L18">
-        <v>1.032136662626646</v>
+        <v>1.00749757124769</v>
       </c>
       <c r="M18">
-        <v>1.040515711048906</v>
+        <v>1.007777504642992</v>
       </c>
       <c r="N18">
-        <v>1.03122759479111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.005948805049817</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.015646384588295</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.019341335573028</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.003211195934309</v>
+        <v>0.9780097253977454</v>
       </c>
       <c r="D19">
-        <v>1.020127558197621</v>
+        <v>0.9980365463911136</v>
       </c>
       <c r="E19">
-        <v>1.018966788330967</v>
+        <v>0.9938788561823829</v>
       </c>
       <c r="F19">
-        <v>1.027512622295435</v>
+        <v>0.9941663384941879</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04696691259661</v>
+        <v>1.029131549570452</v>
       </c>
       <c r="J19">
-        <v>1.030019513401966</v>
+        <v>1.00579037996389</v>
       </c>
       <c r="K19">
-        <v>1.033544947858262</v>
+        <v>1.011824531964631</v>
       </c>
       <c r="L19">
-        <v>1.032403136739699</v>
+        <v>1.007738975918233</v>
       </c>
       <c r="M19">
-        <v>1.040810678797278</v>
+        <v>1.008021445392549</v>
       </c>
       <c r="N19">
-        <v>1.031482259255886</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.005986641495133</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.01550545534558</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.019507102914426</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.001401114344757</v>
+        <v>0.9756144869141785</v>
       </c>
       <c r="D20">
-        <v>1.018546431240732</v>
+        <v>0.99596307165305</v>
       </c>
       <c r="E20">
-        <v>1.017464780403809</v>
+        <v>0.9916382854868374</v>
       </c>
       <c r="F20">
-        <v>1.025884564843754</v>
+        <v>0.9911182668750735</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046555820228273</v>
+        <v>1.027612174394867</v>
       </c>
       <c r="J20">
-        <v>1.02887813202266</v>
+        <v>1.004118908151552</v>
       </c>
       <c r="K20">
-        <v>1.032270819267236</v>
+        <v>1.01007727895221</v>
       </c>
       <c r="L20">
-        <v>1.03120733038324</v>
+        <v>1.005829776529866</v>
       </c>
       <c r="M20">
-        <v>1.039487039470847</v>
+        <v>1.005319109661883</v>
       </c>
       <c r="N20">
-        <v>1.030339256984103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.005385736909945</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.012823759480365</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.01827569679666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9954025290436276</v>
+        <v>0.9683493736027456</v>
       </c>
       <c r="D21">
-        <v>1.013316118868104</v>
+        <v>0.9897480909971018</v>
       </c>
       <c r="E21">
-        <v>1.012497651155184</v>
+        <v>0.9849397565317813</v>
       </c>
       <c r="F21">
-        <v>1.020499745899436</v>
+        <v>0.9823269701141888</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045179137737264</v>
+        <v>1.022419316227039</v>
       </c>
       <c r="J21">
-        <v>1.025093734211942</v>
+        <v>0.9992326997297528</v>
       </c>
       <c r="K21">
-        <v>1.028049529854254</v>
+        <v>1.004926327204864</v>
       </c>
       <c r="L21">
-        <v>1.027246057937942</v>
+        <v>1.000212179671458</v>
       </c>
       <c r="M21">
-        <v>1.035102880951436</v>
+        <v>0.9976510813842216</v>
       </c>
       <c r="N21">
-        <v>1.026549484894418</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.003759023838986</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.00671255195008</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.014636966294417</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9915391400417851</v>
+        <v>0.9634953194224735</v>
       </c>
       <c r="D22">
-        <v>1.009955227553065</v>
+        <v>0.9855610311218977</v>
       </c>
       <c r="E22">
-        <v>1.009307048877234</v>
+        <v>0.9804271998426802</v>
       </c>
       <c r="F22">
-        <v>1.017040151358769</v>
+        <v>0.9763261940963864</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044281726134519</v>
+        <v>1.018723612644167</v>
       </c>
       <c r="J22">
-        <v>1.022655233518042</v>
+        <v>0.9959257695024527</v>
       </c>
       <c r="K22">
-        <v>1.025332015936786</v>
+        <v>1.001424058048149</v>
       </c>
       <c r="L22">
-        <v>1.024696358867763</v>
+        <v>0.9963966315765593</v>
       </c>
       <c r="M22">
-        <v>1.032281432618454</v>
+        <v>0.9923816881991215</v>
       </c>
       <c r="N22">
-        <v>1.024107521249833</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.002659496456219</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.002541958568702</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.012146710890571</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9935962088979073</v>
+        <v>0.9660875199268365</v>
       </c>
       <c r="D23">
-        <v>1.011743993348541</v>
+        <v>0.9877951184406002</v>
       </c>
       <c r="E23">
-        <v>1.011005068163124</v>
+        <v>0.9828418118295874</v>
       </c>
       <c r="F23">
-        <v>1.018881394609451</v>
+        <v>0.9795493075725884</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044760548342575</v>
+        <v>1.020728116377149</v>
       </c>
       <c r="J23">
-        <v>1.023953707993401</v>
+        <v>0.9976930454134262</v>
       </c>
       <c r="K23">
-        <v>1.026778826765293</v>
+        <v>1.003293777430239</v>
       </c>
       <c r="L23">
-        <v>1.026053783487968</v>
+        <v>0.9984401197392319</v>
       </c>
       <c r="M23">
-        <v>1.0337834910761</v>
+        <v>0.9952145882168816</v>
       </c>
       <c r="N23">
-        <v>1.025407839707883</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.003245977600433</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.004784131758487</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.013458831978406</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.001500191067675</v>
+        <v>0.9756890827207064</v>
       </c>
       <c r="D24">
-        <v>1.0186329412932</v>
+        <v>0.9960141665746357</v>
       </c>
       <c r="E24">
-        <v>1.017546956196791</v>
+        <v>0.9917026174219724</v>
       </c>
       <c r="F24">
-        <v>1.025973639934921</v>
+        <v>0.9911951115935524</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046578375845643</v>
+        <v>1.027684624480717</v>
       </c>
       <c r="J24">
-        <v>1.028940614413264</v>
+        <v>1.004156181001527</v>
       </c>
       <c r="K24">
-        <v>1.032340556504443</v>
+        <v>1.010111641348582</v>
       </c>
       <c r="L24">
-        <v>1.031272778859018</v>
+        <v>1.005877028254602</v>
       </c>
       <c r="M24">
-        <v>1.039559482300845</v>
+        <v>1.005378635661289</v>
       </c>
       <c r="N24">
-        <v>1.030401828106869</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.005392910111715</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.012828669202151</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.018271926078233</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.010301459421808</v>
+        <v>0.9858361844728759</v>
       </c>
       <c r="D25">
-        <v>1.026333958033297</v>
+        <v>1.004607068877976</v>
       </c>
       <c r="E25">
-        <v>1.024864631560821</v>
+        <v>1.00094540240485</v>
       </c>
       <c r="F25">
-        <v>1.03390428499004</v>
+        <v>1.003060987646548</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048555808819209</v>
+        <v>1.034305569507903</v>
       </c>
       <c r="J25">
-        <v>1.034487043183247</v>
+        <v>1.010849803744821</v>
       </c>
       <c r="K25">
-        <v>1.038536778481141</v>
+        <v>1.017134284557168</v>
       </c>
       <c r="L25">
-        <v>1.037088839760088</v>
+        <v>1.013529059925245</v>
       </c>
       <c r="M25">
-        <v>1.045998129801182</v>
+        <v>1.015611970842325</v>
       </c>
       <c r="N25">
-        <v>1.03595613344189</v>
+        <v>1.007616816870386</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.02092794529909</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.023234565396353</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_41/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9932907990901158</v>
+        <v>0.9942573052383509</v>
       </c>
       <c r="D2">
-        <v>1.010852147065363</v>
+        <v>1.011817016945023</v>
       </c>
       <c r="E2">
-        <v>1.007666941865059</v>
+        <v>1.008479147721903</v>
       </c>
       <c r="F2">
-        <v>1.011520305492824</v>
+        <v>1.012267996536468</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.03872240536432</v>
+        <v>1.038809731980203</v>
       </c>
       <c r="J2">
-        <v>1.015674049898499</v>
+        <v>1.016611146600591</v>
       </c>
       <c r="K2">
-        <v>1.022162336563922</v>
+        <v>1.023114140659406</v>
       </c>
       <c r="L2">
-        <v>1.019020487480213</v>
+        <v>1.019821605071394</v>
       </c>
       <c r="M2">
-        <v>1.022821443786698</v>
+        <v>1.023559024052905</v>
       </c>
       <c r="N2">
-        <v>1.009217068656765</v>
+        <v>1.011670216191313</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.026633896289559</v>
+        <v>1.027217652888345</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.026740690442985</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.027422630640367</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.018296190287001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9984356235112496</v>
+        <v>0.9990760502101249</v>
       </c>
       <c r="D3">
-        <v>1.015148422687684</v>
+        <v>1.015676363342669</v>
       </c>
       <c r="E3">
-        <v>1.012274162925657</v>
+        <v>1.012799080445758</v>
       </c>
       <c r="F3">
-        <v>1.017228773758675</v>
+        <v>1.017676613774017</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.041530915362589</v>
+        <v>1.041581785630975</v>
       </c>
       <c r="J3">
-        <v>1.018969026046378</v>
+        <v>1.019591934758478</v>
       </c>
       <c r="K3">
-        <v>1.025591077306887</v>
+        <v>1.026112515694209</v>
       </c>
       <c r="L3">
-        <v>1.022752365916735</v>
+        <v>1.02327077259087</v>
       </c>
       <c r="M3">
-        <v>1.027645854815819</v>
+        <v>1.028088206583997</v>
       </c>
       <c r="N3">
-        <v>1.010311622554349</v>
+        <v>1.0124575477215</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.030452158910226</v>
+        <v>1.030802255558841</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.029162486713173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.029539815764909</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.018987287956438</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.001648689828708</v>
+        <v>1.002090084319673</v>
       </c>
       <c r="D4">
-        <v>1.017822952750365</v>
+        <v>1.018082642123103</v>
       </c>
       <c r="E4">
-        <v>1.015138891793925</v>
+        <v>1.01548836104551</v>
       </c>
       <c r="F4">
-        <v>1.020741923809398</v>
+        <v>1.021007273108701</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.043186215766998</v>
+        <v>1.043215884057125</v>
       </c>
       <c r="J4">
-        <v>1.02101031577001</v>
+        <v>1.021440476215398</v>
       </c>
       <c r="K4">
-        <v>1.027710926055184</v>
+        <v>1.027967616336738</v>
       </c>
       <c r="L4">
-        <v>1.025057973804493</v>
+        <v>1.025403381139488</v>
       </c>
       <c r="M4">
-        <v>1.030596295026736</v>
+        <v>1.030858601485134</v>
       </c>
       <c r="N4">
-        <v>1.010989756634668</v>
+        <v>1.012945876666509</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.032787263759482</v>
+        <v>1.032994863956401</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.030662356471647</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.030852551332009</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.019411053409657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.002977294295256</v>
+        <v>1.003337372661672</v>
       </c>
       <c r="D5">
-        <v>1.018928977941805</v>
+        <v>1.019078796531495</v>
       </c>
       <c r="E5">
-        <v>1.016320671830915</v>
+        <v>1.016598435645422</v>
       </c>
       <c r="F5">
-        <v>1.02218231745771</v>
+        <v>1.022373228162923</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.043846503858178</v>
+        <v>1.04386771774468</v>
       </c>
       <c r="J5">
-        <v>1.021851875051502</v>
+        <v>1.022203069925929</v>
       </c>
       <c r="K5">
-        <v>1.028585180268413</v>
+        <v>1.028733316146969</v>
       </c>
       <c r="L5">
-        <v>1.026006267730781</v>
+        <v>1.026280892521393</v>
       </c>
       <c r="M5">
-        <v>1.031802115908922</v>
+        <v>1.031990899236762</v>
       </c>
       <c r="N5">
-        <v>1.011269626051316</v>
+        <v>1.013147564875134</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.03374159984761</v>
+        <v>1.033891010596521</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.031287801640388</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.03140194298191</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.019585412530174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.003203298689865</v>
+        <v>1.003549578583498</v>
       </c>
       <c r="D6">
-        <v>1.019119426396934</v>
+        <v>1.019250664121656</v>
       </c>
       <c r="E6">
-        <v>1.016521557563913</v>
+        <v>1.016787153570855</v>
       </c>
       <c r="F6">
-        <v>1.022425979555066</v>
+        <v>1.022604291951663</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.043955783236596</v>
+        <v>1.04397557714888</v>
       </c>
       <c r="J6">
-        <v>1.021996316978366</v>
+        <v>1.022334098875014</v>
       </c>
       <c r="K6">
-        <v>1.028736728933532</v>
+        <v>1.028866499606872</v>
       </c>
       <c r="L6">
-        <v>1.026167996610699</v>
+        <v>1.026430605399</v>
       </c>
       <c r="M6">
-        <v>1.032006460705506</v>
+        <v>1.03218279575792</v>
       </c>
       <c r="N6">
-        <v>1.011318012742894</v>
+        <v>1.013182486527132</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.033903326569857</v>
+        <v>1.03404288521982</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.03140380889424</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.031505831122398</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.019616124546153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.001678362024765</v>
+        <v>1.002125652442224</v>
       </c>
       <c r="D7">
-        <v>1.01785410879942</v>
+        <v>1.018117450779428</v>
       </c>
       <c r="E7">
-        <v>1.015165334732699</v>
+        <v>1.015519612034966</v>
       </c>
       <c r="F7">
-        <v>1.02077227381681</v>
+        <v>1.021041280894955</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.043196400900724</v>
+        <v>1.043226475543414</v>
       </c>
       <c r="J7">
-        <v>1.02103315734316</v>
+        <v>1.021469068823903</v>
       </c>
       <c r="K7">
-        <v>1.027738791423149</v>
+        <v>1.027999093389597</v>
       </c>
       <c r="L7">
-        <v>1.025081168077787</v>
+        <v>1.025431329246626</v>
       </c>
       <c r="M7">
-        <v>1.030623377367561</v>
+        <v>1.030889300930988</v>
       </c>
       <c r="N7">
-        <v>1.010998307213975</v>
+        <v>1.012980087953491</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.032808697848712</v>
+        <v>1.033019160765521</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.030702420323454</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.030897164466687</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.019419849049901</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9950697463369911</v>
+        <v>0.9959463346903501</v>
       </c>
       <c r="D8">
-        <v>1.01234751841781</v>
+        <v>1.013178860832133</v>
       </c>
       <c r="E8">
-        <v>1.009262771053186</v>
+        <v>1.009994617434998</v>
       </c>
       <c r="F8">
-        <v>1.013502913596499</v>
+        <v>1.014162288930635</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.039708548968932</v>
+        <v>1.039784801893129</v>
       </c>
       <c r="J8">
-        <v>1.016821937864844</v>
+        <v>1.017672782206531</v>
       </c>
       <c r="K8">
-        <v>1.023362792476469</v>
+        <v>1.02418322682356</v>
       </c>
       <c r="L8">
-        <v>1.020318717184944</v>
+        <v>1.021040886052735</v>
       </c>
       <c r="M8">
-        <v>1.024503033756449</v>
+        <v>1.025153780263337</v>
       </c>
       <c r="N8">
-        <v>1.009599628058938</v>
+        <v>1.012030427027816</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.027964786976547</v>
+        <v>1.028479818178436</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.027612801047984</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.028204100910242</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.018546237524041</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9824073864670639</v>
+        <v>0.9841238192145456</v>
       </c>
       <c r="D9">
-        <v>1.001703707570149</v>
+        <v>1.003646633467254</v>
       </c>
       <c r="E9">
-        <v>0.9978352149055277</v>
+        <v>0.9993066430911783</v>
       </c>
       <c r="F9">
-        <v>0.999103548276872</v>
+        <v>1.000539972023093</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.032159657775367</v>
+        <v>1.032339589975964</v>
       </c>
       <c r="J9">
-        <v>1.008597055566111</v>
+        <v>1.010249937628251</v>
       </c>
       <c r="K9">
-        <v>1.014769203652268</v>
+        <v>1.016680822359562</v>
       </c>
       <c r="L9">
-        <v>1.010963512151223</v>
+        <v>1.012410979552881</v>
       </c>
       <c r="M9">
-        <v>1.012211186548013</v>
+        <v>1.013624294628608</v>
       </c>
       <c r="N9">
-        <v>1.006866647810341</v>
+        <v>1.010079036578496</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.018236371350524</v>
+        <v>1.019354786707748</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.021533081934612</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.022895741219044</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.016792399558393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9731305859323462</v>
+        <v>0.9755377587062201</v>
       </c>
       <c r="D10">
-        <v>0.9938324097870667</v>
+        <v>0.9966576003610611</v>
       </c>
       <c r="E10">
-        <v>0.9893591764619776</v>
+        <v>0.9914378563746699</v>
       </c>
       <c r="F10">
-        <v>0.9881577032444828</v>
+        <v>0.9902356401659989</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I10">
-        <v>1.025891481115268</v>
+        <v>1.026171741931254</v>
       </c>
       <c r="J10">
-        <v>1.002452365753396</v>
+        <v>1.004756707974767</v>
       </c>
       <c r="K10">
-        <v>1.00831392209611</v>
+        <v>1.011087466244091</v>
       </c>
       <c r="L10">
-        <v>1.003923249330069</v>
+        <v>1.005963443158402</v>
       </c>
       <c r="M10">
-        <v>1.002744117341259</v>
+        <v>1.004783459904637</v>
       </c>
       <c r="N10">
-        <v>1.004830401714856</v>
+        <v>1.008749583645159</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.010796763230234</v>
+        <v>1.012410726898282</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.016985758805961</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.018959611984723</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.015466403426476</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9690780934051244</v>
+        <v>0.971835788470343</v>
       </c>
       <c r="D11">
-        <v>0.9904019031089432</v>
+        <v>0.9936524203222392</v>
       </c>
       <c r="E11">
-        <v>0.9856558793851556</v>
+        <v>0.9880398244541607</v>
       </c>
       <c r="F11">
-        <v>0.9834001780433496</v>
+        <v>0.9857992035320048</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.022840532531592</v>
+        <v>1.023177006304833</v>
       </c>
       <c r="J11">
-        <v>0.9997963421609102</v>
+        <v>1.002429053313703</v>
       </c>
       <c r="K11">
-        <v>1.005507124170526</v>
+        <v>1.008695043774557</v>
       </c>
       <c r="L11">
-        <v>1.000853471203247</v>
+        <v>1.003190872651959</v>
       </c>
       <c r="M11">
-        <v>0.9986420825290347</v>
+        <v>1.00099398877526</v>
       </c>
       <c r="N11">
-        <v>1.003990745843002</v>
+        <v>1.008393874051983</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.008002463678419</v>
+        <v>1.009862797847486</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.015034834580942</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.017304902563835</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.014920770987126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9675627737986596</v>
+        <v>0.9704514214306389</v>
       </c>
       <c r="D12">
-        <v>0.9891090083502696</v>
+        <v>0.9925192862008955</v>
       </c>
       <c r="E12">
-        <v>0.9842649044621153</v>
+        <v>0.9867624001231741</v>
       </c>
       <c r="F12">
-        <v>0.9816426544070348</v>
+        <v>0.9841631632287564</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.021648985369369</v>
+        <v>1.022008156964531</v>
       </c>
       <c r="J12">
-        <v>0.9988063310847657</v>
+        <v>1.001561200002738</v>
       </c>
       <c r="K12">
-        <v>1.004447879953897</v>
+        <v>1.007791222060524</v>
       </c>
       <c r="L12">
-        <v>0.9996999031753749</v>
+        <v>1.002147683278135</v>
       </c>
       <c r="M12">
-        <v>0.9971302104063167</v>
+        <v>0.9996001942546898</v>
       </c>
       <c r="N12">
-        <v>1.003694636128388</v>
+        <v>1.008289017826831</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.007144057586816</v>
+        <v>1.009097084040397</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.014285874854308</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.016665855486802</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.014721421103989</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9679896890274706</v>
+        <v>0.9708260646751911</v>
       </c>
       <c r="D13">
-        <v>0.9894737881127016</v>
+        <v>0.992827499499263</v>
       </c>
       <c r="E13">
-        <v>0.9846611010266584</v>
+        <v>0.9871122130114917</v>
       </c>
       <c r="F13">
-        <v>0.9822391310579915</v>
+        <v>0.9847143792587451</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.021938659832115</v>
+        <v>1.022290086968558</v>
       </c>
       <c r="J13">
-        <v>0.9991155666265867</v>
+        <v>1.001821224337995</v>
       </c>
       <c r="K13">
-        <v>1.004760748696024</v>
+        <v>1.00804891490763</v>
       </c>
       <c r="L13">
-        <v>1.000043146605985</v>
+        <v>1.002445679415039</v>
       </c>
       <c r="M13">
-        <v>0.9976694915258755</v>
+        <v>1.000095365524118</v>
       </c>
       <c r="N13">
-        <v>1.00382562275837</v>
+        <v>1.008353691725707</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.007855278022266</v>
+        <v>1.009772917103103</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.014504531829266</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.016845254489363</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.014796663549074</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9691681081060806</v>
+        <v>0.971886071007188</v>
       </c>
       <c r="D14">
-        <v>0.9904805123178811</v>
+        <v>0.9936977065945984</v>
       </c>
       <c r="E14">
-        <v>0.9857467655462463</v>
+        <v>0.9880941690328248</v>
       </c>
       <c r="F14">
-        <v>0.9837205108087165</v>
+        <v>0.9860896989543398</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.022808766360376</v>
+        <v>1.023141345054733</v>
       </c>
       <c r="J14">
-        <v>0.9999198405685107</v>
+        <v>1.002514468390485</v>
       </c>
       <c r="K14">
-        <v>1.005601421043326</v>
+        <v>1.008756588057504</v>
       </c>
       <c r="L14">
-        <v>1.00095990671624</v>
+        <v>1.003261428469742</v>
       </c>
       <c r="M14">
-        <v>0.9989734878634423</v>
+        <v>1.001296119357827</v>
       </c>
       <c r="N14">
-        <v>1.004110489053505</v>
+        <v>1.008476972645813</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.00906363616359</v>
+        <v>1.010899405610453</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.015100411513592</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.017347217219682</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.014974060869223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9698790659611061</v>
+        <v>0.9725292975692212</v>
       </c>
       <c r="D15">
-        <v>0.9910908953741338</v>
+        <v>0.9942284981734915</v>
       </c>
       <c r="E15">
-        <v>0.9864027343476774</v>
+        <v>0.9886909630220646</v>
       </c>
       <c r="F15">
-        <v>0.9845956946856674</v>
+        <v>0.9869037077757939</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.023331028712576</v>
+        <v>1.023652840503422</v>
       </c>
       <c r="J15">
-        <v>1.00040186223498</v>
+        <v>1.002932976407339</v>
       </c>
       <c r="K15">
-        <v>1.006109928814909</v>
+        <v>1.009187545507535</v>
       </c>
       <c r="L15">
-        <v>1.00151233052656</v>
+        <v>1.003756216161424</v>
       </c>
       <c r="M15">
-        <v>0.9997405001311015</v>
+        <v>1.002003572662172</v>
       </c>
       <c r="N15">
-        <v>1.004274294458915</v>
+        <v>1.008548031229161</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.009708218882151</v>
+        <v>1.011496866334806</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.015465994123886</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.017658522598387</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.015078967098566</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9738915229013727</v>
+        <v>0.9761839088169006</v>
       </c>
       <c r="D16">
-        <v>0.9945317245607316</v>
+        <v>0.9972385941423496</v>
       </c>
       <c r="E16">
-        <v>0.9901094154184195</v>
+        <v>0.9920852386255453</v>
       </c>
       <c r="F16">
-        <v>0.9894518192716256</v>
+        <v>0.9914342640573304</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.026217870304934</v>
+        <v>1.026484414362976</v>
       </c>
       <c r="J16">
-        <v>1.003100476435987</v>
+        <v>1.005295451794994</v>
       </c>
       <c r="K16">
-        <v>1.008963446950893</v>
+        <v>1.011621061321645</v>
       </c>
       <c r="L16">
-        <v>1.00462236307747</v>
+        <v>1.006561779436391</v>
       </c>
       <c r="M16">
-        <v>1.003976925952396</v>
+        <v>1.005922778949084</v>
       </c>
       <c r="N16">
-        <v>1.005162635591419</v>
+        <v>1.008958794830829</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.013017049763381</v>
+        <v>1.01455502908452</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.01748686429361</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.019382683192372</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.015657370222183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9763175282348638</v>
+        <v>0.97841135898854</v>
       </c>
       <c r="D17">
-        <v>0.9966077216962922</v>
+        <v>0.9990685066598013</v>
       </c>
       <c r="E17">
-        <v>0.9923436696105316</v>
+        <v>0.9941459937476056</v>
       </c>
       <c r="F17">
-        <v>0.9923279887767046</v>
+        <v>0.9941283143903584</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.027909387675105</v>
+        <v>1.028146512953706</v>
       </c>
       <c r="J17">
-        <v>1.004717226113078</v>
+        <v>1.006725204015625</v>
       </c>
       <c r="K17">
-        <v>1.01067549242705</v>
+        <v>1.013092888064497</v>
       </c>
       <c r="L17">
-        <v>1.006487287121491</v>
+        <v>1.008257449397994</v>
       </c>
       <c r="M17">
-        <v>1.006471886772569</v>
+        <v>1.008240084787746</v>
       </c>
       <c r="N17">
-        <v>1.00568438119519</v>
+        <v>1.009231403878774</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.014857372126415</v>
+        <v>1.016255081853077</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.018700034181633</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.020426226787595</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.016001394760626</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9776524627267671</v>
+        <v>0.9796483524332649</v>
       </c>
       <c r="D18">
-        <v>0.9977415065546865</v>
+        <v>1.000075735965124</v>
       </c>
       <c r="E18">
-        <v>0.9935668617553318</v>
+        <v>0.995283614748447</v>
       </c>
       <c r="F18">
-        <v>0.993851794482144</v>
+        <v>0.9955604762272677</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.028844379096636</v>
+        <v>1.029066915715316</v>
       </c>
       <c r="J18">
-        <v>1.005587153917935</v>
+        <v>1.00750289842702</v>
       </c>
       <c r="K18">
-        <v>1.011599338748386</v>
+        <v>1.013893162235708</v>
       </c>
       <c r="L18">
-        <v>1.00749757124769</v>
+        <v>1.009184258809048</v>
       </c>
       <c r="M18">
-        <v>1.007777504642992</v>
+        <v>1.009456284197718</v>
       </c>
       <c r="N18">
-        <v>1.005948805049817</v>
+        <v>1.009378786821053</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.015646384588295</v>
+        <v>1.016973701624523</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.019341335573028</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.020979016722125</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.016179538429067</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9780097253977454</v>
+        <v>0.9799907282599651</v>
       </c>
       <c r="D19">
-        <v>0.9980365463911136</v>
+        <v>1.000346257986221</v>
       </c>
       <c r="E19">
-        <v>0.9938788561823829</v>
+        <v>0.9955829859747675</v>
       </c>
       <c r="F19">
-        <v>0.9941663384941879</v>
+        <v>0.9958589193142623</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.029131549570452</v>
+        <v>1.029351195019179</v>
       </c>
       <c r="J19">
-        <v>1.00579037996389</v>
+        <v>1.007692383458645</v>
       </c>
       <c r="K19">
-        <v>1.011824531964631</v>
+        <v>1.014094505888612</v>
       </c>
       <c r="L19">
-        <v>1.007738975918233</v>
+        <v>1.009413445475095</v>
       </c>
       <c r="M19">
-        <v>1.008021445392549</v>
+        <v>1.009684588576163</v>
       </c>
       <c r="N19">
-        <v>1.005986641495133</v>
+        <v>1.009396878092572</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.01550545534558</v>
+        <v>1.016820861682857</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.019507102914426</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.02112853545478</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.016211455568702</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9756144869141785</v>
+        <v>0.9778104825113296</v>
       </c>
       <c r="D20">
-        <v>0.99596307165305</v>
+        <v>0.9985312391139388</v>
       </c>
       <c r="E20">
-        <v>0.9916382854868374</v>
+        <v>0.9935320226205823</v>
       </c>
       <c r="F20">
-        <v>0.9911182668750735</v>
+        <v>0.993004087337413</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.027612174394867</v>
+        <v>1.027861241529436</v>
       </c>
       <c r="J20">
-        <v>1.004118908151552</v>
+        <v>1.006224407898981</v>
       </c>
       <c r="K20">
-        <v>1.01007727895221</v>
+        <v>1.01259996417087</v>
       </c>
       <c r="L20">
-        <v>1.005829776529866</v>
+        <v>1.007689565128414</v>
       </c>
       <c r="M20">
-        <v>1.005319109661883</v>
+        <v>1.007171077096967</v>
       </c>
       <c r="N20">
-        <v>1.005385736909945</v>
+        <v>1.009039551556657</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.012823759480365</v>
+        <v>1.014289447826204</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.01827569679666</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.020076215521258</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.01582863318131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9683493736027456</v>
+        <v>0.971216969907749</v>
       </c>
       <c r="D21">
-        <v>0.9897480909971018</v>
+        <v>0.9931136260938364</v>
       </c>
       <c r="E21">
-        <v>0.9849397565317813</v>
+        <v>0.9874210863592696</v>
       </c>
       <c r="F21">
-        <v>0.9823269701141888</v>
+        <v>0.9848192797822742</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.022419316227039</v>
+        <v>1.022770632796717</v>
       </c>
       <c r="J21">
-        <v>0.9992326997297528</v>
+        <v>1.001969414163087</v>
       </c>
       <c r="K21">
-        <v>1.004926327204864</v>
+        <v>1.008226648061382</v>
       </c>
       <c r="L21">
-        <v>1.000212179671458</v>
+        <v>1.002644754243394</v>
       </c>
       <c r="M21">
-        <v>0.9976510813842216</v>
+        <v>1.000094078363711</v>
       </c>
       <c r="N21">
-        <v>1.003759023838986</v>
+        <v>1.008333626414218</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.00671255195008</v>
+        <v>1.008646113863704</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.014636966294417</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.016987712758721</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.014783970017695</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9634953194224735</v>
+        <v>0.9668221338576356</v>
       </c>
       <c r="D22">
-        <v>0.9855610311218977</v>
+        <v>0.9894715874661888</v>
       </c>
       <c r="E22">
-        <v>0.9804271998426802</v>
+        <v>0.9833121790390305</v>
       </c>
       <c r="F22">
-        <v>0.9763261940963864</v>
+        <v>0.9792423776355382</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.018723612644167</v>
+        <v>1.019155681290118</v>
       </c>
       <c r="J22">
-        <v>0.9959257695024527</v>
+        <v>0.9990909056947994</v>
       </c>
       <c r="K22">
-        <v>1.001424058048149</v>
+        <v>1.005254539879945</v>
       </c>
       <c r="L22">
-        <v>0.9963966315765593</v>
+        <v>0.999221635528716</v>
       </c>
       <c r="M22">
-        <v>0.9923816881991215</v>
+        <v>0.9952365757569778</v>
       </c>
       <c r="N22">
-        <v>1.002659496456219</v>
+        <v>1.007832711503048</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.002541958568702</v>
+        <v>1.004801534343853</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.012146710890571</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.014871084461845</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.014068626231504</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9660875199268365</v>
+        <v>0.9691549831975229</v>
       </c>
       <c r="D23">
-        <v>0.9877951184406002</v>
+        <v>0.991402998065072</v>
       </c>
       <c r="E23">
-        <v>0.9828418118295874</v>
+        <v>0.9854990644717484</v>
       </c>
       <c r="F23">
-        <v>0.9795493075725884</v>
+        <v>0.9822276807170756</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.020728116377149</v>
+        <v>1.021114220264284</v>
       </c>
       <c r="J23">
-        <v>0.9976930454134262</v>
+        <v>1.000616288906342</v>
       </c>
       <c r="K23">
-        <v>1.003293777430239</v>
+        <v>1.006829898396058</v>
       </c>
       <c r="L23">
-        <v>0.9984401197392319</v>
+        <v>1.001043750759308</v>
       </c>
       <c r="M23">
-        <v>0.9952145882168816</v>
+        <v>0.997838435772026</v>
       </c>
       <c r="N23">
-        <v>1.003245977600433</v>
+        <v>1.008057465602635</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.004784131758487</v>
+        <v>1.006860837772393</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.013458831978406</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.01597411360451</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.01444654281038</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9756890827207064</v>
+        <v>0.9778809100787986</v>
       </c>
       <c r="D24">
-        <v>0.9960141665746357</v>
+        <v>0.9985762445484115</v>
       </c>
       <c r="E24">
-        <v>0.9917026174219724</v>
+        <v>0.9935928398701602</v>
       </c>
       <c r="F24">
-        <v>0.9911951115935524</v>
+        <v>0.9930767617319074</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.027684624480717</v>
+        <v>1.027932909867941</v>
       </c>
       <c r="J24">
-        <v>1.004156181001527</v>
+        <v>1.00625783100062</v>
       </c>
       <c r="K24">
-        <v>1.010111641348582</v>
+        <v>1.012628409145839</v>
       </c>
       <c r="L24">
-        <v>1.005877028254602</v>
+        <v>1.007733414507157</v>
       </c>
       <c r="M24">
-        <v>1.005378635661289</v>
+        <v>1.00722655789862</v>
       </c>
       <c r="N24">
-        <v>1.005392910111715</v>
+        <v>1.009040731593417</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.012828669202151</v>
+        <v>1.014291233222624</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.018271926078233</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.020065611581639</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.015831460732592</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9858361844728759</v>
+        <v>0.9873092384268236</v>
       </c>
       <c r="D25">
-        <v>1.004607068877976</v>
+        <v>1.006235561079811</v>
       </c>
       <c r="E25">
-        <v>1.00094540240485</v>
+        <v>1.002202922000716</v>
       </c>
       <c r="F25">
-        <v>1.003060987646548</v>
+        <v>1.004273425901161</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.034305569507903</v>
+        <v>1.034453893328114</v>
       </c>
       <c r="J25">
-        <v>1.010849803744821</v>
+        <v>1.012271377643629</v>
       </c>
       <c r="K25">
-        <v>1.017134284557168</v>
+        <v>1.01873784309313</v>
       </c>
       <c r="L25">
-        <v>1.013529059925245</v>
+        <v>1.0147671364268</v>
       </c>
       <c r="M25">
-        <v>1.015611970842325</v>
+        <v>1.016805762687726</v>
       </c>
       <c r="N25">
-        <v>1.007616816870386</v>
+        <v>1.01058117382168</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.02092794529909</v>
+        <v>1.021872777438382</v>
       </c>
       <c r="Q25">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R25">
-        <v>1.023234565396353</v>
+        <v>1.024382163937464</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.017278426318633</v>
       </c>
     </row>
   </sheetData>
